--- a/backend/templates/UC-18gsm-250W-BFQR.xlsx
+++ b/backend/templates/UC-18gsm-250W-BFQR.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7A8DDD-0A45-408B-9D66-FB277C989CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E870AAB6-61A0-4D02-B52E-3F81CFDE7565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="6" r:id="rId1"/>
@@ -28,6 +28,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -2007,6 +2010,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2056,6 +2065,12 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2391,18 +2406,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3925,7 +3928,7 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I7" sqref="I7:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4014,11 +4017,11 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="304">
+      <c r="J4" s="178">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="305"/>
+      <c r="K4" s="179"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="147" t="s">
@@ -4050,104 +4053,104 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="306">
+      <c r="J5" s="194">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="307"/>
+      <c r="K5" s="195"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="208" t="s">
+      <c r="A6" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="209"/>
-      <c r="C6" s="210"/>
-      <c r="D6" s="192"/>
-      <c r="E6" s="193"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="183"/>
-      <c r="I6" s="206"/>
-      <c r="J6" s="207"/>
+      <c r="B6" s="213"/>
+      <c r="C6" s="214"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="197"/>
+      <c r="F6" s="185"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="185"/>
+      <c r="I6" s="210"/>
+      <c r="J6" s="211"/>
       <c r="K6" s="55"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="192" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="193"/>
-      <c r="C7" s="193"/>
-      <c r="D7" s="211" t="s">
+      <c r="A7" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="197"/>
+      <c r="C7" s="197"/>
+      <c r="D7" s="215" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="193"/>
+      <c r="E7" s="197"/>
       <c r="F7" s="177"/>
-      <c r="G7" s="182" t="s">
+      <c r="G7" s="184" t="s">
         <v>125</v>
       </c>
-      <c r="H7" s="193"/>
-      <c r="I7" s="182" t="s">
+      <c r="H7" s="197"/>
+      <c r="I7" s="184" t="s">
         <v>135</v>
       </c>
-      <c r="J7" s="183"/>
-      <c r="K7" s="199" t="s">
+      <c r="J7" s="185"/>
+      <c r="K7" s="203" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="194"/>
-      <c r="B8" s="195"/>
-      <c r="C8" s="195"/>
-      <c r="D8" s="194" t="s">
+      <c r="A8" s="198"/>
+      <c r="B8" s="199"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="198" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="203" t="s">
+      <c r="E8" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="204" t="s">
+      <c r="F8" s="208" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="196"/>
-      <c r="H8" s="195"/>
-      <c r="I8" s="196" t="s">
+      <c r="G8" s="200"/>
+      <c r="H8" s="199"/>
+      <c r="I8" s="200" t="s">
         <v>136</v>
       </c>
-      <c r="J8" s="204"/>
-      <c r="K8" s="200"/>
+      <c r="J8" s="208"/>
+      <c r="K8" s="204"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="194"/>
-      <c r="B9" s="195"/>
-      <c r="C9" s="195"/>
-      <c r="D9" s="194"/>
+      <c r="A9" s="198"/>
+      <c r="B9" s="199"/>
+      <c r="C9" s="199"/>
+      <c r="D9" s="198"/>
       <c r="E9" s="151"/>
-      <c r="F9" s="204"/>
-      <c r="G9" s="196"/>
-      <c r="H9" s="195"/>
+      <c r="F9" s="208"/>
+      <c r="G9" s="200"/>
+      <c r="H9" s="199"/>
       <c r="I9" s="57" t="s">
         <v>123</v>
       </c>
       <c r="J9" s="58">
-        <v>210</v>
-      </c>
-      <c r="K9" s="200"/>
+        <v>250</v>
+      </c>
+      <c r="K9" s="204"/>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="194"/>
-      <c r="B10" s="195"/>
-      <c r="C10" s="195"/>
-      <c r="D10" s="202"/>
+      <c r="A10" s="198"/>
+      <c r="B10" s="199"/>
+      <c r="C10" s="199"/>
+      <c r="D10" s="206"/>
       <c r="E10" s="152"/>
-      <c r="F10" s="205"/>
-      <c r="G10" s="197"/>
-      <c r="H10" s="198"/>
+      <c r="F10" s="209"/>
+      <c r="G10" s="201"/>
+      <c r="H10" s="202"/>
       <c r="I10" s="59" t="s">
         <v>124</v>
       </c>
       <c r="J10" s="60">
-        <v>213</v>
-      </c>
-      <c r="K10" s="201"/>
+        <v>253</v>
+      </c>
+      <c r="K10" s="205"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="120">
@@ -4165,10 +4168,10 @@
       <c r="D11" s="61"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="191"/>
-      <c r="H11" s="191"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="179"/>
+      <c r="G11" s="193"/>
+      <c r="H11" s="193"/>
+      <c r="I11" s="180"/>
+      <c r="J11" s="181"/>
       <c r="K11" s="62"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4187,10 +4190,10 @@
       <c r="D12" s="63"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="190"/>
-      <c r="H12" s="190"/>
-      <c r="I12" s="180"/>
-      <c r="J12" s="181"/>
+      <c r="G12" s="192"/>
+      <c r="H12" s="192"/>
+      <c r="I12" s="182"/>
+      <c r="J12" s="183"/>
       <c r="K12" s="64"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4209,10 +4212,10 @@
       <c r="D13" s="63"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="190"/>
-      <c r="H13" s="190"/>
-      <c r="I13" s="180"/>
-      <c r="J13" s="181"/>
+      <c r="G13" s="192"/>
+      <c r="H13" s="192"/>
+      <c r="I13" s="182"/>
+      <c r="J13" s="183"/>
       <c r="K13" s="64"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4231,10 +4234,10 @@
       <c r="D14" s="63"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="190"/>
-      <c r="H14" s="190"/>
-      <c r="I14" s="180"/>
-      <c r="J14" s="181"/>
+      <c r="G14" s="192"/>
+      <c r="H14" s="192"/>
+      <c r="I14" s="182"/>
+      <c r="J14" s="183"/>
       <c r="K14" s="64"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4253,10 +4256,10 @@
       <c r="D15" s="63"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="190"/>
-      <c r="H15" s="190"/>
-      <c r="I15" s="180"/>
-      <c r="J15" s="181"/>
+      <c r="G15" s="192"/>
+      <c r="H15" s="192"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="183"/>
       <c r="K15" s="64"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4275,10 +4278,10 @@
       <c r="D16" s="61"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="191"/>
-      <c r="H16" s="191"/>
-      <c r="I16" s="180"/>
-      <c r="J16" s="181"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="183"/>
       <c r="K16" s="62"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4297,10 +4300,10 @@
       <c r="D17" s="63"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
-      <c r="G17" s="190"/>
-      <c r="H17" s="190"/>
-      <c r="I17" s="180"/>
-      <c r="J17" s="181"/>
+      <c r="G17" s="192"/>
+      <c r="H17" s="192"/>
+      <c r="I17" s="182"/>
+      <c r="J17" s="183"/>
       <c r="K17" s="64"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4319,10 +4322,10 @@
       <c r="D18" s="63"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
-      <c r="G18" s="190"/>
-      <c r="H18" s="190"/>
-      <c r="I18" s="180"/>
-      <c r="J18" s="181"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="192"/>
+      <c r="I18" s="182"/>
+      <c r="J18" s="183"/>
       <c r="K18" s="64"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4341,10 +4344,10 @@
       <c r="D19" s="63"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="190"/>
-      <c r="H19" s="190"/>
-      <c r="I19" s="180"/>
-      <c r="J19" s="181"/>
+      <c r="G19" s="192"/>
+      <c r="H19" s="192"/>
+      <c r="I19" s="182"/>
+      <c r="J19" s="183"/>
       <c r="K19" s="64"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4363,10 +4366,10 @@
       <c r="D20" s="63"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
-      <c r="G20" s="186"/>
-      <c r="H20" s="187"/>
-      <c r="I20" s="180"/>
-      <c r="J20" s="181"/>
+      <c r="G20" s="188"/>
+      <c r="H20" s="189"/>
+      <c r="I20" s="182"/>
+      <c r="J20" s="183"/>
       <c r="K20" s="64"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4385,10 +4388,10 @@
       <c r="D21" s="63"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
-      <c r="G21" s="186"/>
-      <c r="H21" s="187"/>
-      <c r="I21" s="180"/>
-      <c r="J21" s="181"/>
+      <c r="G21" s="188"/>
+      <c r="H21" s="189"/>
+      <c r="I21" s="182"/>
+      <c r="J21" s="183"/>
       <c r="K21" s="64"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4407,10 +4410,10 @@
       <c r="D22" s="63"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
-      <c r="G22" s="186"/>
-      <c r="H22" s="187"/>
-      <c r="I22" s="180"/>
-      <c r="J22" s="181"/>
+      <c r="G22" s="188"/>
+      <c r="H22" s="189"/>
+      <c r="I22" s="182"/>
+      <c r="J22" s="183"/>
       <c r="K22" s="64"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4429,10 +4432,10 @@
       <c r="D23" s="63"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="186"/>
-      <c r="H23" s="187"/>
-      <c r="I23" s="180"/>
-      <c r="J23" s="181"/>
+      <c r="G23" s="188"/>
+      <c r="H23" s="189"/>
+      <c r="I23" s="182"/>
+      <c r="J23" s="183"/>
       <c r="K23" s="64"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4451,10 +4454,10 @@
       <c r="D24" s="63"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
-      <c r="G24" s="186"/>
-      <c r="H24" s="187"/>
-      <c r="I24" s="180"/>
-      <c r="J24" s="181"/>
+      <c r="G24" s="188"/>
+      <c r="H24" s="189"/>
+      <c r="I24" s="182"/>
+      <c r="J24" s="183"/>
       <c r="K24" s="64"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4473,10 +4476,10 @@
       <c r="D25" s="63"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
-      <c r="G25" s="186"/>
-      <c r="H25" s="187"/>
-      <c r="I25" s="180"/>
-      <c r="J25" s="181"/>
+      <c r="G25" s="188"/>
+      <c r="H25" s="189"/>
+      <c r="I25" s="182"/>
+      <c r="J25" s="183"/>
       <c r="K25" s="64"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4495,10 +4498,10 @@
       <c r="D26" s="63"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
-      <c r="G26" s="186"/>
-      <c r="H26" s="187"/>
-      <c r="I26" s="180"/>
-      <c r="J26" s="181"/>
+      <c r="G26" s="188"/>
+      <c r="H26" s="189"/>
+      <c r="I26" s="182"/>
+      <c r="J26" s="183"/>
       <c r="K26" s="64"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4517,10 +4520,10 @@
       <c r="D27" s="63"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
-      <c r="G27" s="186"/>
-      <c r="H27" s="187"/>
-      <c r="I27" s="180"/>
-      <c r="J27" s="181"/>
+      <c r="G27" s="188"/>
+      <c r="H27" s="189"/>
+      <c r="I27" s="182"/>
+      <c r="J27" s="183"/>
       <c r="K27" s="64"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4539,10 +4542,10 @@
       <c r="D28" s="63"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="186"/>
-      <c r="H28" s="187"/>
-      <c r="I28" s="180"/>
-      <c r="J28" s="181"/>
+      <c r="G28" s="188"/>
+      <c r="H28" s="189"/>
+      <c r="I28" s="182"/>
+      <c r="J28" s="183"/>
       <c r="K28" s="64"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4561,10 +4564,10 @@
       <c r="D29" s="63"/>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="186"/>
-      <c r="H29" s="187"/>
-      <c r="I29" s="180"/>
-      <c r="J29" s="181"/>
+      <c r="G29" s="188"/>
+      <c r="H29" s="189"/>
+      <c r="I29" s="182"/>
+      <c r="J29" s="183"/>
       <c r="K29" s="64"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4583,10 +4586,10 @@
       <c r="D30" s="63"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
-      <c r="G30" s="186"/>
-      <c r="H30" s="187"/>
-      <c r="I30" s="180"/>
-      <c r="J30" s="181"/>
+      <c r="G30" s="188"/>
+      <c r="H30" s="189"/>
+      <c r="I30" s="182"/>
+      <c r="J30" s="183"/>
       <c r="K30" s="64"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4605,10 +4608,10 @@
       <c r="D31" s="63"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="186"/>
-      <c r="H31" s="187"/>
-      <c r="I31" s="180"/>
-      <c r="J31" s="181"/>
+      <c r="G31" s="188"/>
+      <c r="H31" s="189"/>
+      <c r="I31" s="182"/>
+      <c r="J31" s="183"/>
       <c r="K31" s="64"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4627,10 +4630,10 @@
       <c r="D32" s="63"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
-      <c r="G32" s="186"/>
-      <c r="H32" s="187"/>
-      <c r="I32" s="180"/>
-      <c r="J32" s="181"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="189"/>
+      <c r="I32" s="182"/>
+      <c r="J32" s="183"/>
       <c r="K32" s="64"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4649,10 +4652,10 @@
       <c r="D33" s="63"/>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
-      <c r="G33" s="186"/>
-      <c r="H33" s="187"/>
-      <c r="I33" s="180"/>
-      <c r="J33" s="181"/>
+      <c r="G33" s="188"/>
+      <c r="H33" s="189"/>
+      <c r="I33" s="182"/>
+      <c r="J33" s="183"/>
       <c r="K33" s="64"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4671,10 +4674,10 @@
       <c r="D34" s="63"/>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
-      <c r="G34" s="186"/>
-      <c r="H34" s="187"/>
-      <c r="I34" s="180"/>
-      <c r="J34" s="181"/>
+      <c r="G34" s="188"/>
+      <c r="H34" s="189"/>
+      <c r="I34" s="182"/>
+      <c r="J34" s="183"/>
       <c r="K34" s="64"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4693,10 +4696,10 @@
       <c r="D35" s="63"/>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
-      <c r="G35" s="186"/>
-      <c r="H35" s="187"/>
-      <c r="I35" s="180"/>
-      <c r="J35" s="181"/>
+      <c r="G35" s="188"/>
+      <c r="H35" s="189"/>
+      <c r="I35" s="182"/>
+      <c r="J35" s="183"/>
       <c r="K35" s="64"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4715,10 +4718,10 @@
       <c r="D36" s="63"/>
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
-      <c r="G36" s="186"/>
-      <c r="H36" s="187"/>
-      <c r="I36" s="180"/>
-      <c r="J36" s="181"/>
+      <c r="G36" s="188"/>
+      <c r="H36" s="189"/>
+      <c r="I36" s="182"/>
+      <c r="J36" s="183"/>
       <c r="K36" s="64"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4737,10 +4740,10 @@
       <c r="D37" s="63"/>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
-      <c r="G37" s="186"/>
-      <c r="H37" s="187"/>
-      <c r="I37" s="180"/>
-      <c r="J37" s="181"/>
+      <c r="G37" s="188"/>
+      <c r="H37" s="189"/>
+      <c r="I37" s="182"/>
+      <c r="J37" s="183"/>
       <c r="K37" s="64"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4759,10 +4762,10 @@
       <c r="D38" s="63"/>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
-      <c r="G38" s="186"/>
-      <c r="H38" s="187"/>
-      <c r="I38" s="180"/>
-      <c r="J38" s="181"/>
+      <c r="G38" s="188"/>
+      <c r="H38" s="189"/>
+      <c r="I38" s="182"/>
+      <c r="J38" s="183"/>
       <c r="K38" s="64"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4781,10 +4784,10 @@
       <c r="D39" s="63"/>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
-      <c r="G39" s="186"/>
-      <c r="H39" s="187"/>
-      <c r="I39" s="180"/>
-      <c r="J39" s="181"/>
+      <c r="G39" s="188"/>
+      <c r="H39" s="189"/>
+      <c r="I39" s="182"/>
+      <c r="J39" s="183"/>
       <c r="K39" s="64"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4803,10 +4806,10 @@
       <c r="D40" s="63"/>
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
-      <c r="G40" s="190"/>
-      <c r="H40" s="190"/>
-      <c r="I40" s="180"/>
-      <c r="J40" s="181"/>
+      <c r="G40" s="192"/>
+      <c r="H40" s="192"/>
+      <c r="I40" s="182"/>
+      <c r="J40" s="183"/>
       <c r="K40" s="64"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4827,16 +4830,16 @@
         <f>AVERAGE(F11:F40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="188" t="e">
+      <c r="G41" s="190" t="e">
         <f>AVERAGE(G11:H40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="189"/>
-      <c r="I41" s="220" t="e">
+      <c r="H41" s="191"/>
+      <c r="I41" s="224" t="e">
         <f>AVERAGE(I11:J40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="221"/>
+      <c r="J41" s="225"/>
       <c r="K41" s="37" t="e">
         <f>AVERAGE(K11:K40)</f>
         <v>#DIV/0!</v>
@@ -4860,27 +4863,27 @@
         <f>MIN(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="184">
+      <c r="G42" s="186">
         <f>MIN(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="185"/>
-      <c r="I42" s="218">
+      <c r="H42" s="187"/>
+      <c r="I42" s="222">
         <f>MIN(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="219"/>
+      <c r="J42" s="223"/>
       <c r="K42" s="40">
         <f>MIN(K11:K40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="216" t="s">
+      <c r="A43" s="220" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="217"/>
-      <c r="C43" s="217"/>
+      <c r="B43" s="221"/>
+      <c r="C43" s="221"/>
       <c r="D43" s="67">
         <f>MAX(D11:D40)</f>
         <v>0</v>
@@ -4893,16 +4896,16 @@
         <f>MAX(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="212">
+      <c r="G43" s="216">
         <f>MAX(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="213"/>
-      <c r="I43" s="214">
+      <c r="H43" s="217"/>
+      <c r="I43" s="218">
         <f>MAX(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="215"/>
+      <c r="J43" s="219"/>
       <c r="K43" s="69">
         <f>MAX(K11:K40)</f>
         <v>0</v>
@@ -5248,11 +5251,11 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="304">
+      <c r="J4" s="178">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="305"/>
+      <c r="K4" s="179"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="147" t="s">
@@ -5284,79 +5287,79 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="306">
+      <c r="J5" s="194">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="307"/>
+      <c r="K5" s="195"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="225" t="s">
+      <c r="A6" s="229" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="226"/>
-      <c r="C6" s="227"/>
-      <c r="D6" s="228"/>
+      <c r="B6" s="230"/>
+      <c r="C6" s="231"/>
+      <c r="D6" s="232"/>
       <c r="E6" s="134"/>
       <c r="F6" s="134"/>
       <c r="G6" s="154"/>
       <c r="H6" s="71"/>
-      <c r="I6" s="192"/>
-      <c r="J6" s="193"/>
-      <c r="K6" s="199"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="197"/>
+      <c r="K6" s="203"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="192" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="193"/>
-      <c r="C7" s="193"/>
-      <c r="D7" s="211" t="s">
+      <c r="A7" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="197"/>
+      <c r="C7" s="197"/>
+      <c r="D7" s="215" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="229"/>
-      <c r="F7" s="229"/>
+      <c r="E7" s="233"/>
+      <c r="F7" s="233"/>
       <c r="G7" s="177"/>
-      <c r="H7" s="222" t="s">
+      <c r="H7" s="226" t="s">
         <v>126</v>
       </c>
-      <c r="I7" s="194"/>
-      <c r="J7" s="195"/>
-      <c r="K7" s="200"/>
+      <c r="I7" s="198"/>
+      <c r="J7" s="199"/>
+      <c r="K7" s="204"/>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="194"/>
-      <c r="B8" s="195"/>
-      <c r="C8" s="195"/>
-      <c r="D8" s="232" t="s">
+      <c r="A8" s="198"/>
+      <c r="B8" s="199"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="236" t="s">
         <v>129</v>
       </c>
-      <c r="E8" s="203" t="s">
+      <c r="E8" s="207" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="203" t="s">
+      <c r="F8" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="203" t="s">
+      <c r="G8" s="207" t="s">
         <v>128</v>
       </c>
-      <c r="H8" s="223"/>
-      <c r="I8" s="194"/>
-      <c r="J8" s="195"/>
-      <c r="K8" s="200"/>
+      <c r="H8" s="227"/>
+      <c r="I8" s="198"/>
+      <c r="J8" s="199"/>
+      <c r="K8" s="204"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="194"/>
-      <c r="B9" s="195"/>
-      <c r="C9" s="195"/>
-      <c r="D9" s="233"/>
+      <c r="A9" s="198"/>
+      <c r="B9" s="199"/>
+      <c r="C9" s="199"/>
+      <c r="D9" s="237"/>
       <c r="E9" s="152"/>
       <c r="F9" s="152"/>
       <c r="G9" s="152"/>
-      <c r="H9" s="224"/>
-      <c r="I9" s="194"/>
-      <c r="J9" s="195"/>
-      <c r="K9" s="200"/>
+      <c r="H9" s="228"/>
+      <c r="I9" s="198"/>
+      <c r="J9" s="199"/>
+      <c r="K9" s="204"/>
     </row>
     <row r="10" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="120">
@@ -5376,9 +5379,9 @@
       <c r="F10" s="23"/>
       <c r="G10" s="73"/>
       <c r="H10" s="74"/>
-      <c r="I10" s="194"/>
-      <c r="J10" s="195"/>
-      <c r="K10" s="200"/>
+      <c r="I10" s="198"/>
+      <c r="J10" s="199"/>
+      <c r="K10" s="204"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="123">
@@ -5398,9 +5401,9 @@
       <c r="F11" s="26"/>
       <c r="G11" s="76"/>
       <c r="H11" s="77"/>
-      <c r="I11" s="194"/>
-      <c r="J11" s="195"/>
-      <c r="K11" s="200"/>
+      <c r="I11" s="198"/>
+      <c r="J11" s="199"/>
+      <c r="K11" s="204"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="123">
@@ -5420,9 +5423,9 @@
       <c r="F12" s="26"/>
       <c r="G12" s="76"/>
       <c r="H12" s="77"/>
-      <c r="I12" s="194"/>
-      <c r="J12" s="195"/>
-      <c r="K12" s="200"/>
+      <c r="I12" s="198"/>
+      <c r="J12" s="199"/>
+      <c r="K12" s="204"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="123">
@@ -5442,9 +5445,9 @@
       <c r="F13" s="23"/>
       <c r="G13" s="73"/>
       <c r="H13" s="77"/>
-      <c r="I13" s="194"/>
-      <c r="J13" s="195"/>
-      <c r="K13" s="200"/>
+      <c r="I13" s="198"/>
+      <c r="J13" s="199"/>
+      <c r="K13" s="204"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="123">
@@ -5464,9 +5467,9 @@
       <c r="F14" s="26"/>
       <c r="G14" s="76"/>
       <c r="H14" s="77"/>
-      <c r="I14" s="194"/>
-      <c r="J14" s="195"/>
-      <c r="K14" s="200"/>
+      <c r="I14" s="198"/>
+      <c r="J14" s="199"/>
+      <c r="K14" s="204"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="123">
@@ -5486,9 +5489,9 @@
       <c r="F15" s="26"/>
       <c r="G15" s="76"/>
       <c r="H15" s="77"/>
-      <c r="I15" s="194"/>
-      <c r="J15" s="195"/>
-      <c r="K15" s="200"/>
+      <c r="I15" s="198"/>
+      <c r="J15" s="199"/>
+      <c r="K15" s="204"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="123">
@@ -5508,9 +5511,9 @@
       <c r="F16" s="26"/>
       <c r="G16" s="76"/>
       <c r="H16" s="77"/>
-      <c r="I16" s="194"/>
-      <c r="J16" s="195"/>
-      <c r="K16" s="200"/>
+      <c r="I16" s="198"/>
+      <c r="J16" s="199"/>
+      <c r="K16" s="204"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="123">
@@ -5530,9 +5533,9 @@
       <c r="F17" s="26"/>
       <c r="G17" s="76"/>
       <c r="H17" s="77"/>
-      <c r="I17" s="194"/>
-      <c r="J17" s="195"/>
-      <c r="K17" s="200"/>
+      <c r="I17" s="198"/>
+      <c r="J17" s="199"/>
+      <c r="K17" s="204"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="123">
@@ -5552,9 +5555,9 @@
       <c r="F18" s="26"/>
       <c r="G18" s="76"/>
       <c r="H18" s="77"/>
-      <c r="I18" s="194"/>
-      <c r="J18" s="195"/>
-      <c r="K18" s="200"/>
+      <c r="I18" s="198"/>
+      <c r="J18" s="199"/>
+      <c r="K18" s="204"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="123">
@@ -5574,9 +5577,9 @@
       <c r="F19" s="26"/>
       <c r="G19" s="76"/>
       <c r="H19" s="77"/>
-      <c r="I19" s="194"/>
-      <c r="J19" s="195"/>
-      <c r="K19" s="200"/>
+      <c r="I19" s="198"/>
+      <c r="J19" s="199"/>
+      <c r="K19" s="204"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="129">
@@ -5596,9 +5599,9 @@
       <c r="F20" s="26"/>
       <c r="G20" s="76"/>
       <c r="H20" s="77"/>
-      <c r="I20" s="194"/>
-      <c r="J20" s="195"/>
-      <c r="K20" s="200"/>
+      <c r="I20" s="198"/>
+      <c r="J20" s="199"/>
+      <c r="K20" s="204"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="123">
@@ -5618,9 +5621,9 @@
       <c r="F21" s="26"/>
       <c r="G21" s="76"/>
       <c r="H21" s="77"/>
-      <c r="I21" s="194"/>
-      <c r="J21" s="195"/>
-      <c r="K21" s="200"/>
+      <c r="I21" s="198"/>
+      <c r="J21" s="199"/>
+      <c r="K21" s="204"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="123">
@@ -5640,9 +5643,9 @@
       <c r="F22" s="26"/>
       <c r="G22" s="76"/>
       <c r="H22" s="77"/>
-      <c r="I22" s="194"/>
-      <c r="J22" s="195"/>
-      <c r="K22" s="200"/>
+      <c r="I22" s="198"/>
+      <c r="J22" s="199"/>
+      <c r="K22" s="204"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="123">
@@ -5662,9 +5665,9 @@
       <c r="F23" s="26"/>
       <c r="G23" s="76"/>
       <c r="H23" s="77"/>
-      <c r="I23" s="194"/>
-      <c r="J23" s="195"/>
-      <c r="K23" s="200"/>
+      <c r="I23" s="198"/>
+      <c r="J23" s="199"/>
+      <c r="K23" s="204"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="123">
@@ -5684,9 +5687,9 @@
       <c r="F24" s="26"/>
       <c r="G24" s="76"/>
       <c r="H24" s="77"/>
-      <c r="I24" s="194"/>
-      <c r="J24" s="195"/>
-      <c r="K24" s="200"/>
+      <c r="I24" s="198"/>
+      <c r="J24" s="199"/>
+      <c r="K24" s="204"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="123">
@@ -5706,9 +5709,9 @@
       <c r="F25" s="26"/>
       <c r="G25" s="76"/>
       <c r="H25" s="77"/>
-      <c r="I25" s="194"/>
-      <c r="J25" s="195"/>
-      <c r="K25" s="200"/>
+      <c r="I25" s="198"/>
+      <c r="J25" s="199"/>
+      <c r="K25" s="204"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="123">
@@ -5728,9 +5731,9 @@
       <c r="F26" s="26"/>
       <c r="G26" s="76"/>
       <c r="H26" s="77"/>
-      <c r="I26" s="194"/>
-      <c r="J26" s="195"/>
-      <c r="K26" s="200"/>
+      <c r="I26" s="198"/>
+      <c r="J26" s="199"/>
+      <c r="K26" s="204"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="123">
@@ -5750,9 +5753,9 @@
       <c r="F27" s="26"/>
       <c r="G27" s="76"/>
       <c r="H27" s="77"/>
-      <c r="I27" s="194"/>
-      <c r="J27" s="195"/>
-      <c r="K27" s="200"/>
+      <c r="I27" s="198"/>
+      <c r="J27" s="199"/>
+      <c r="K27" s="204"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="123">
@@ -5772,9 +5775,9 @@
       <c r="F28" s="26"/>
       <c r="G28" s="76"/>
       <c r="H28" s="77"/>
-      <c r="I28" s="194"/>
-      <c r="J28" s="195"/>
-      <c r="K28" s="200"/>
+      <c r="I28" s="198"/>
+      <c r="J28" s="199"/>
+      <c r="K28" s="204"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="123">
@@ -5794,9 +5797,9 @@
       <c r="F29" s="26"/>
       <c r="G29" s="76"/>
       <c r="H29" s="77"/>
-      <c r="I29" s="194"/>
-      <c r="J29" s="195"/>
-      <c r="K29" s="200"/>
+      <c r="I29" s="198"/>
+      <c r="J29" s="199"/>
+      <c r="K29" s="204"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="129">
@@ -5816,9 +5819,9 @@
       <c r="F30" s="26"/>
       <c r="G30" s="76"/>
       <c r="H30" s="77"/>
-      <c r="I30" s="194"/>
-      <c r="J30" s="195"/>
-      <c r="K30" s="200"/>
+      <c r="I30" s="198"/>
+      <c r="J30" s="199"/>
+      <c r="K30" s="204"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="123">
@@ -5838,9 +5841,9 @@
       <c r="F31" s="26"/>
       <c r="G31" s="76"/>
       <c r="H31" s="77"/>
-      <c r="I31" s="194"/>
-      <c r="J31" s="195"/>
-      <c r="K31" s="200"/>
+      <c r="I31" s="198"/>
+      <c r="J31" s="199"/>
+      <c r="K31" s="204"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="123">
@@ -5860,9 +5863,9 @@
       <c r="F32" s="26"/>
       <c r="G32" s="76"/>
       <c r="H32" s="77"/>
-      <c r="I32" s="194"/>
-      <c r="J32" s="195"/>
-      <c r="K32" s="200"/>
+      <c r="I32" s="198"/>
+      <c r="J32" s="199"/>
+      <c r="K32" s="204"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="123">
@@ -5882,9 +5885,9 @@
       <c r="F33" s="26"/>
       <c r="G33" s="76"/>
       <c r="H33" s="77"/>
-      <c r="I33" s="194"/>
-      <c r="J33" s="195"/>
-      <c r="K33" s="200"/>
+      <c r="I33" s="198"/>
+      <c r="J33" s="199"/>
+      <c r="K33" s="204"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="123">
@@ -5904,9 +5907,9 @@
       <c r="F34" s="26"/>
       <c r="G34" s="76"/>
       <c r="H34" s="77"/>
-      <c r="I34" s="194"/>
-      <c r="J34" s="195"/>
-      <c r="K34" s="200"/>
+      <c r="I34" s="198"/>
+      <c r="J34" s="199"/>
+      <c r="K34" s="204"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="123">
@@ -5926,9 +5929,9 @@
       <c r="F35" s="26"/>
       <c r="G35" s="76"/>
       <c r="H35" s="77"/>
-      <c r="I35" s="194"/>
-      <c r="J35" s="195"/>
-      <c r="K35" s="200"/>
+      <c r="I35" s="198"/>
+      <c r="J35" s="199"/>
+      <c r="K35" s="204"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="123">
@@ -5948,9 +5951,9 @@
       <c r="F36" s="26"/>
       <c r="G36" s="76"/>
       <c r="H36" s="77"/>
-      <c r="I36" s="194"/>
-      <c r="J36" s="195"/>
-      <c r="K36" s="200"/>
+      <c r="I36" s="198"/>
+      <c r="J36" s="199"/>
+      <c r="K36" s="204"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="123">
@@ -5970,9 +5973,9 @@
       <c r="F37" s="26"/>
       <c r="G37" s="76"/>
       <c r="H37" s="77"/>
-      <c r="I37" s="194"/>
-      <c r="J37" s="195"/>
-      <c r="K37" s="200"/>
+      <c r="I37" s="198"/>
+      <c r="J37" s="199"/>
+      <c r="K37" s="204"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="123">
@@ -5992,9 +5995,9 @@
       <c r="F38" s="26"/>
       <c r="G38" s="76"/>
       <c r="H38" s="77"/>
-      <c r="I38" s="194"/>
-      <c r="J38" s="195"/>
-      <c r="K38" s="200"/>
+      <c r="I38" s="198"/>
+      <c r="J38" s="199"/>
+      <c r="K38" s="204"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="130">
@@ -6014,16 +6017,16 @@
       <c r="F39" s="26"/>
       <c r="G39" s="76"/>
       <c r="H39" s="77"/>
-      <c r="I39" s="194"/>
-      <c r="J39" s="195"/>
-      <c r="K39" s="200"/>
+      <c r="I39" s="198"/>
+      <c r="J39" s="199"/>
+      <c r="K39" s="204"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="230" t="s">
+      <c r="A40" s="234" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="231"/>
-      <c r="C40" s="231"/>
+      <c r="B40" s="235"/>
+      <c r="C40" s="235"/>
       <c r="D40" s="78" t="e">
         <f>AVERAGE(D10:D39)</f>
         <v>#DIV/0!</v>
@@ -6044,9 +6047,9 @@
         <f>AVERAGE(H10:H39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="195"/>
-      <c r="J40" s="195"/>
-      <c r="K40" s="200"/>
+      <c r="I40" s="199"/>
+      <c r="J40" s="199"/>
+      <c r="K40" s="204"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="174" t="s">
@@ -6074,16 +6077,16 @@
         <f>MIN(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="195"/>
-      <c r="J41" s="195"/>
-      <c r="K41" s="200"/>
+      <c r="I41" s="199"/>
+      <c r="J41" s="199"/>
+      <c r="K41" s="204"/>
     </row>
     <row r="42" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="216" t="s">
+      <c r="A42" s="220" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="217"/>
-      <c r="C42" s="217"/>
+      <c r="B42" s="221"/>
+      <c r="C42" s="221"/>
       <c r="D42" s="82">
         <f>MAX(D10:D39)</f>
         <v>0</v>
@@ -6104,9 +6107,9 @@
         <f>MAX(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I42" s="198"/>
-      <c r="J42" s="198"/>
-      <c r="K42" s="201"/>
+      <c r="I42" s="202"/>
+      <c r="J42" s="202"/>
+      <c r="K42" s="205"/>
     </row>
     <row r="43" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
@@ -6262,15 +6265,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="284" t="s">
+      <c r="A1" s="288" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="285"/>
-      <c r="C1" s="285"/>
-      <c r="D1" s="285"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="286"/>
+      <c r="B1" s="289"/>
+      <c r="C1" s="289"/>
+      <c r="D1" s="289"/>
+      <c r="E1" s="289"/>
+      <c r="F1" s="289"/>
+      <c r="G1" s="290"/>
     </row>
     <row r="2" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="87"/>
@@ -6284,37 +6287,37 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="292" t="s">
+      <c r="A3" s="296" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="293"/>
-      <c r="C3" s="293"/>
-      <c r="D3" s="293"/>
-      <c r="E3" s="293"/>
-      <c r="F3" s="293"/>
-      <c r="G3" s="294"/>
+      <c r="B3" s="297"/>
+      <c r="C3" s="297"/>
+      <c r="D3" s="297"/>
+      <c r="E3" s="297"/>
+      <c r="F3" s="297"/>
+      <c r="G3" s="298"/>
     </row>
     <row r="4" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="194" t="s">
+      <c r="A4" s="198" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="195"/>
-      <c r="C4" s="195"/>
-      <c r="D4" s="195"/>
-      <c r="E4" s="195"/>
-      <c r="F4" s="195"/>
-      <c r="G4" s="200"/>
+      <c r="B4" s="199"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="199"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="204"/>
     </row>
     <row r="5" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="287" t="s">
+      <c r="A5" s="291" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="288"/>
-      <c r="C5" s="288"/>
-      <c r="D5" s="288"/>
-      <c r="E5" s="288"/>
-      <c r="F5" s="288"/>
-      <c r="G5" s="289"/>
+      <c r="B5" s="292"/>
+      <c r="C5" s="292"/>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="293"/>
     </row>
     <row r="6" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="90" t="s">
@@ -6326,14 +6329,14 @@
       <c r="C6" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="252" t="s">
+      <c r="D6" s="256" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="254"/>
-      <c r="F6" s="290" t="s">
+      <c r="E6" s="258"/>
+      <c r="F6" s="294" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="275">
+      <c r="G6" s="279">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
@@ -6346,13 +6349,13 @@
       <c r="C7" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="252">
+      <c r="D7" s="256">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="254"/>
-      <c r="F7" s="290"/>
-      <c r="G7" s="291"/>
+      <c r="E7" s="258"/>
+      <c r="F7" s="294"/>
+      <c r="G7" s="295"/>
     </row>
     <row r="8" spans="1:7" s="86" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="90" t="s">
@@ -6365,15 +6368,15 @@
       <c r="C8" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="290">
+      <c r="D8" s="294">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="290"/>
-      <c r="F8" s="272" t="s">
+      <c r="E8" s="294"/>
+      <c r="F8" s="276" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="275">
+      <c r="G8" s="279">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
@@ -6386,15 +6389,15 @@
         <f>Page1!G44</f>
         <v>461309100</v>
       </c>
-      <c r="C9" s="272" t="s">
+      <c r="C9" s="276" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="278" t="s">
+      <c r="D9" s="282" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="279"/>
-      <c r="F9" s="273"/>
-      <c r="G9" s="276"/>
+      <c r="E9" s="283"/>
+      <c r="F9" s="277"/>
+      <c r="G9" s="280"/>
     </row>
     <row r="10" spans="1:7" s="86" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="97" t="s">
@@ -6404,34 +6407,34 @@
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C10" s="274"/>
-      <c r="D10" s="280"/>
-      <c r="E10" s="281"/>
-      <c r="F10" s="274"/>
-      <c r="G10" s="277"/>
+      <c r="C10" s="278"/>
+      <c r="D10" s="284"/>
+      <c r="E10" s="285"/>
+      <c r="F10" s="278"/>
+      <c r="G10" s="281"/>
     </row>
     <row r="11" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="295" t="s">
+      <c r="A11" s="299" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="297" t="s">
+      <c r="B11" s="301" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="299" t="s">
+      <c r="C11" s="303" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="300"/>
-      <c r="E11" s="301"/>
-      <c r="F11" s="297" t="s">
+      <c r="D11" s="304"/>
+      <c r="E11" s="305"/>
+      <c r="F11" s="301" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="302" t="s">
+      <c r="G11" s="306" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="296"/>
-      <c r="B12" s="298"/>
+      <c r="A12" s="300"/>
+      <c r="B12" s="302"/>
       <c r="C12" s="99" t="s">
         <v>60</v>
       </c>
@@ -6441,8 +6444,8 @@
       <c r="E12" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="298"/>
-      <c r="G12" s="303"/>
+      <c r="F12" s="302"/>
+      <c r="G12" s="307"/>
     </row>
     <row r="13" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="100" t="s">
@@ -6512,7 +6515,7 @@
         <f>Page1!K39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="282" t="s">
+      <c r="G15" s="286" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6536,7 +6539,7 @@
         <f>Page2!F41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="223"/>
+      <c r="G16" s="227"/>
     </row>
     <row r="17" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="104" t="s">
@@ -6558,7 +6561,7 @@
         <f>Page1!I39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="223"/>
+      <c r="G17" s="227"/>
     </row>
     <row r="18" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="104" t="s">
@@ -6580,7 +6583,7 @@
         <f>Page2!D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="223"/>
+      <c r="G18" s="227"/>
     </row>
     <row r="19" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="104" t="s">
@@ -6602,7 +6605,7 @@
         <f>Page1!J39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="223"/>
+      <c r="G19" s="227"/>
     </row>
     <row r="20" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="104" t="s">
@@ -6624,7 +6627,7 @@
         <f>Page2!E41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="223"/>
+      <c r="G20" s="227"/>
     </row>
     <row r="21" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="104" t="s">
@@ -6646,7 +6649,7 @@
         <f>Page1!G39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="223"/>
+      <c r="G21" s="227"/>
     </row>
     <row r="22" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="104" t="s">
@@ -6710,7 +6713,7 @@
       </c>
       <c r="E24" s="39">
         <f>Page2!J10</f>
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="F24" s="39" t="e">
         <f>Page2!I41</f>
@@ -6768,26 +6771,26 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="266" t="s">
+      <c r="A27" s="270" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="267"/>
-      <c r="C27" s="267"/>
-      <c r="D27" s="267"/>
-      <c r="E27" s="267"/>
-      <c r="F27" s="267"/>
-      <c r="G27" s="268"/>
+      <c r="B27" s="271"/>
+      <c r="C27" s="271"/>
+      <c r="D27" s="271"/>
+      <c r="E27" s="271"/>
+      <c r="F27" s="271"/>
+      <c r="G27" s="272"/>
     </row>
     <row r="28" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="250" t="s">
+      <c r="A28" s="254" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="251"/>
-      <c r="C28" s="269" t="s">
+      <c r="B28" s="255"/>
+      <c r="C28" s="273" t="s">
         <v>127</v>
       </c>
-      <c r="D28" s="270"/>
-      <c r="E28" s="271"/>
+      <c r="D28" s="274"/>
+      <c r="E28" s="275"/>
       <c r="F28" s="113" t="s">
         <v>92</v>
       </c>
@@ -6796,15 +6799,15 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="255" t="s">
+      <c r="A29" s="259" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="254"/>
-      <c r="C29" s="260" t="s">
+      <c r="B29" s="258"/>
+      <c r="C29" s="264" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="261"/>
-      <c r="E29" s="262"/>
+      <c r="D29" s="265"/>
+      <c r="E29" s="266"/>
       <c r="F29" s="66" t="s">
         <v>92</v>
       </c>
@@ -6813,15 +6816,15 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="255" t="s">
+      <c r="A30" s="259" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="254"/>
-      <c r="C30" s="260" t="s">
+      <c r="B30" s="258"/>
+      <c r="C30" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="261"/>
-      <c r="E30" s="262"/>
+      <c r="D30" s="265"/>
+      <c r="E30" s="266"/>
       <c r="F30" s="66" t="s">
         <v>92</v>
       </c>
@@ -6830,15 +6833,15 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="255" t="s">
+      <c r="A31" s="259" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="254"/>
-      <c r="C31" s="260" t="s">
+      <c r="B31" s="258"/>
+      <c r="C31" s="264" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="261"/>
-      <c r="E31" s="262"/>
+      <c r="D31" s="265"/>
+      <c r="E31" s="266"/>
       <c r="F31" s="66" t="s">
         <v>92</v>
       </c>
@@ -6847,15 +6850,15 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="255" t="s">
+      <c r="A32" s="259" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="254"/>
-      <c r="C32" s="260" t="s">
+      <c r="B32" s="258"/>
+      <c r="C32" s="264" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="261"/>
-      <c r="E32" s="262"/>
+      <c r="D32" s="265"/>
+      <c r="E32" s="266"/>
       <c r="F32" s="66" t="s">
         <v>92</v>
       </c>
@@ -6864,15 +6867,15 @@
       </c>
     </row>
     <row r="33" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="255" t="s">
+      <c r="A33" s="259" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="254"/>
-      <c r="C33" s="260" t="s">
+      <c r="B33" s="258"/>
+      <c r="C33" s="264" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="261"/>
-      <c r="E33" s="262"/>
+      <c r="D33" s="265"/>
+      <c r="E33" s="266"/>
       <c r="F33" s="66" t="s">
         <v>92</v>
       </c>
@@ -6885,11 +6888,11 @@
         <v>105</v>
       </c>
       <c r="B34" s="148"/>
-      <c r="C34" s="263" t="s">
+      <c r="C34" s="267" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="264"/>
-      <c r="E34" s="265"/>
+      <c r="D34" s="268"/>
+      <c r="E34" s="269"/>
       <c r="F34" s="114" t="s">
         <v>92</v>
       </c>
@@ -6898,25 +6901,25 @@
       </c>
     </row>
     <row r="35" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="266" t="s">
+      <c r="A35" s="270" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="267"/>
-      <c r="C35" s="267"/>
-      <c r="D35" s="267"/>
-      <c r="E35" s="267"/>
-      <c r="F35" s="267"/>
-      <c r="G35" s="268"/>
+      <c r="B35" s="271"/>
+      <c r="C35" s="271"/>
+      <c r="D35" s="271"/>
+      <c r="E35" s="271"/>
+      <c r="F35" s="271"/>
+      <c r="G35" s="272"/>
     </row>
     <row r="36" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="143" t="s">
         <v>108</v>
       </c>
       <c r="B36" s="144"/>
-      <c r="C36" s="258" t="s">
+      <c r="C36" s="262" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="259"/>
+      <c r="D36" s="263"/>
       <c r="E36" s="144"/>
       <c r="F36" s="10" t="s">
         <v>92</v>
@@ -6926,15 +6929,15 @@
       </c>
     </row>
     <row r="37" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="250" t="s">
+      <c r="A37" s="254" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="251"/>
-      <c r="C37" s="252" t="s">
+      <c r="B37" s="255"/>
+      <c r="C37" s="256" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="253"/>
-      <c r="E37" s="254"/>
+      <c r="D37" s="257"/>
+      <c r="E37" s="258"/>
       <c r="F37" s="106" t="s">
         <v>92</v>
       </c>
@@ -6943,15 +6946,15 @@
       </c>
     </row>
     <row r="38" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="255" t="s">
+      <c r="A38" s="259" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="254"/>
-      <c r="C38" s="252" t="s">
+      <c r="B38" s="258"/>
+      <c r="C38" s="256" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="253"/>
-      <c r="E38" s="254"/>
+      <c r="D38" s="257"/>
+      <c r="E38" s="258"/>
       <c r="F38" s="106" t="s">
         <v>92</v>
       </c>
@@ -6964,10 +6967,10 @@
         <v>113</v>
       </c>
       <c r="B39" s="148"/>
-      <c r="C39" s="256" t="s">
+      <c r="C39" s="260" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="257"/>
+      <c r="D39" s="261"/>
       <c r="E39" s="148"/>
       <c r="F39" s="1" t="s">
         <v>92</v>
@@ -6977,50 +6980,50 @@
       </c>
     </row>
     <row r="40" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="236" t="s">
+      <c r="A40" s="240" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="237"/>
-      <c r="C40" s="238" t="s">
+      <c r="B40" s="241"/>
+      <c r="C40" s="242" t="s">
         <v>137</v>
       </c>
-      <c r="D40" s="239"/>
-      <c r="E40" s="240"/>
-      <c r="F40" s="238" t="s">
+      <c r="D40" s="243"/>
+      <c r="E40" s="244"/>
+      <c r="F40" s="242" t="s">
         <v>138</v>
       </c>
-      <c r="G40" s="240"/>
+      <c r="G40" s="244"/>
     </row>
     <row r="41" spans="1:7" s="86" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="241"/>
-      <c r="B41" s="242"/>
-      <c r="C41" s="194"/>
-      <c r="D41" s="195"/>
-      <c r="E41" s="200"/>
-      <c r="F41" s="245"/>
-      <c r="G41" s="246"/>
+      <c r="A41" s="245"/>
+      <c r="B41" s="246"/>
+      <c r="C41" s="198"/>
+      <c r="D41" s="199"/>
+      <c r="E41" s="204"/>
+      <c r="F41" s="249"/>
+      <c r="G41" s="250"/>
     </row>
     <row r="42" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="243"/>
-      <c r="B42" s="244"/>
-      <c r="C42" s="247" t="s">
+      <c r="A42" s="247"/>
+      <c r="B42" s="248"/>
+      <c r="C42" s="251" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="248"/>
-      <c r="E42" s="249"/>
-      <c r="F42" s="247" t="s">
+      <c r="D42" s="252"/>
+      <c r="E42" s="253"/>
+      <c r="F42" s="251" t="s">
         <v>139</v>
       </c>
-      <c r="G42" s="249"/>
+      <c r="G42" s="253"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="115"/>
       <c r="B43" s="115"/>
       <c r="C43" s="115"/>
       <c r="D43" s="115"/>
-      <c r="E43" s="234"/>
-      <c r="F43" s="234"/>
-      <c r="G43" s="234"/>
+      <c r="E43" s="238"/>
+      <c r="F43" s="238"/>
+      <c r="G43" s="238"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="46" t="s">
@@ -7029,21 +7032,21 @@
       <c r="B44" s="116"/>
       <c r="C44" s="118"/>
       <c r="D44" s="115"/>
-      <c r="E44" s="235"/>
-      <c r="F44" s="235"/>
-      <c r="G44" s="235"/>
+      <c r="E44" s="239"/>
+      <c r="F44" s="239"/>
+      <c r="G44" s="239"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="283" t="s">
+      <c r="A46" s="287" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="283"/>
+      <c r="B46" s="287"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="283" t="s">
+      <c r="A47" s="287" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="283"/>
+      <c r="B47" s="287"/>
     </row>
   </sheetData>
   <mergeCells count="55">

--- a/backend/templates/UC-18gsm-250W-BFQR.xlsx
+++ b/backend/templates/UC-18gsm-250W-BFQR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E870AAB6-61A0-4D02-B52E-3F81CFDE7565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64DA1A5-2435-45CE-AC13-51D52AC27F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -472,18 +472,6 @@
 T-0.00  U-4.00</t>
   </si>
   <si>
-    <t>Colour L
-L-55.00 T-60.00 U-65.00</t>
-  </si>
-  <si>
-    <t>Colour A
-L-45.00 T-50.00 U-55.00</t>
-  </si>
-  <si>
-    <t>Colour B
-L-(-16.00) T-(-11.00) U-(-6.00)</t>
-  </si>
-  <si>
     <t>Reference:</t>
   </si>
   <si>
@@ -517,6 +505,18 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Colour L
+L-57.50 T-61.50 U-65.50</t>
+  </si>
+  <si>
+    <t>Colour A
+L-46.00 T-51.00 U-56.00</t>
+  </si>
+  <si>
+    <t>Colour B
+L-(-14.00) T-(-11.00) U-(-8.00)</t>
   </si>
 </sst>
 </file>
@@ -1446,7 +1446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="308">
+  <cellXfs count="311">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1869,6 +1869,9 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2162,40 +2165,46 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2342,7 +2351,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2412,7 +2421,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="18">
     <dxf>
       <font>
         <strike/>
@@ -2453,44 +2462,6 @@
         <strike/>
         <color rgb="FFFF0000"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2611,45 +2582,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -3050,7 +2982,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3064,35 +2996,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -3113,12 +3045,12 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:13" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="143" t="s">
+      <c r="A4" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="144"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="146"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="147"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -3130,19 +3062,19 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="138"/>
-      <c r="K4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="140"/>
       <c r="M4" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="148"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="150"/>
+      <c r="B5" s="149"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="151"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -3154,64 +3086,64 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="140"/>
-      <c r="K5" s="141"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="142"/>
     </row>
     <row r="6" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="156" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="157"/>
-      <c r="C6" s="158"/>
+      <c r="A6" s="157" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="158"/>
+      <c r="C6" s="159"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" s="133"/>
-      <c r="H6" s="154"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="135"/>
+        <v>139</v>
+      </c>
+      <c r="G6" s="134"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="136"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="159" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136" t="s">
+      <c r="A7" s="160" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="136" t="s">
+      <c r="E7" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="136" t="s">
+      <c r="F7" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="151" t="s">
+      <c r="G7" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="151" t="s">
+      <c r="H7" s="152" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="136" t="s">
+      <c r="I7" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="138"/>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="160"/>
-      <c r="B8" s="153"/>
-      <c r="C8" s="153"/>
-      <c r="D8" s="153"/>
-      <c r="E8" s="153" t="s">
+      <c r="A8" s="161"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="153"/>
-      <c r="G8" s="152"/>
-      <c r="H8" s="152"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
       <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3613,11 +3545,11 @@
       <c r="K38" s="28"/>
     </row>
     <row r="39" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="167" t="s">
+      <c r="A39" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="168"/>
-      <c r="C39" s="169"/>
+      <c r="B39" s="169"/>
+      <c r="C39" s="170"/>
       <c r="D39" s="35" t="e">
         <f t="shared" ref="D39:K39" si="0">AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
@@ -3652,11 +3584,11 @@
       </c>
     </row>
     <row r="40" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="164" t="s">
+      <c r="A40" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="165"/>
-      <c r="C40" s="166"/>
+      <c r="B40" s="166"/>
+      <c r="C40" s="167"/>
       <c r="D40" s="38">
         <f t="shared" ref="D40:K40" si="1">MIN(D9:D38)</f>
         <v>0</v>
@@ -3691,11 +3623,11 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="161" t="s">
+      <c r="A41" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="162"/>
-      <c r="C41" s="163"/>
+      <c r="B41" s="163"/>
+      <c r="C41" s="164"/>
       <c r="D41" s="41">
         <f t="shared" ref="D41:K41" si="2">MAX(D9:D38)</f>
         <v>0</v>
@@ -3736,8 +3668,8 @@
       <c r="A42" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="170"/>
-      <c r="C42" s="170"/>
+      <c r="B42" s="171"/>
+      <c r="C42" s="171"/>
       <c r="D42" s="44" t="s">
         <v>22</v>
       </c>
@@ -3754,8 +3686,8 @@
     </row>
     <row r="43" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="50"/>
-      <c r="B43" s="171"/>
-      <c r="C43" s="171"/>
+      <c r="B43" s="172"/>
+      <c r="C43" s="172"/>
       <c r="D43" s="44"/>
       <c r="F43" s="46"/>
       <c r="G43" s="47"/>
@@ -3764,15 +3696,15 @@
       <c r="J43" s="51"/>
     </row>
     <row r="44" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="155" t="s">
+      <c r="A44" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="155"/>
-      <c r="C44" s="155"/>
+      <c r="B44" s="156"/>
+      <c r="C44" s="156"/>
       <c r="D44" s="44"/>
       <c r="E44" s="44"/>
       <c r="F44" s="47" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G44" s="46">
         <v>461309100</v>
@@ -3780,11 +3712,11 @@
       <c r="H44" s="44"/>
     </row>
     <row r="45" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="155" t="s">
-        <v>133</v>
-      </c>
-      <c r="B45" s="155"/>
-      <c r="C45" s="155"/>
+      <c r="A45" s="156" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" s="156"/>
+      <c r="C45" s="156"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="44"/>
@@ -3854,64 +3786,48 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D9:D41">
-    <cfRule type="cellIs" dxfId="24" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="notBetween">
+      <formula>17</formula>
       <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="14" operator="lessThan">
-      <formula>17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E41">
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="notBetween">
+      <formula>18</formula>
       <formula>28</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="12" operator="lessThan">
-      <formula>18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F41">
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="notBetween">
+      <formula>360</formula>
       <formula>400</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="lessThan">
-      <formula>360</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G41">
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="notBetween">
+      <formula>0.3</formula>
       <formula>0.6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="lessThan">
-      <formula>0.3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H38">
-    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="notBetween">
-      <formula>0.6</formula>
-      <formula>1.4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" priority="2" stopIfTrue="1" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="notBetween">
       <formula>0.6</formula>
       <formula>1.4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I41">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="notBetween">
+      <formula>900</formula>
       <formula>1200</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="lessThan">
-      <formula>900</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:J41">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="lessThan">
       <formula>350</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9:K41">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3928,7 +3844,7 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:J10"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3939,35 +3855,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -3988,18 +3904,18 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="143" t="s">
+      <c r="A4" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="144">
+      <c r="B4" s="145">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="176">
+      <c r="C4" s="177">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="177"/>
+      <c r="D4" s="178"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -4017,25 +3933,25 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="178">
+      <c r="J4" s="179">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="179"/>
+      <c r="K4" s="180"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="148">
+      <c r="B5" s="149">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="149">
+      <c r="C5" s="150">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="150"/>
+      <c r="D5" s="151"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -4053,104 +3969,104 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="194">
+      <c r="J5" s="195">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="195"/>
+      <c r="K5" s="196"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="212" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="213"/>
-      <c r="C6" s="214"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="197"/>
-      <c r="F6" s="185"/>
-      <c r="G6" s="184"/>
-      <c r="H6" s="185"/>
-      <c r="I6" s="210"/>
-      <c r="J6" s="211"/>
+      <c r="A6" s="213" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="214"/>
+      <c r="C6" s="215"/>
+      <c r="D6" s="197"/>
+      <c r="E6" s="198"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="185"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="211"/>
+      <c r="J6" s="212"/>
       <c r="K6" s="55"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="197"/>
-      <c r="C7" s="197"/>
-      <c r="D7" s="215" t="s">
+      <c r="A7" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="198"/>
+      <c r="C7" s="198"/>
+      <c r="D7" s="216" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="197"/>
-      <c r="F7" s="177"/>
-      <c r="G7" s="184" t="s">
+      <c r="E7" s="198"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="185" t="s">
         <v>125</v>
       </c>
-      <c r="H7" s="197"/>
-      <c r="I7" s="184" t="s">
-        <v>135</v>
-      </c>
-      <c r="J7" s="185"/>
-      <c r="K7" s="203" t="s">
+      <c r="H7" s="198"/>
+      <c r="I7" s="185" t="s">
+        <v>132</v>
+      </c>
+      <c r="J7" s="186"/>
+      <c r="K7" s="204" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="198"/>
-      <c r="B8" s="199"/>
-      <c r="C8" s="199"/>
-      <c r="D8" s="198" t="s">
+      <c r="A8" s="199"/>
+      <c r="B8" s="200"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="207" t="s">
+      <c r="E8" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="208" t="s">
+      <c r="F8" s="209" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="200"/>
-      <c r="H8" s="199"/>
-      <c r="I8" s="200" t="s">
-        <v>136</v>
-      </c>
-      <c r="J8" s="208"/>
-      <c r="K8" s="204"/>
+      <c r="G8" s="201"/>
+      <c r="H8" s="200"/>
+      <c r="I8" s="201" t="s">
+        <v>133</v>
+      </c>
+      <c r="J8" s="209"/>
+      <c r="K8" s="205"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="198"/>
-      <c r="B9" s="199"/>
-      <c r="C9" s="199"/>
-      <c r="D9" s="198"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="208"/>
-      <c r="G9" s="200"/>
-      <c r="H9" s="199"/>
+      <c r="A9" s="199"/>
+      <c r="B9" s="200"/>
+      <c r="C9" s="200"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="209"/>
+      <c r="G9" s="201"/>
+      <c r="H9" s="200"/>
       <c r="I9" s="57" t="s">
         <v>123</v>
       </c>
       <c r="J9" s="58">
         <v>250</v>
       </c>
-      <c r="K9" s="204"/>
+      <c r="K9" s="205"/>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="198"/>
-      <c r="B10" s="199"/>
-      <c r="C10" s="199"/>
-      <c r="D10" s="206"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="209"/>
-      <c r="G10" s="201"/>
-      <c r="H10" s="202"/>
+      <c r="A10" s="199"/>
+      <c r="B10" s="200"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="207"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="210"/>
+      <c r="G10" s="202"/>
+      <c r="H10" s="203"/>
       <c r="I10" s="59" t="s">
         <v>124</v>
       </c>
       <c r="J10" s="60">
         <v>253</v>
       </c>
-      <c r="K10" s="205"/>
+      <c r="K10" s="206"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="120">
@@ -4168,10 +4084,10 @@
       <c r="D11" s="61"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="193"/>
-      <c r="H11" s="193"/>
-      <c r="I11" s="180"/>
-      <c r="J11" s="181"/>
+      <c r="G11" s="194"/>
+      <c r="H11" s="194"/>
+      <c r="I11" s="181"/>
+      <c r="J11" s="182"/>
       <c r="K11" s="62"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4190,10 +4106,10 @@
       <c r="D12" s="63"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="192"/>
-      <c r="H12" s="192"/>
-      <c r="I12" s="182"/>
-      <c r="J12" s="183"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="193"/>
+      <c r="I12" s="183"/>
+      <c r="J12" s="184"/>
       <c r="K12" s="64"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4212,10 +4128,10 @@
       <c r="D13" s="63"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="192"/>
-      <c r="H13" s="192"/>
-      <c r="I13" s="182"/>
-      <c r="J13" s="183"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="193"/>
+      <c r="I13" s="183"/>
+      <c r="J13" s="184"/>
       <c r="K13" s="64"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4234,10 +4150,10 @@
       <c r="D14" s="63"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="192"/>
-      <c r="H14" s="192"/>
-      <c r="I14" s="182"/>
-      <c r="J14" s="183"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="183"/>
+      <c r="J14" s="184"/>
       <c r="K14" s="64"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4256,10 +4172,10 @@
       <c r="D15" s="63"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="192"/>
-      <c r="H15" s="192"/>
-      <c r="I15" s="182"/>
-      <c r="J15" s="183"/>
+      <c r="G15" s="193"/>
+      <c r="H15" s="193"/>
+      <c r="I15" s="183"/>
+      <c r="J15" s="184"/>
       <c r="K15" s="64"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4278,10 +4194,10 @@
       <c r="D16" s="61"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="193"/>
-      <c r="I16" s="182"/>
-      <c r="J16" s="183"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="183"/>
+      <c r="J16" s="184"/>
       <c r="K16" s="62"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4300,10 +4216,10 @@
       <c r="D17" s="63"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
-      <c r="G17" s="192"/>
-      <c r="H17" s="192"/>
-      <c r="I17" s="182"/>
-      <c r="J17" s="183"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="183"/>
+      <c r="J17" s="184"/>
       <c r="K17" s="64"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4322,10 +4238,10 @@
       <c r="D18" s="63"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
-      <c r="G18" s="192"/>
-      <c r="H18" s="192"/>
-      <c r="I18" s="182"/>
-      <c r="J18" s="183"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="183"/>
+      <c r="J18" s="184"/>
       <c r="K18" s="64"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4344,10 +4260,10 @@
       <c r="D19" s="63"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="192"/>
-      <c r="H19" s="192"/>
-      <c r="I19" s="182"/>
-      <c r="J19" s="183"/>
+      <c r="G19" s="193"/>
+      <c r="H19" s="193"/>
+      <c r="I19" s="183"/>
+      <c r="J19" s="184"/>
       <c r="K19" s="64"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4366,10 +4282,10 @@
       <c r="D20" s="63"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
-      <c r="G20" s="188"/>
-      <c r="H20" s="189"/>
-      <c r="I20" s="182"/>
-      <c r="J20" s="183"/>
+      <c r="G20" s="189"/>
+      <c r="H20" s="190"/>
+      <c r="I20" s="183"/>
+      <c r="J20" s="184"/>
       <c r="K20" s="64"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4388,10 +4304,10 @@
       <c r="D21" s="63"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
-      <c r="G21" s="188"/>
-      <c r="H21" s="189"/>
-      <c r="I21" s="182"/>
-      <c r="J21" s="183"/>
+      <c r="G21" s="189"/>
+      <c r="H21" s="190"/>
+      <c r="I21" s="183"/>
+      <c r="J21" s="184"/>
       <c r="K21" s="64"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4410,10 +4326,10 @@
       <c r="D22" s="63"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
-      <c r="G22" s="188"/>
-      <c r="H22" s="189"/>
-      <c r="I22" s="182"/>
-      <c r="J22" s="183"/>
+      <c r="G22" s="189"/>
+      <c r="H22" s="190"/>
+      <c r="I22" s="183"/>
+      <c r="J22" s="184"/>
       <c r="K22" s="64"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4432,10 +4348,10 @@
       <c r="D23" s="63"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="188"/>
-      <c r="H23" s="189"/>
-      <c r="I23" s="182"/>
-      <c r="J23" s="183"/>
+      <c r="G23" s="189"/>
+      <c r="H23" s="190"/>
+      <c r="I23" s="183"/>
+      <c r="J23" s="184"/>
       <c r="K23" s="64"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4454,10 +4370,10 @@
       <c r="D24" s="63"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
-      <c r="G24" s="188"/>
-      <c r="H24" s="189"/>
-      <c r="I24" s="182"/>
-      <c r="J24" s="183"/>
+      <c r="G24" s="189"/>
+      <c r="H24" s="190"/>
+      <c r="I24" s="183"/>
+      <c r="J24" s="184"/>
       <c r="K24" s="64"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4476,10 +4392,10 @@
       <c r="D25" s="63"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
-      <c r="G25" s="188"/>
-      <c r="H25" s="189"/>
-      <c r="I25" s="182"/>
-      <c r="J25" s="183"/>
+      <c r="G25" s="189"/>
+      <c r="H25" s="190"/>
+      <c r="I25" s="183"/>
+      <c r="J25" s="184"/>
       <c r="K25" s="64"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4498,10 +4414,10 @@
       <c r="D26" s="63"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
-      <c r="G26" s="188"/>
-      <c r="H26" s="189"/>
-      <c r="I26" s="182"/>
-      <c r="J26" s="183"/>
+      <c r="G26" s="189"/>
+      <c r="H26" s="190"/>
+      <c r="I26" s="183"/>
+      <c r="J26" s="184"/>
       <c r="K26" s="64"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4520,10 +4436,10 @@
       <c r="D27" s="63"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
-      <c r="G27" s="188"/>
-      <c r="H27" s="189"/>
-      <c r="I27" s="182"/>
-      <c r="J27" s="183"/>
+      <c r="G27" s="189"/>
+      <c r="H27" s="190"/>
+      <c r="I27" s="183"/>
+      <c r="J27" s="184"/>
       <c r="K27" s="64"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4542,10 +4458,10 @@
       <c r="D28" s="63"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="188"/>
-      <c r="H28" s="189"/>
-      <c r="I28" s="182"/>
-      <c r="J28" s="183"/>
+      <c r="G28" s="189"/>
+      <c r="H28" s="190"/>
+      <c r="I28" s="183"/>
+      <c r="J28" s="184"/>
       <c r="K28" s="64"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4564,10 +4480,10 @@
       <c r="D29" s="63"/>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="188"/>
-      <c r="H29" s="189"/>
-      <c r="I29" s="182"/>
-      <c r="J29" s="183"/>
+      <c r="G29" s="189"/>
+      <c r="H29" s="190"/>
+      <c r="I29" s="183"/>
+      <c r="J29" s="184"/>
       <c r="K29" s="64"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4586,10 +4502,10 @@
       <c r="D30" s="63"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
-      <c r="G30" s="188"/>
-      <c r="H30" s="189"/>
-      <c r="I30" s="182"/>
-      <c r="J30" s="183"/>
+      <c r="G30" s="189"/>
+      <c r="H30" s="190"/>
+      <c r="I30" s="183"/>
+      <c r="J30" s="184"/>
       <c r="K30" s="64"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4608,10 +4524,10 @@
       <c r="D31" s="63"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="188"/>
-      <c r="H31" s="189"/>
-      <c r="I31" s="182"/>
-      <c r="J31" s="183"/>
+      <c r="G31" s="189"/>
+      <c r="H31" s="190"/>
+      <c r="I31" s="183"/>
+      <c r="J31" s="184"/>
       <c r="K31" s="64"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4630,10 +4546,10 @@
       <c r="D32" s="63"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
-      <c r="G32" s="188"/>
-      <c r="H32" s="189"/>
-      <c r="I32" s="182"/>
-      <c r="J32" s="183"/>
+      <c r="G32" s="189"/>
+      <c r="H32" s="190"/>
+      <c r="I32" s="183"/>
+      <c r="J32" s="184"/>
       <c r="K32" s="64"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4652,10 +4568,10 @@
       <c r="D33" s="63"/>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
-      <c r="G33" s="188"/>
-      <c r="H33" s="189"/>
-      <c r="I33" s="182"/>
-      <c r="J33" s="183"/>
+      <c r="G33" s="189"/>
+      <c r="H33" s="190"/>
+      <c r="I33" s="183"/>
+      <c r="J33" s="184"/>
       <c r="K33" s="64"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4674,10 +4590,10 @@
       <c r="D34" s="63"/>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
-      <c r="G34" s="188"/>
-      <c r="H34" s="189"/>
-      <c r="I34" s="182"/>
-      <c r="J34" s="183"/>
+      <c r="G34" s="189"/>
+      <c r="H34" s="190"/>
+      <c r="I34" s="183"/>
+      <c r="J34" s="184"/>
       <c r="K34" s="64"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4696,10 +4612,10 @@
       <c r="D35" s="63"/>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
-      <c r="G35" s="188"/>
-      <c r="H35" s="189"/>
-      <c r="I35" s="182"/>
-      <c r="J35" s="183"/>
+      <c r="G35" s="189"/>
+      <c r="H35" s="190"/>
+      <c r="I35" s="183"/>
+      <c r="J35" s="184"/>
       <c r="K35" s="64"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4718,10 +4634,10 @@
       <c r="D36" s="63"/>
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
-      <c r="G36" s="188"/>
-      <c r="H36" s="189"/>
-      <c r="I36" s="182"/>
-      <c r="J36" s="183"/>
+      <c r="G36" s="189"/>
+      <c r="H36" s="190"/>
+      <c r="I36" s="183"/>
+      <c r="J36" s="184"/>
       <c r="K36" s="64"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4740,10 +4656,10 @@
       <c r="D37" s="63"/>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
-      <c r="G37" s="188"/>
-      <c r="H37" s="189"/>
-      <c r="I37" s="182"/>
-      <c r="J37" s="183"/>
+      <c r="G37" s="189"/>
+      <c r="H37" s="190"/>
+      <c r="I37" s="183"/>
+      <c r="J37" s="184"/>
       <c r="K37" s="64"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4762,10 +4678,10 @@
       <c r="D38" s="63"/>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
-      <c r="G38" s="188"/>
-      <c r="H38" s="189"/>
-      <c r="I38" s="182"/>
-      <c r="J38" s="183"/>
+      <c r="G38" s="189"/>
+      <c r="H38" s="190"/>
+      <c r="I38" s="183"/>
+      <c r="J38" s="184"/>
       <c r="K38" s="64"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4784,10 +4700,10 @@
       <c r="D39" s="63"/>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
-      <c r="G39" s="188"/>
-      <c r="H39" s="189"/>
-      <c r="I39" s="182"/>
-      <c r="J39" s="183"/>
+      <c r="G39" s="189"/>
+      <c r="H39" s="190"/>
+      <c r="I39" s="183"/>
+      <c r="J39" s="184"/>
       <c r="K39" s="64"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4806,18 +4722,18 @@
       <c r="D40" s="63"/>
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
-      <c r="G40" s="192"/>
-      <c r="H40" s="192"/>
-      <c r="I40" s="182"/>
-      <c r="J40" s="183"/>
+      <c r="G40" s="193"/>
+      <c r="H40" s="193"/>
+      <c r="I40" s="183"/>
+      <c r="J40" s="184"/>
       <c r="K40" s="64"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="172" t="s">
+      <c r="A41" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="173"/>
-      <c r="C41" s="173"/>
+      <c r="B41" s="174"/>
+      <c r="C41" s="174"/>
       <c r="D41" s="65" t="e">
         <f>AVERAGE(D11:D40)</f>
         <v>#DIV/0!</v>
@@ -4830,27 +4746,27 @@
         <f>AVERAGE(F11:F40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="190" t="e">
+      <c r="G41" s="191" t="e">
         <f>AVERAGE(G11:H40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="191"/>
-      <c r="I41" s="224" t="e">
+      <c r="H41" s="192"/>
+      <c r="I41" s="225" t="e">
         <f>AVERAGE(I11:J40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="225"/>
+      <c r="J41" s="226"/>
       <c r="K41" s="37" t="e">
         <f>AVERAGE(K11:K40)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="174" t="s">
+      <c r="A42" s="175" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="175"/>
-      <c r="C42" s="175"/>
+      <c r="B42" s="176"/>
+      <c r="C42" s="176"/>
       <c r="D42" s="66">
         <f>MIN(D11:D40)</f>
         <v>0</v>
@@ -4863,27 +4779,27 @@
         <f>MIN(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="186">
+      <c r="G42" s="187">
         <f>MIN(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="187"/>
-      <c r="I42" s="222">
+      <c r="H42" s="188"/>
+      <c r="I42" s="223">
         <f>MIN(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="223"/>
+      <c r="J42" s="224"/>
       <c r="K42" s="40">
         <f>MIN(K11:K40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="220" t="s">
+      <c r="A43" s="221" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="221"/>
-      <c r="C43" s="221"/>
+      <c r="B43" s="222"/>
+      <c r="C43" s="222"/>
       <c r="D43" s="67">
         <f>MAX(D11:D40)</f>
         <v>0</v>
@@ -4896,16 +4812,16 @@
         <f>MAX(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="216">
+      <c r="G43" s="217">
         <f>MAX(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="217"/>
-      <c r="I43" s="218">
+      <c r="H43" s="218"/>
+      <c r="I43" s="219">
         <f>MAX(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="219"/>
+      <c r="J43" s="220"/>
       <c r="K43" s="69">
         <f>MAX(K11:K40)</f>
         <v>0</v>
@@ -4915,8 +4831,8 @@
       <c r="A44" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="170"/>
-      <c r="C44" s="170"/>
+      <c r="B44" s="171"/>
+      <c r="C44" s="171"/>
       <c r="D44" s="44" t="s">
         <v>22</v>
       </c>
@@ -4933,8 +4849,8 @@
     </row>
     <row r="45" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="50"/>
-      <c r="B45" s="171"/>
-      <c r="C45" s="171"/>
+      <c r="B45" s="172"/>
+      <c r="C45" s="172"/>
       <c r="D45" s="44"/>
       <c r="F45" s="46"/>
       <c r="G45" s="47"/>
@@ -4943,15 +4859,15 @@
       <c r="J45" s="51"/>
     </row>
     <row r="46" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="155" t="s">
+      <c r="A46" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="155"/>
-      <c r="C46" s="155"/>
+      <c r="B46" s="156"/>
+      <c r="C46" s="156"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="47" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G46" s="46">
         <f>Page1!G44</f>
@@ -4960,11 +4876,11 @@
       <c r="H46" s="44"/>
     </row>
     <row r="47" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="155" t="s">
-        <v>133</v>
-      </c>
-      <c r="B47" s="155"/>
-      <c r="C47" s="155"/>
+      <c r="A47" s="156" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47" s="156"/>
+      <c r="C47" s="156"/>
       <c r="D47" s="44"/>
       <c r="E47" s="44"/>
       <c r="F47" s="44"/>
@@ -5116,37 +5032,37 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D11:D43">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="notBetween">
+      <formula>700</formula>
       <formula>1000</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="lessThan">
-      <formula>700</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E43">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="lessThan">
       <formula>400</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F43">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="lessThan">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:H19 G20:G39 G40:H43">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="greaterThan">
-      <formula>60</formula>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="notBetween">
+      <formula>45</formula>
+      <formula>55</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
-      <formula>50</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:J43">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="notBetween">
+      <formula>250</formula>
+      <formula>253</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K43">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="notBetween">
+      <formula>410</formula>
       <formula>450</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
-      <formula>410</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.11811023622047245" bottom="0.11811023622047245" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5162,7 +5078,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5173,35 +5089,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -5222,18 +5138,18 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="143" t="s">
+      <c r="A4" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="144">
+      <c r="B4" s="145">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="176">
+      <c r="C4" s="177">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="177"/>
+      <c r="D4" s="178"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -5251,25 +5167,25 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="178">
+      <c r="J4" s="179">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="179"/>
+      <c r="K4" s="180"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="148">
+      <c r="B5" s="149">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="149">
+      <c r="C5" s="150">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="150"/>
+      <c r="D5" s="151"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -5287,79 +5203,79 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="194">
+      <c r="J5" s="195">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="195"/>
+      <c r="K5" s="196"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="229" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="230"/>
-      <c r="C6" s="231"/>
-      <c r="D6" s="232"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="154"/>
+      <c r="A6" s="227" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="228"/>
+      <c r="C6" s="229"/>
+      <c r="D6" s="230"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="155"/>
       <c r="H6" s="71"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="197"/>
-      <c r="K6" s="203"/>
+      <c r="I6" s="197"/>
+      <c r="J6" s="198"/>
+      <c r="K6" s="204"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="197"/>
-      <c r="C7" s="197"/>
-      <c r="D7" s="215" t="s">
+      <c r="A7" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="198"/>
+      <c r="C7" s="198"/>
+      <c r="D7" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="233"/>
-      <c r="F7" s="233"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="226" t="s">
+      <c r="E7" s="231"/>
+      <c r="F7" s="231"/>
+      <c r="G7" s="232"/>
+      <c r="H7" s="204" t="s">
         <v>126</v>
       </c>
-      <c r="I7" s="198"/>
-      <c r="J7" s="199"/>
-      <c r="K7" s="204"/>
+      <c r="I7" s="199"/>
+      <c r="J7" s="200"/>
+      <c r="K7" s="205"/>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="198"/>
-      <c r="B8" s="199"/>
-      <c r="C8" s="199"/>
-      <c r="D8" s="236" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" s="207" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="207" t="s">
-        <v>131</v>
-      </c>
-      <c r="G8" s="207" t="s">
+      <c r="A8" s="199"/>
+      <c r="B8" s="200"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="235" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="237" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="237" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="239" t="s">
         <v>128</v>
       </c>
-      <c r="H8" s="227"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="199"/>
-      <c r="K8" s="204"/>
+      <c r="H8" s="205"/>
+      <c r="I8" s="199"/>
+      <c r="J8" s="200"/>
+      <c r="K8" s="205"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="198"/>
-      <c r="B9" s="199"/>
-      <c r="C9" s="199"/>
-      <c r="D9" s="237"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="152"/>
-      <c r="H9" s="228"/>
-      <c r="I9" s="198"/>
-      <c r="J9" s="199"/>
-      <c r="K9" s="204"/>
+      <c r="A9" s="199"/>
+      <c r="B9" s="200"/>
+      <c r="C9" s="200"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="238"/>
+      <c r="F9" s="238"/>
+      <c r="G9" s="240"/>
+      <c r="H9" s="206"/>
+      <c r="I9" s="199"/>
+      <c r="J9" s="200"/>
+      <c r="K9" s="205"/>
     </row>
     <row r="10" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="120">
@@ -5379,9 +5295,9 @@
       <c r="F10" s="23"/>
       <c r="G10" s="73"/>
       <c r="H10" s="74"/>
-      <c r="I10" s="198"/>
-      <c r="J10" s="199"/>
-      <c r="K10" s="204"/>
+      <c r="I10" s="199"/>
+      <c r="J10" s="200"/>
+      <c r="K10" s="205"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="123">
@@ -5401,9 +5317,9 @@
       <c r="F11" s="26"/>
       <c r="G11" s="76"/>
       <c r="H11" s="77"/>
-      <c r="I11" s="198"/>
-      <c r="J11" s="199"/>
-      <c r="K11" s="204"/>
+      <c r="I11" s="199"/>
+      <c r="J11" s="200"/>
+      <c r="K11" s="205"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="123">
@@ -5423,9 +5339,9 @@
       <c r="F12" s="26"/>
       <c r="G12" s="76"/>
       <c r="H12" s="77"/>
-      <c r="I12" s="198"/>
-      <c r="J12" s="199"/>
-      <c r="K12" s="204"/>
+      <c r="I12" s="199"/>
+      <c r="J12" s="200"/>
+      <c r="K12" s="205"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="123">
@@ -5445,9 +5361,9 @@
       <c r="F13" s="23"/>
       <c r="G13" s="73"/>
       <c r="H13" s="77"/>
-      <c r="I13" s="198"/>
-      <c r="J13" s="199"/>
-      <c r="K13" s="204"/>
+      <c r="I13" s="199"/>
+      <c r="J13" s="200"/>
+      <c r="K13" s="205"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="123">
@@ -5467,9 +5383,9 @@
       <c r="F14" s="26"/>
       <c r="G14" s="76"/>
       <c r="H14" s="77"/>
-      <c r="I14" s="198"/>
-      <c r="J14" s="199"/>
-      <c r="K14" s="204"/>
+      <c r="I14" s="199"/>
+      <c r="J14" s="200"/>
+      <c r="K14" s="205"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="123">
@@ -5489,9 +5405,9 @@
       <c r="F15" s="26"/>
       <c r="G15" s="76"/>
       <c r="H15" s="77"/>
-      <c r="I15" s="198"/>
-      <c r="J15" s="199"/>
-      <c r="K15" s="204"/>
+      <c r="I15" s="199"/>
+      <c r="J15" s="200"/>
+      <c r="K15" s="205"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="123">
@@ -5511,9 +5427,9 @@
       <c r="F16" s="26"/>
       <c r="G16" s="76"/>
       <c r="H16" s="77"/>
-      <c r="I16" s="198"/>
-      <c r="J16" s="199"/>
-      <c r="K16" s="204"/>
+      <c r="I16" s="199"/>
+      <c r="J16" s="200"/>
+      <c r="K16" s="205"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="123">
@@ -5533,9 +5449,9 @@
       <c r="F17" s="26"/>
       <c r="G17" s="76"/>
       <c r="H17" s="77"/>
-      <c r="I17" s="198"/>
-      <c r="J17" s="199"/>
-      <c r="K17" s="204"/>
+      <c r="I17" s="199"/>
+      <c r="J17" s="200"/>
+      <c r="K17" s="205"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="123">
@@ -5555,9 +5471,9 @@
       <c r="F18" s="26"/>
       <c r="G18" s="76"/>
       <c r="H18" s="77"/>
-      <c r="I18" s="198"/>
-      <c r="J18" s="199"/>
-      <c r="K18" s="204"/>
+      <c r="I18" s="199"/>
+      <c r="J18" s="200"/>
+      <c r="K18" s="205"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="123">
@@ -5577,9 +5493,9 @@
       <c r="F19" s="26"/>
       <c r="G19" s="76"/>
       <c r="H19" s="77"/>
-      <c r="I19" s="198"/>
-      <c r="J19" s="199"/>
-      <c r="K19" s="204"/>
+      <c r="I19" s="199"/>
+      <c r="J19" s="200"/>
+      <c r="K19" s="205"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="129">
@@ -5599,9 +5515,9 @@
       <c r="F20" s="26"/>
       <c r="G20" s="76"/>
       <c r="H20" s="77"/>
-      <c r="I20" s="198"/>
-      <c r="J20" s="199"/>
-      <c r="K20" s="204"/>
+      <c r="I20" s="199"/>
+      <c r="J20" s="200"/>
+      <c r="K20" s="205"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="123">
@@ -5621,9 +5537,9 @@
       <c r="F21" s="26"/>
       <c r="G21" s="76"/>
       <c r="H21" s="77"/>
-      <c r="I21" s="198"/>
-      <c r="J21" s="199"/>
-      <c r="K21" s="204"/>
+      <c r="I21" s="199"/>
+      <c r="J21" s="200"/>
+      <c r="K21" s="205"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="123">
@@ -5643,9 +5559,9 @@
       <c r="F22" s="26"/>
       <c r="G22" s="76"/>
       <c r="H22" s="77"/>
-      <c r="I22" s="198"/>
-      <c r="J22" s="199"/>
-      <c r="K22" s="204"/>
+      <c r="I22" s="199"/>
+      <c r="J22" s="200"/>
+      <c r="K22" s="205"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="123">
@@ -5665,9 +5581,9 @@
       <c r="F23" s="26"/>
       <c r="G23" s="76"/>
       <c r="H23" s="77"/>
-      <c r="I23" s="198"/>
-      <c r="J23" s="199"/>
-      <c r="K23" s="204"/>
+      <c r="I23" s="199"/>
+      <c r="J23" s="200"/>
+      <c r="K23" s="205"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="123">
@@ -5687,9 +5603,9 @@
       <c r="F24" s="26"/>
       <c r="G24" s="76"/>
       <c r="H24" s="77"/>
-      <c r="I24" s="198"/>
-      <c r="J24" s="199"/>
-      <c r="K24" s="204"/>
+      <c r="I24" s="199"/>
+      <c r="J24" s="200"/>
+      <c r="K24" s="205"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="123">
@@ -5709,9 +5625,9 @@
       <c r="F25" s="26"/>
       <c r="G25" s="76"/>
       <c r="H25" s="77"/>
-      <c r="I25" s="198"/>
-      <c r="J25" s="199"/>
-      <c r="K25" s="204"/>
+      <c r="I25" s="199"/>
+      <c r="J25" s="200"/>
+      <c r="K25" s="205"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="123">
@@ -5731,9 +5647,9 @@
       <c r="F26" s="26"/>
       <c r="G26" s="76"/>
       <c r="H26" s="77"/>
-      <c r="I26" s="198"/>
-      <c r="J26" s="199"/>
-      <c r="K26" s="204"/>
+      <c r="I26" s="199"/>
+      <c r="J26" s="200"/>
+      <c r="K26" s="205"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="123">
@@ -5753,9 +5669,9 @@
       <c r="F27" s="26"/>
       <c r="G27" s="76"/>
       <c r="H27" s="77"/>
-      <c r="I27" s="198"/>
-      <c r="J27" s="199"/>
-      <c r="K27" s="204"/>
+      <c r="I27" s="199"/>
+      <c r="J27" s="200"/>
+      <c r="K27" s="205"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="123">
@@ -5775,9 +5691,9 @@
       <c r="F28" s="26"/>
       <c r="G28" s="76"/>
       <c r="H28" s="77"/>
-      <c r="I28" s="198"/>
-      <c r="J28" s="199"/>
-      <c r="K28" s="204"/>
+      <c r="I28" s="199"/>
+      <c r="J28" s="200"/>
+      <c r="K28" s="205"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="123">
@@ -5797,9 +5713,9 @@
       <c r="F29" s="26"/>
       <c r="G29" s="76"/>
       <c r="H29" s="77"/>
-      <c r="I29" s="198"/>
-      <c r="J29" s="199"/>
-      <c r="K29" s="204"/>
+      <c r="I29" s="199"/>
+      <c r="J29" s="200"/>
+      <c r="K29" s="205"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="129">
@@ -5819,9 +5735,9 @@
       <c r="F30" s="26"/>
       <c r="G30" s="76"/>
       <c r="H30" s="77"/>
-      <c r="I30" s="198"/>
-      <c r="J30" s="199"/>
-      <c r="K30" s="204"/>
+      <c r="I30" s="199"/>
+      <c r="J30" s="200"/>
+      <c r="K30" s="205"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="123">
@@ -5841,9 +5757,9 @@
       <c r="F31" s="26"/>
       <c r="G31" s="76"/>
       <c r="H31" s="77"/>
-      <c r="I31" s="198"/>
-      <c r="J31" s="199"/>
-      <c r="K31" s="204"/>
+      <c r="I31" s="199"/>
+      <c r="J31" s="200"/>
+      <c r="K31" s="205"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="123">
@@ -5863,9 +5779,9 @@
       <c r="F32" s="26"/>
       <c r="G32" s="76"/>
       <c r="H32" s="77"/>
-      <c r="I32" s="198"/>
-      <c r="J32" s="199"/>
-      <c r="K32" s="204"/>
+      <c r="I32" s="199"/>
+      <c r="J32" s="200"/>
+      <c r="K32" s="205"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="123">
@@ -5885,9 +5801,9 @@
       <c r="F33" s="26"/>
       <c r="G33" s="76"/>
       <c r="H33" s="77"/>
-      <c r="I33" s="198"/>
-      <c r="J33" s="199"/>
-      <c r="K33" s="204"/>
+      <c r="I33" s="199"/>
+      <c r="J33" s="200"/>
+      <c r="K33" s="205"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="123">
@@ -5907,9 +5823,9 @@
       <c r="F34" s="26"/>
       <c r="G34" s="76"/>
       <c r="H34" s="77"/>
-      <c r="I34" s="198"/>
-      <c r="J34" s="199"/>
-      <c r="K34" s="204"/>
+      <c r="I34" s="199"/>
+      <c r="J34" s="200"/>
+      <c r="K34" s="205"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="123">
@@ -5929,9 +5845,9 @@
       <c r="F35" s="26"/>
       <c r="G35" s="76"/>
       <c r="H35" s="77"/>
-      <c r="I35" s="198"/>
-      <c r="J35" s="199"/>
-      <c r="K35" s="204"/>
+      <c r="I35" s="199"/>
+      <c r="J35" s="200"/>
+      <c r="K35" s="205"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="123">
@@ -5951,9 +5867,9 @@
       <c r="F36" s="26"/>
       <c r="G36" s="76"/>
       <c r="H36" s="77"/>
-      <c r="I36" s="198"/>
-      <c r="J36" s="199"/>
-      <c r="K36" s="204"/>
+      <c r="I36" s="199"/>
+      <c r="J36" s="200"/>
+      <c r="K36" s="205"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="123">
@@ -5973,9 +5889,9 @@
       <c r="F37" s="26"/>
       <c r="G37" s="76"/>
       <c r="H37" s="77"/>
-      <c r="I37" s="198"/>
-      <c r="J37" s="199"/>
-      <c r="K37" s="204"/>
+      <c r="I37" s="199"/>
+      <c r="J37" s="200"/>
+      <c r="K37" s="205"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="123">
@@ -5995,9 +5911,9 @@
       <c r="F38" s="26"/>
       <c r="G38" s="76"/>
       <c r="H38" s="77"/>
-      <c r="I38" s="198"/>
-      <c r="J38" s="199"/>
-      <c r="K38" s="204"/>
+      <c r="I38" s="199"/>
+      <c r="J38" s="200"/>
+      <c r="K38" s="205"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="130">
@@ -6017,16 +5933,16 @@
       <c r="F39" s="26"/>
       <c r="G39" s="76"/>
       <c r="H39" s="77"/>
-      <c r="I39" s="198"/>
-      <c r="J39" s="199"/>
-      <c r="K39" s="204"/>
+      <c r="I39" s="199"/>
+      <c r="J39" s="200"/>
+      <c r="K39" s="205"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="234" t="s">
+      <c r="A40" s="233" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="235"/>
-      <c r="C40" s="235"/>
+      <c r="B40" s="234"/>
+      <c r="C40" s="234"/>
       <c r="D40" s="78" t="e">
         <f>AVERAGE(D10:D39)</f>
         <v>#DIV/0!</v>
@@ -6047,16 +5963,16 @@
         <f>AVERAGE(H10:H39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="199"/>
-      <c r="J40" s="199"/>
-      <c r="K40" s="204"/>
+      <c r="I40" s="200"/>
+      <c r="J40" s="200"/>
+      <c r="K40" s="205"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="174" t="s">
+      <c r="A41" s="175" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="175"/>
-      <c r="C41" s="175"/>
+      <c r="B41" s="176"/>
+      <c r="C41" s="176"/>
       <c r="D41" s="80">
         <f>MIN(D10:D39)</f>
         <v>0</v>
@@ -6077,16 +5993,16 @@
         <f>MIN(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="199"/>
-      <c r="J41" s="199"/>
-      <c r="K41" s="204"/>
+      <c r="I41" s="200"/>
+      <c r="J41" s="200"/>
+      <c r="K41" s="205"/>
     </row>
     <row r="42" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="220" t="s">
+      <c r="A42" s="221" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="221"/>
-      <c r="C42" s="221"/>
+      <c r="B42" s="222"/>
+      <c r="C42" s="222"/>
       <c r="D42" s="82">
         <f>MAX(D10:D39)</f>
         <v>0</v>
@@ -6107,16 +6023,16 @@
         <f>MAX(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I42" s="202"/>
-      <c r="J42" s="202"/>
-      <c r="K42" s="205"/>
+      <c r="I42" s="203"/>
+      <c r="J42" s="203"/>
+      <c r="K42" s="206"/>
     </row>
     <row r="43" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="170"/>
-      <c r="C43" s="170"/>
+      <c r="B43" s="171"/>
+      <c r="C43" s="171"/>
       <c r="D43" s="44" t="s">
         <v>22</v>
       </c>
@@ -6133,8 +6049,8 @@
     </row>
     <row r="44" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50"/>
-      <c r="B44" s="171"/>
-      <c r="C44" s="171"/>
+      <c r="B44" s="172"/>
+      <c r="C44" s="172"/>
       <c r="D44" s="44"/>
       <c r="F44" s="46"/>
       <c r="G44" s="47"/>
@@ -6143,15 +6059,15 @@
       <c r="J44" s="51"/>
     </row>
     <row r="45" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="155" t="s">
+      <c r="A45" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="155"/>
-      <c r="C45" s="155"/>
+      <c r="B45" s="156"/>
+      <c r="C45" s="156"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="47" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G45" s="46">
         <f>Page1!G44</f>
@@ -6160,11 +6076,11 @@
       <c r="H45" s="44"/>
     </row>
     <row r="46" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="155" t="s">
-        <v>133</v>
-      </c>
-      <c r="B46" s="155"/>
-      <c r="C46" s="155"/>
+      <c r="A46" s="156" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" s="156"/>
+      <c r="C46" s="156"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
@@ -6217,20 +6133,20 @@
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="notBetween">
-      <formula>52</formula>
-      <formula>64</formula>
+      <formula>57.5</formula>
+      <formula>65.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E42">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="notBetween">
-      <formula>49</formula>
-      <formula>59</formula>
+      <formula>46</formula>
+      <formula>56</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F42">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="notBetween">
-      <formula>-12.5</formula>
-      <formula>-4.5</formula>
+      <formula>-14</formula>
+      <formula>-8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:H42">
@@ -6239,6 +6155,12 @@
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:F9" xr:uid="{119C1EAE-9453-45F6-B9BC-276001B555A7}">
+      <formula1>1000</formula1>
+      <formula2>100000</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.11811023622047245" bottom="0.11811023622047245" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -6252,7 +6174,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6265,15 +6187,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="288" t="s">
+      <c r="A1" s="291" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="289"/>
-      <c r="C1" s="289"/>
-      <c r="D1" s="289"/>
-      <c r="E1" s="289"/>
-      <c r="F1" s="289"/>
-      <c r="G1" s="290"/>
+      <c r="B1" s="292"/>
+      <c r="C1" s="292"/>
+      <c r="D1" s="292"/>
+      <c r="E1" s="292"/>
+      <c r="F1" s="292"/>
+      <c r="G1" s="293"/>
     </row>
     <row r="2" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="87"/>
@@ -6287,37 +6209,37 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="296" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="297"/>
-      <c r="C3" s="297"/>
-      <c r="D3" s="297"/>
-      <c r="E3" s="297"/>
-      <c r="F3" s="297"/>
-      <c r="G3" s="298"/>
+      <c r="A3" s="299" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="300"/>
+      <c r="C3" s="300"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="300"/>
+      <c r="F3" s="300"/>
+      <c r="G3" s="301"/>
     </row>
     <row r="4" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="198" t="s">
+      <c r="A4" s="199" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="199"/>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="199"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="204"/>
+      <c r="B4" s="200"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="205"/>
     </row>
     <row r="5" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="291" t="s">
+      <c r="A5" s="294" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="292"/>
-      <c r="C5" s="292"/>
-      <c r="D5" s="292"/>
-      <c r="E5" s="292"/>
-      <c r="F5" s="292"/>
-      <c r="G5" s="293"/>
+      <c r="B5" s="295"/>
+      <c r="C5" s="295"/>
+      <c r="D5" s="295"/>
+      <c r="E5" s="295"/>
+      <c r="F5" s="295"/>
+      <c r="G5" s="296"/>
     </row>
     <row r="6" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="90" t="s">
@@ -6329,14 +6251,14 @@
       <c r="C6" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="256" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="258"/>
-      <c r="F6" s="294" t="s">
+      <c r="D6" s="259" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="261"/>
+      <c r="F6" s="297" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="279">
+      <c r="G6" s="282">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
@@ -6349,13 +6271,13 @@
       <c r="C7" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="256">
+      <c r="D7" s="259">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="258"/>
-      <c r="F7" s="294"/>
-      <c r="G7" s="295"/>
+      <c r="E7" s="261"/>
+      <c r="F7" s="297"/>
+      <c r="G7" s="298"/>
     </row>
     <row r="8" spans="1:7" s="86" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="90" t="s">
@@ -6368,15 +6290,15 @@
       <c r="C8" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="294">
+      <c r="D8" s="297">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="294"/>
-      <c r="F8" s="276" t="s">
+      <c r="E8" s="297"/>
+      <c r="F8" s="279" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="279">
+      <c r="G8" s="282">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
@@ -6389,15 +6311,15 @@
         <f>Page1!G44</f>
         <v>461309100</v>
       </c>
-      <c r="C9" s="276" t="s">
+      <c r="C9" s="279" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="282" t="s">
+      <c r="D9" s="285" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="283"/>
-      <c r="F9" s="277"/>
-      <c r="G9" s="280"/>
+      <c r="E9" s="286"/>
+      <c r="F9" s="280"/>
+      <c r="G9" s="283"/>
     </row>
     <row r="10" spans="1:7" s="86" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="97" t="s">
@@ -6407,34 +6329,34 @@
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C10" s="278"/>
-      <c r="D10" s="284"/>
-      <c r="E10" s="285"/>
-      <c r="F10" s="278"/>
-      <c r="G10" s="281"/>
+      <c r="C10" s="281"/>
+      <c r="D10" s="287"/>
+      <c r="E10" s="288"/>
+      <c r="F10" s="281"/>
+      <c r="G10" s="284"/>
     </row>
     <row r="11" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="299" t="s">
+      <c r="A11" s="302" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="301" t="s">
+      <c r="B11" s="304" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="303" t="s">
+      <c r="C11" s="306" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="304"/>
-      <c r="E11" s="305"/>
-      <c r="F11" s="301" t="s">
+      <c r="D11" s="307"/>
+      <c r="E11" s="308"/>
+      <c r="F11" s="304" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="306" t="s">
+      <c r="G11" s="309" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="300"/>
-      <c r="B12" s="302"/>
+      <c r="A12" s="303"/>
+      <c r="B12" s="305"/>
       <c r="C12" s="99" t="s">
         <v>60</v>
       </c>
@@ -6444,8 +6366,8 @@
       <c r="E12" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="302"/>
-      <c r="G12" s="307"/>
+      <c r="F12" s="305"/>
+      <c r="G12" s="310"/>
     </row>
     <row r="13" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="100" t="s">
@@ -6515,7 +6437,7 @@
         <f>Page1!K39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="286" t="s">
+      <c r="G15" s="239" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6539,7 +6461,7 @@
         <f>Page2!F41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="227"/>
+      <c r="G16" s="289"/>
     </row>
     <row r="17" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="104" t="s">
@@ -6561,7 +6483,7 @@
         <f>Page1!I39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="227"/>
+      <c r="G17" s="289"/>
     </row>
     <row r="18" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="104" t="s">
@@ -6583,7 +6505,7 @@
         <f>Page2!D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="227"/>
+      <c r="G18" s="289"/>
     </row>
     <row r="19" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="104" t="s">
@@ -6605,7 +6527,7 @@
         <f>Page1!J39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="227"/>
+      <c r="G19" s="289"/>
     </row>
     <row r="20" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="104" t="s">
@@ -6627,7 +6549,7 @@
         <f>Page2!E41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="227"/>
+      <c r="G20" s="289"/>
     </row>
     <row r="21" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="104" t="s">
@@ -6649,7 +6571,7 @@
         <f>Page1!G39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="227"/>
+      <c r="G21" s="289"/>
     </row>
     <row r="22" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="104" t="s">
@@ -6671,7 +6593,7 @@
         <f>Page1!H39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="137"/>
+      <c r="G22" s="138"/>
     </row>
     <row r="23" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="104" t="s">
@@ -6708,8 +6630,8 @@
         <v>39</v>
       </c>
       <c r="D24" s="39">
-        <f>Page2!J8</f>
-        <v>0</v>
+        <f>Page2!J9</f>
+        <v>250</v>
       </c>
       <c r="E24" s="39">
         <f>Page2!J10</f>
@@ -6771,26 +6693,26 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="270" t="s">
+      <c r="A27" s="273" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="271"/>
-      <c r="C27" s="271"/>
-      <c r="D27" s="271"/>
-      <c r="E27" s="271"/>
-      <c r="F27" s="271"/>
-      <c r="G27" s="272"/>
+      <c r="B27" s="274"/>
+      <c r="C27" s="274"/>
+      <c r="D27" s="274"/>
+      <c r="E27" s="274"/>
+      <c r="F27" s="274"/>
+      <c r="G27" s="275"/>
     </row>
     <row r="28" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="254" t="s">
+      <c r="A28" s="257" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="255"/>
-      <c r="C28" s="273" t="s">
+      <c r="B28" s="258"/>
+      <c r="C28" s="276" t="s">
         <v>127</v>
       </c>
-      <c r="D28" s="274"/>
-      <c r="E28" s="275"/>
+      <c r="D28" s="277"/>
+      <c r="E28" s="278"/>
       <c r="F28" s="113" t="s">
         <v>92</v>
       </c>
@@ -6799,15 +6721,15 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="259" t="s">
+      <c r="A29" s="262" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="258"/>
-      <c r="C29" s="264" t="s">
+      <c r="B29" s="261"/>
+      <c r="C29" s="267" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="265"/>
-      <c r="E29" s="266"/>
+      <c r="D29" s="268"/>
+      <c r="E29" s="269"/>
       <c r="F29" s="66" t="s">
         <v>92</v>
       </c>
@@ -6816,15 +6738,15 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="259" t="s">
+      <c r="A30" s="262" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="258"/>
-      <c r="C30" s="264" t="s">
+      <c r="B30" s="261"/>
+      <c r="C30" s="267" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="265"/>
-      <c r="E30" s="266"/>
+      <c r="D30" s="268"/>
+      <c r="E30" s="269"/>
       <c r="F30" s="66" t="s">
         <v>92</v>
       </c>
@@ -6833,15 +6755,15 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="259" t="s">
+      <c r="A31" s="262" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="258"/>
-      <c r="C31" s="264" t="s">
+      <c r="B31" s="261"/>
+      <c r="C31" s="267" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="265"/>
-      <c r="E31" s="266"/>
+      <c r="D31" s="268"/>
+      <c r="E31" s="269"/>
       <c r="F31" s="66" t="s">
         <v>92</v>
       </c>
@@ -6850,15 +6772,15 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="259" t="s">
+      <c r="A32" s="262" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="258"/>
-      <c r="C32" s="264" t="s">
+      <c r="B32" s="261"/>
+      <c r="C32" s="267" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="265"/>
-      <c r="E32" s="266"/>
+      <c r="D32" s="268"/>
+      <c r="E32" s="269"/>
       <c r="F32" s="66" t="s">
         <v>92</v>
       </c>
@@ -6866,61 +6788,61 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="259" t="s">
+    <row r="33" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="262" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="258"/>
-      <c r="C33" s="264" t="s">
+      <c r="B33" s="261"/>
+      <c r="C33" s="267" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="265"/>
-      <c r="E33" s="266"/>
+      <c r="D33" s="268"/>
+      <c r="E33" s="269"/>
       <c r="F33" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="G33" s="19" t="s">
+      <c r="G33" s="108" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="86" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="147" t="s">
+      <c r="A34" s="148" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="148"/>
-      <c r="C34" s="267" t="s">
+      <c r="B34" s="149"/>
+      <c r="C34" s="270" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="268"/>
-      <c r="E34" s="269"/>
+      <c r="D34" s="271"/>
+      <c r="E34" s="272"/>
       <c r="F34" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="G34" s="19" t="s">
+      <c r="G34" s="133" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="270" t="s">
+      <c r="A35" s="273" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="271"/>
-      <c r="C35" s="271"/>
-      <c r="D35" s="271"/>
-      <c r="E35" s="271"/>
-      <c r="F35" s="271"/>
-      <c r="G35" s="272"/>
+      <c r="B35" s="274"/>
+      <c r="C35" s="274"/>
+      <c r="D35" s="274"/>
+      <c r="E35" s="274"/>
+      <c r="F35" s="274"/>
+      <c r="G35" s="275"/>
     </row>
     <row r="36" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="143" t="s">
+      <c r="A36" s="144" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="144"/>
-      <c r="C36" s="262" t="s">
+      <c r="B36" s="145"/>
+      <c r="C36" s="265" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="263"/>
-      <c r="E36" s="144"/>
+      <c r="D36" s="266"/>
+      <c r="E36" s="145"/>
       <c r="F36" s="10" t="s">
         <v>92</v>
       </c>
@@ -6929,15 +6851,15 @@
       </c>
     </row>
     <row r="37" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="254" t="s">
+      <c r="A37" s="257" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="255"/>
-      <c r="C37" s="256" t="s">
+      <c r="B37" s="258"/>
+      <c r="C37" s="259" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="257"/>
-      <c r="E37" s="258"/>
+      <c r="D37" s="260"/>
+      <c r="E37" s="261"/>
       <c r="F37" s="106" t="s">
         <v>92</v>
       </c>
@@ -6946,15 +6868,15 @@
       </c>
     </row>
     <row r="38" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="259" t="s">
+      <c r="A38" s="262" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="258"/>
-      <c r="C38" s="256" t="s">
+      <c r="B38" s="261"/>
+      <c r="C38" s="259" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="257"/>
-      <c r="E38" s="258"/>
+      <c r="D38" s="260"/>
+      <c r="E38" s="261"/>
       <c r="F38" s="106" t="s">
         <v>92</v>
       </c>
@@ -6963,15 +6885,15 @@
       </c>
     </row>
     <row r="39" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="147" t="s">
+      <c r="A39" s="148" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="148"/>
-      <c r="C39" s="260" t="s">
+      <c r="B39" s="149"/>
+      <c r="C39" s="263" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="261"/>
-      <c r="E39" s="148"/>
+      <c r="D39" s="264"/>
+      <c r="E39" s="149"/>
       <c r="F39" s="1" t="s">
         <v>92</v>
       </c>
@@ -6980,50 +6902,50 @@
       </c>
     </row>
     <row r="40" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="240" t="s">
+      <c r="A40" s="243" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="241"/>
-      <c r="C40" s="242" t="s">
-        <v>137</v>
-      </c>
-      <c r="D40" s="243"/>
-      <c r="E40" s="244"/>
-      <c r="F40" s="242" t="s">
-        <v>138</v>
-      </c>
-      <c r="G40" s="244"/>
+      <c r="B40" s="244"/>
+      <c r="C40" s="245" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" s="246"/>
+      <c r="E40" s="247"/>
+      <c r="F40" s="245" t="s">
+        <v>135</v>
+      </c>
+      <c r="G40" s="247"/>
     </row>
     <row r="41" spans="1:7" s="86" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="245"/>
-      <c r="B41" s="246"/>
-      <c r="C41" s="198"/>
-      <c r="D41" s="199"/>
-      <c r="E41" s="204"/>
-      <c r="F41" s="249"/>
-      <c r="G41" s="250"/>
+      <c r="A41" s="248"/>
+      <c r="B41" s="249"/>
+      <c r="C41" s="199"/>
+      <c r="D41" s="200"/>
+      <c r="E41" s="205"/>
+      <c r="F41" s="252"/>
+      <c r="G41" s="253"/>
     </row>
     <row r="42" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="247"/>
-      <c r="B42" s="248"/>
-      <c r="C42" s="251" t="s">
+      <c r="A42" s="250"/>
+      <c r="B42" s="251"/>
+      <c r="C42" s="254" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="252"/>
-      <c r="E42" s="253"/>
-      <c r="F42" s="251" t="s">
-        <v>139</v>
-      </c>
-      <c r="G42" s="253"/>
+      <c r="D42" s="255"/>
+      <c r="E42" s="256"/>
+      <c r="F42" s="254" t="s">
+        <v>136</v>
+      </c>
+      <c r="G42" s="256"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="115"/>
       <c r="B43" s="115"/>
       <c r="C43" s="115"/>
       <c r="D43" s="115"/>
-      <c r="E43" s="238"/>
-      <c r="F43" s="238"/>
-      <c r="G43" s="238"/>
+      <c r="E43" s="241"/>
+      <c r="F43" s="241"/>
+      <c r="G43" s="241"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="46" t="s">
@@ -7032,21 +6954,21 @@
       <c r="B44" s="116"/>
       <c r="C44" s="118"/>
       <c r="D44" s="115"/>
-      <c r="E44" s="239"/>
-      <c r="F44" s="239"/>
-      <c r="G44" s="239"/>
+      <c r="E44" s="242"/>
+      <c r="F44" s="242"/>
+      <c r="G44" s="242"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="287" t="s">
+      <c r="A46" s="290" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="287"/>
+      <c r="B46" s="290"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="287" t="s">
+      <c r="A47" s="290" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="287"/>
+      <c r="B47" s="290"/>
     </row>
   </sheetData>
   <mergeCells count="55">

--- a/backend/templates/UC-18gsm-250W-BFQR.xlsx
+++ b/backend/templates/UC-18gsm-250W-BFQR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64DA1A5-2435-45CE-AC13-51D52AC27F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8013345-787B-4F42-ADEC-3FA841D92683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="142">
   <si>
     <t>Sample No.</t>
   </si>
@@ -499,9 +499,6 @@
   </si>
   <si>
     <t>Swanson Plastics(India) Pvt. Ltd</t>
-  </si>
-  <si>
-    <t>#02</t>
   </si>
   <si>
     <t>NA</t>
@@ -1872,6 +1869,63 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1881,9 +1935,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1938,153 +1989,66 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2123,6 +2087,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2135,77 +2102,269 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2254,168 +2413,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2996,35 +2993,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -3045,12 +3042,12 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:13" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="144" t="s">
+      <c r="A4" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="145"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="147"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="164"/>
+      <c r="D4" s="165"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -3062,19 +3059,19 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="139"/>
-      <c r="K4" s="140"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="158"/>
       <c r="M4" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="151"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="169"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -3086,64 +3083,64 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="141"/>
-      <c r="K5" s="142"/>
+      <c r="J5" s="159"/>
+      <c r="K5" s="160"/>
     </row>
     <row r="6" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="157" t="s">
+      <c r="A6" s="135" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="158"/>
-      <c r="C6" s="159"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="137"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="G6" s="134"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="136"/>
+        <v>138</v>
+      </c>
+      <c r="G6" s="153"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="153"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="155"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137" t="s">
+      <c r="A7" s="138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="139"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="137" t="s">
+      <c r="E7" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="137" t="s">
+      <c r="F7" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="152" t="s">
+      <c r="G7" s="170" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="152" t="s">
+      <c r="H7" s="170" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="137" t="s">
+      <c r="I7" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="137"/>
-      <c r="K7" s="138"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="156"/>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="161"/>
-      <c r="B8" s="154"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="154" t="s">
+      <c r="A8" s="140"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="154"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="171"/>
       <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3545,11 +3542,11 @@
       <c r="K38" s="28"/>
     </row>
     <row r="39" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="168" t="s">
+      <c r="A39" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="169"/>
-      <c r="C39" s="170"/>
+      <c r="B39" s="149"/>
+      <c r="C39" s="150"/>
       <c r="D39" s="35" t="e">
         <f t="shared" ref="D39:K39" si="0">AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
@@ -3584,11 +3581,11 @@
       </c>
     </row>
     <row r="40" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="165" t="s">
+      <c r="A40" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="166"/>
-      <c r="C40" s="167"/>
+      <c r="B40" s="146"/>
+      <c r="C40" s="147"/>
       <c r="D40" s="38">
         <f t="shared" ref="D40:K40" si="1">MIN(D9:D38)</f>
         <v>0</v>
@@ -3623,11 +3620,11 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="162" t="s">
+      <c r="A41" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="163"/>
-      <c r="C41" s="164"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="144"/>
       <c r="D41" s="41">
         <f t="shared" ref="D41:K41" si="2">MAX(D9:D38)</f>
         <v>0</v>
@@ -3668,8 +3665,8 @@
       <c r="A42" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="171"/>
-      <c r="C42" s="171"/>
+      <c r="B42" s="151"/>
+      <c r="C42" s="151"/>
       <c r="D42" s="44" t="s">
         <v>22</v>
       </c>
@@ -3686,8 +3683,8 @@
     </row>
     <row r="43" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="50"/>
-      <c r="B43" s="172"/>
-      <c r="C43" s="172"/>
+      <c r="B43" s="152"/>
+      <c r="C43" s="152"/>
       <c r="D43" s="44"/>
       <c r="F43" s="46"/>
       <c r="G43" s="47"/>
@@ -3696,11 +3693,11 @@
       <c r="J43" s="51"/>
     </row>
     <row r="44" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="156" t="s">
+      <c r="A44" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="156"/>
-      <c r="C44" s="156"/>
+      <c r="B44" s="134"/>
+      <c r="C44" s="134"/>
       <c r="D44" s="44"/>
       <c r="E44" s="44"/>
       <c r="F44" s="47" t="s">
@@ -3712,11 +3709,11 @@
       <c r="H44" s="44"/>
     </row>
     <row r="45" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="156" t="s">
+      <c r="A45" s="134" t="s">
         <v>130</v>
       </c>
-      <c r="B45" s="156"/>
-      <c r="C45" s="156"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="134"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="44"/>
@@ -3758,15 +3755,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="25">
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="B43:C43"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="J4:K4"/>
@@ -3783,6 +3771,15 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="B43:C43"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D9:D41">
@@ -3855,35 +3852,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -3904,18 +3901,18 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="144" t="s">
+      <c r="A4" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="145">
+      <c r="B4" s="163">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="177">
+      <c r="C4" s="220">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="178"/>
+      <c r="D4" s="209"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -3933,25 +3930,25 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="179">
+      <c r="J4" s="221">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="180"/>
+      <c r="K4" s="222"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="149">
+      <c r="B5" s="167">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="150">
+      <c r="C5" s="168">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="151"/>
+      <c r="D5" s="169"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -3969,104 +3966,104 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="195">
+      <c r="J5" s="185">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="196"/>
+      <c r="K5" s="186"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="213" t="s">
+      <c r="A6" s="205" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="214"/>
-      <c r="C6" s="215"/>
-      <c r="D6" s="197"/>
-      <c r="E6" s="198"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="185"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="211"/>
-      <c r="J6" s="212"/>
+      <c r="B6" s="206"/>
+      <c r="C6" s="207"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="188"/>
+      <c r="F6" s="204"/>
+      <c r="G6" s="191"/>
+      <c r="H6" s="204"/>
+      <c r="I6" s="202"/>
+      <c r="J6" s="203"/>
       <c r="K6" s="55"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="198"/>
-      <c r="C7" s="198"/>
-      <c r="D7" s="216" t="s">
+      <c r="A7" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="188"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="208" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="198"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="185" t="s">
+      <c r="E7" s="188"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="191" t="s">
         <v>125</v>
       </c>
-      <c r="H7" s="198"/>
-      <c r="I7" s="185" t="s">
+      <c r="H7" s="188"/>
+      <c r="I7" s="191" t="s">
         <v>132</v>
       </c>
-      <c r="J7" s="186"/>
-      <c r="K7" s="204" t="s">
+      <c r="J7" s="204"/>
+      <c r="K7" s="195" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="199"/>
-      <c r="B8" s="200"/>
-      <c r="C8" s="200"/>
-      <c r="D8" s="199" t="s">
+      <c r="A8" s="189"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="189" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="208" t="s">
+      <c r="E8" s="199" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="209" t="s">
+      <c r="F8" s="200" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="201"/>
-      <c r="H8" s="200"/>
-      <c r="I8" s="201" t="s">
+      <c r="G8" s="192"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="192" t="s">
         <v>133</v>
       </c>
-      <c r="J8" s="209"/>
-      <c r="K8" s="205"/>
+      <c r="J8" s="200"/>
+      <c r="K8" s="196"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="199"/>
-      <c r="B9" s="200"/>
-      <c r="C9" s="200"/>
-      <c r="D9" s="199"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="209"/>
-      <c r="G9" s="201"/>
-      <c r="H9" s="200"/>
+      <c r="A9" s="189"/>
+      <c r="B9" s="190"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="189"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="200"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="190"/>
       <c r="I9" s="57" t="s">
         <v>123</v>
       </c>
       <c r="J9" s="58">
         <v>250</v>
       </c>
-      <c r="K9" s="205"/>
+      <c r="K9" s="196"/>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="199"/>
-      <c r="B10" s="200"/>
-      <c r="C10" s="200"/>
-      <c r="D10" s="207"/>
-      <c r="E10" s="153"/>
-      <c r="F10" s="210"/>
-      <c r="G10" s="202"/>
-      <c r="H10" s="203"/>
+      <c r="A10" s="189"/>
+      <c r="B10" s="190"/>
+      <c r="C10" s="190"/>
+      <c r="D10" s="198"/>
+      <c r="E10" s="171"/>
+      <c r="F10" s="201"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="194"/>
       <c r="I10" s="59" t="s">
         <v>124</v>
       </c>
       <c r="J10" s="60">
         <v>253</v>
       </c>
-      <c r="K10" s="206"/>
+      <c r="K10" s="197"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="120">
@@ -4084,10 +4081,10 @@
       <c r="D11" s="61"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="194"/>
-      <c r="H11" s="194"/>
-      <c r="I11" s="181"/>
-      <c r="J11" s="182"/>
+      <c r="G11" s="212"/>
+      <c r="H11" s="212"/>
+      <c r="I11" s="223"/>
+      <c r="J11" s="224"/>
       <c r="K11" s="62"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4106,10 +4103,10 @@
       <c r="D12" s="63"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="193"/>
-      <c r="H12" s="193"/>
-      <c r="I12" s="183"/>
-      <c r="J12" s="184"/>
+      <c r="G12" s="213"/>
+      <c r="H12" s="213"/>
+      <c r="I12" s="175"/>
+      <c r="J12" s="176"/>
       <c r="K12" s="64"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4128,10 +4125,10 @@
       <c r="D13" s="63"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="183"/>
-      <c r="J13" s="184"/>
+      <c r="G13" s="213"/>
+      <c r="H13" s="213"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="176"/>
       <c r="K13" s="64"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4150,10 +4147,10 @@
       <c r="D14" s="63"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="184"/>
+      <c r="G14" s="213"/>
+      <c r="H14" s="213"/>
+      <c r="I14" s="175"/>
+      <c r="J14" s="176"/>
       <c r="K14" s="64"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4172,10 +4169,10 @@
       <c r="D15" s="63"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="183"/>
-      <c r="J15" s="184"/>
+      <c r="G15" s="213"/>
+      <c r="H15" s="213"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="176"/>
       <c r="K15" s="64"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4194,10 +4191,10 @@
       <c r="D16" s="61"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="194"/>
-      <c r="H16" s="194"/>
-      <c r="I16" s="183"/>
-      <c r="J16" s="184"/>
+      <c r="G16" s="212"/>
+      <c r="H16" s="212"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="176"/>
       <c r="K16" s="62"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4216,10 +4213,10 @@
       <c r="D17" s="63"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="183"/>
-      <c r="J17" s="184"/>
+      <c r="G17" s="213"/>
+      <c r="H17" s="213"/>
+      <c r="I17" s="175"/>
+      <c r="J17" s="176"/>
       <c r="K17" s="64"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4238,10 +4235,10 @@
       <c r="D18" s="63"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="183"/>
-      <c r="J18" s="184"/>
+      <c r="G18" s="213"/>
+      <c r="H18" s="213"/>
+      <c r="I18" s="175"/>
+      <c r="J18" s="176"/>
       <c r="K18" s="64"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4260,10 +4257,10 @@
       <c r="D19" s="63"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="193"/>
-      <c r="H19" s="193"/>
-      <c r="I19" s="183"/>
-      <c r="J19" s="184"/>
+      <c r="G19" s="213"/>
+      <c r="H19" s="213"/>
+      <c r="I19" s="175"/>
+      <c r="J19" s="176"/>
       <c r="K19" s="64"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4282,10 +4279,10 @@
       <c r="D20" s="63"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
-      <c r="G20" s="189"/>
-      <c r="H20" s="190"/>
-      <c r="I20" s="183"/>
-      <c r="J20" s="184"/>
+      <c r="G20" s="210"/>
+      <c r="H20" s="211"/>
+      <c r="I20" s="175"/>
+      <c r="J20" s="176"/>
       <c r="K20" s="64"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4304,10 +4301,10 @@
       <c r="D21" s="63"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
-      <c r="G21" s="189"/>
-      <c r="H21" s="190"/>
-      <c r="I21" s="183"/>
-      <c r="J21" s="184"/>
+      <c r="G21" s="210"/>
+      <c r="H21" s="211"/>
+      <c r="I21" s="175"/>
+      <c r="J21" s="176"/>
       <c r="K21" s="64"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4326,10 +4323,10 @@
       <c r="D22" s="63"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
-      <c r="G22" s="189"/>
-      <c r="H22" s="190"/>
-      <c r="I22" s="183"/>
-      <c r="J22" s="184"/>
+      <c r="G22" s="210"/>
+      <c r="H22" s="211"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="176"/>
       <c r="K22" s="64"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4348,10 +4345,10 @@
       <c r="D23" s="63"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="189"/>
-      <c r="H23" s="190"/>
-      <c r="I23" s="183"/>
-      <c r="J23" s="184"/>
+      <c r="G23" s="210"/>
+      <c r="H23" s="211"/>
+      <c r="I23" s="175"/>
+      <c r="J23" s="176"/>
       <c r="K23" s="64"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4370,10 +4367,10 @@
       <c r="D24" s="63"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
-      <c r="G24" s="189"/>
-      <c r="H24" s="190"/>
-      <c r="I24" s="183"/>
-      <c r="J24" s="184"/>
+      <c r="G24" s="210"/>
+      <c r="H24" s="211"/>
+      <c r="I24" s="175"/>
+      <c r="J24" s="176"/>
       <c r="K24" s="64"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4392,10 +4389,10 @@
       <c r="D25" s="63"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
-      <c r="G25" s="189"/>
-      <c r="H25" s="190"/>
-      <c r="I25" s="183"/>
-      <c r="J25" s="184"/>
+      <c r="G25" s="210"/>
+      <c r="H25" s="211"/>
+      <c r="I25" s="175"/>
+      <c r="J25" s="176"/>
       <c r="K25" s="64"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4414,10 +4411,10 @@
       <c r="D26" s="63"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
-      <c r="G26" s="189"/>
-      <c r="H26" s="190"/>
-      <c r="I26" s="183"/>
-      <c r="J26" s="184"/>
+      <c r="G26" s="210"/>
+      <c r="H26" s="211"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="176"/>
       <c r="K26" s="64"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4436,10 +4433,10 @@
       <c r="D27" s="63"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
-      <c r="G27" s="189"/>
-      <c r="H27" s="190"/>
-      <c r="I27" s="183"/>
-      <c r="J27" s="184"/>
+      <c r="G27" s="210"/>
+      <c r="H27" s="211"/>
+      <c r="I27" s="175"/>
+      <c r="J27" s="176"/>
       <c r="K27" s="64"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4458,10 +4455,10 @@
       <c r="D28" s="63"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="189"/>
-      <c r="H28" s="190"/>
-      <c r="I28" s="183"/>
-      <c r="J28" s="184"/>
+      <c r="G28" s="210"/>
+      <c r="H28" s="211"/>
+      <c r="I28" s="175"/>
+      <c r="J28" s="176"/>
       <c r="K28" s="64"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4480,10 +4477,10 @@
       <c r="D29" s="63"/>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="189"/>
-      <c r="H29" s="190"/>
-      <c r="I29" s="183"/>
-      <c r="J29" s="184"/>
+      <c r="G29" s="210"/>
+      <c r="H29" s="211"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="176"/>
       <c r="K29" s="64"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4502,10 +4499,10 @@
       <c r="D30" s="63"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
-      <c r="G30" s="189"/>
-      <c r="H30" s="190"/>
-      <c r="I30" s="183"/>
-      <c r="J30" s="184"/>
+      <c r="G30" s="210"/>
+      <c r="H30" s="211"/>
+      <c r="I30" s="175"/>
+      <c r="J30" s="176"/>
       <c r="K30" s="64"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4524,10 +4521,10 @@
       <c r="D31" s="63"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="189"/>
-      <c r="H31" s="190"/>
-      <c r="I31" s="183"/>
-      <c r="J31" s="184"/>
+      <c r="G31" s="210"/>
+      <c r="H31" s="211"/>
+      <c r="I31" s="175"/>
+      <c r="J31" s="176"/>
       <c r="K31" s="64"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4546,10 +4543,10 @@
       <c r="D32" s="63"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
-      <c r="G32" s="189"/>
-      <c r="H32" s="190"/>
-      <c r="I32" s="183"/>
-      <c r="J32" s="184"/>
+      <c r="G32" s="210"/>
+      <c r="H32" s="211"/>
+      <c r="I32" s="175"/>
+      <c r="J32" s="176"/>
       <c r="K32" s="64"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4568,10 +4565,10 @@
       <c r="D33" s="63"/>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
-      <c r="G33" s="189"/>
-      <c r="H33" s="190"/>
-      <c r="I33" s="183"/>
-      <c r="J33" s="184"/>
+      <c r="G33" s="210"/>
+      <c r="H33" s="211"/>
+      <c r="I33" s="175"/>
+      <c r="J33" s="176"/>
       <c r="K33" s="64"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4590,10 +4587,10 @@
       <c r="D34" s="63"/>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
-      <c r="G34" s="189"/>
-      <c r="H34" s="190"/>
-      <c r="I34" s="183"/>
-      <c r="J34" s="184"/>
+      <c r="G34" s="210"/>
+      <c r="H34" s="211"/>
+      <c r="I34" s="175"/>
+      <c r="J34" s="176"/>
       <c r="K34" s="64"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4612,10 +4609,10 @@
       <c r="D35" s="63"/>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
-      <c r="G35" s="189"/>
-      <c r="H35" s="190"/>
-      <c r="I35" s="183"/>
-      <c r="J35" s="184"/>
+      <c r="G35" s="210"/>
+      <c r="H35" s="211"/>
+      <c r="I35" s="175"/>
+      <c r="J35" s="176"/>
       <c r="K35" s="64"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4634,10 +4631,10 @@
       <c r="D36" s="63"/>
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
-      <c r="G36" s="189"/>
-      <c r="H36" s="190"/>
-      <c r="I36" s="183"/>
-      <c r="J36" s="184"/>
+      <c r="G36" s="210"/>
+      <c r="H36" s="211"/>
+      <c r="I36" s="175"/>
+      <c r="J36" s="176"/>
       <c r="K36" s="64"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4656,10 +4653,10 @@
       <c r="D37" s="63"/>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
-      <c r="G37" s="189"/>
-      <c r="H37" s="190"/>
-      <c r="I37" s="183"/>
-      <c r="J37" s="184"/>
+      <c r="G37" s="210"/>
+      <c r="H37" s="211"/>
+      <c r="I37" s="175"/>
+      <c r="J37" s="176"/>
       <c r="K37" s="64"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4678,10 +4675,10 @@
       <c r="D38" s="63"/>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
-      <c r="G38" s="189"/>
-      <c r="H38" s="190"/>
-      <c r="I38" s="183"/>
-      <c r="J38" s="184"/>
+      <c r="G38" s="210"/>
+      <c r="H38" s="211"/>
+      <c r="I38" s="175"/>
+      <c r="J38" s="176"/>
       <c r="K38" s="64"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4700,10 +4697,10 @@
       <c r="D39" s="63"/>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
-      <c r="G39" s="189"/>
-      <c r="H39" s="190"/>
-      <c r="I39" s="183"/>
-      <c r="J39" s="184"/>
+      <c r="G39" s="210"/>
+      <c r="H39" s="211"/>
+      <c r="I39" s="175"/>
+      <c r="J39" s="176"/>
       <c r="K39" s="64"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4722,18 +4719,18 @@
       <c r="D40" s="63"/>
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
-      <c r="G40" s="193"/>
-      <c r="H40" s="193"/>
-      <c r="I40" s="183"/>
-      <c r="J40" s="184"/>
+      <c r="G40" s="213"/>
+      <c r="H40" s="213"/>
+      <c r="I40" s="175"/>
+      <c r="J40" s="176"/>
       <c r="K40" s="64"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="173" t="s">
+      <c r="A41" s="216" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="174"/>
-      <c r="C41" s="174"/>
+      <c r="B41" s="217"/>
+      <c r="C41" s="217"/>
       <c r="D41" s="65" t="e">
         <f>AVERAGE(D11:D40)</f>
         <v>#DIV/0!</v>
@@ -4746,27 +4743,27 @@
         <f>AVERAGE(F11:F40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="191" t="e">
+      <c r="G41" s="214" t="e">
         <f>AVERAGE(G11:H40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="192"/>
-      <c r="I41" s="225" t="e">
+      <c r="H41" s="215"/>
+      <c r="I41" s="177" t="e">
         <f>AVERAGE(I11:J40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="226"/>
+      <c r="J41" s="178"/>
       <c r="K41" s="37" t="e">
         <f>AVERAGE(K11:K40)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="175" t="s">
+      <c r="A42" s="218" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="176"/>
-      <c r="C42" s="176"/>
+      <c r="B42" s="219"/>
+      <c r="C42" s="219"/>
       <c r="D42" s="66">
         <f>MIN(D11:D40)</f>
         <v>0</v>
@@ -4779,27 +4776,27 @@
         <f>MIN(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="187">
+      <c r="G42" s="225">
         <f>MIN(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="188"/>
-      <c r="I42" s="223">
+      <c r="H42" s="226"/>
+      <c r="I42" s="173">
         <f>MIN(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="224"/>
+      <c r="J42" s="174"/>
       <c r="K42" s="40">
         <f>MIN(K11:K40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="221" t="s">
+      <c r="A43" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="222"/>
-      <c r="C43" s="222"/>
+      <c r="B43" s="184"/>
+      <c r="C43" s="184"/>
       <c r="D43" s="67">
         <f>MAX(D11:D40)</f>
         <v>0</v>
@@ -4812,16 +4809,16 @@
         <f>MAX(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="217">
+      <c r="G43" s="179">
         <f>MAX(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="218"/>
-      <c r="I43" s="219">
+      <c r="H43" s="180"/>
+      <c r="I43" s="181">
         <f>MAX(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="220"/>
+      <c r="J43" s="182"/>
       <c r="K43" s="69">
         <f>MAX(K11:K40)</f>
         <v>0</v>
@@ -4831,8 +4828,8 @@
       <c r="A44" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="171"/>
-      <c r="C44" s="171"/>
+      <c r="B44" s="151"/>
+      <c r="C44" s="151"/>
       <c r="D44" s="44" t="s">
         <v>22</v>
       </c>
@@ -4849,8 +4846,8 @@
     </row>
     <row r="45" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="50"/>
-      <c r="B45" s="172"/>
-      <c r="C45" s="172"/>
+      <c r="B45" s="152"/>
+      <c r="C45" s="152"/>
       <c r="D45" s="44"/>
       <c r="F45" s="46"/>
       <c r="G45" s="47"/>
@@ -4859,11 +4856,11 @@
       <c r="J45" s="51"/>
     </row>
     <row r="46" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="156" t="s">
+      <c r="A46" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="156"/>
-      <c r="C46" s="156"/>
+      <c r="B46" s="134"/>
+      <c r="C46" s="134"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="47" t="s">
@@ -4876,11 +4873,11 @@
       <c r="H46" s="44"/>
     </row>
     <row r="47" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="156" t="s">
+      <c r="A47" s="134" t="s">
         <v>130</v>
       </c>
-      <c r="B47" s="156"/>
-      <c r="C47" s="156"/>
+      <c r="B47" s="134"/>
+      <c r="C47" s="134"/>
       <c r="D47" s="44"/>
       <c r="E47" s="44"/>
       <c r="F47" s="44"/>
@@ -4935,52 +4932,38 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A7:C10"/>
-    <mergeCell ref="G7:H10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="G39:H39"/>
@@ -4997,38 +4980,52 @@
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A7:C10"/>
+    <mergeCell ref="G7:H10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D11:D43">
@@ -5089,35 +5086,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -5138,18 +5135,18 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="144" t="s">
+      <c r="A4" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="145">
+      <c r="B4" s="163">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="177">
+      <c r="C4" s="220">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="178"/>
+      <c r="D4" s="209"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -5167,25 +5164,25 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="179">
+      <c r="J4" s="221">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="180"/>
+      <c r="K4" s="222"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="149">
+      <c r="B5" s="167">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="150">
+      <c r="C5" s="168">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="151"/>
+      <c r="D5" s="169"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -5203,11 +5200,11 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="195">
+      <c r="J5" s="185">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="196"/>
+      <c r="K5" s="186"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="227" t="s">
@@ -5216,66 +5213,66 @@
       <c r="B6" s="228"/>
       <c r="C6" s="229"/>
       <c r="D6" s="230"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="155"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="172"/>
       <c r="H6" s="71"/>
-      <c r="I6" s="197"/>
-      <c r="J6" s="198"/>
-      <c r="K6" s="204"/>
+      <c r="I6" s="187"/>
+      <c r="J6" s="188"/>
+      <c r="K6" s="195"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="198"/>
-      <c r="C7" s="198"/>
-      <c r="D7" s="216" t="s">
+      <c r="A7" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="188"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="208" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="231"/>
       <c r="F7" s="231"/>
       <c r="G7" s="232"/>
-      <c r="H7" s="204" t="s">
+      <c r="H7" s="195" t="s">
         <v>126</v>
       </c>
-      <c r="I7" s="199"/>
-      <c r="J7" s="200"/>
-      <c r="K7" s="205"/>
+      <c r="I7" s="189"/>
+      <c r="J7" s="190"/>
+      <c r="K7" s="196"/>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="199"/>
-      <c r="B8" s="200"/>
-      <c r="C8" s="200"/>
+      <c r="A8" s="189"/>
+      <c r="B8" s="190"/>
+      <c r="C8" s="190"/>
       <c r="D8" s="235" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="237" t="s">
         <v>140</v>
       </c>
-      <c r="E8" s="237" t="s">
+      <c r="F8" s="237" t="s">
         <v>141</v>
-      </c>
-      <c r="F8" s="237" t="s">
-        <v>142</v>
       </c>
       <c r="G8" s="239" t="s">
         <v>128</v>
       </c>
-      <c r="H8" s="205"/>
-      <c r="I8" s="199"/>
-      <c r="J8" s="200"/>
-      <c r="K8" s="205"/>
+      <c r="H8" s="196"/>
+      <c r="I8" s="189"/>
+      <c r="J8" s="190"/>
+      <c r="K8" s="196"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="199"/>
-      <c r="B9" s="200"/>
-      <c r="C9" s="200"/>
+      <c r="A9" s="189"/>
+      <c r="B9" s="190"/>
+      <c r="C9" s="190"/>
       <c r="D9" s="236"/>
       <c r="E9" s="238"/>
       <c r="F9" s="238"/>
       <c r="G9" s="240"/>
-      <c r="H9" s="206"/>
-      <c r="I9" s="199"/>
-      <c r="J9" s="200"/>
-      <c r="K9" s="205"/>
+      <c r="H9" s="197"/>
+      <c r="I9" s="189"/>
+      <c r="J9" s="190"/>
+      <c r="K9" s="196"/>
     </row>
     <row r="10" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="120">
@@ -5295,9 +5292,9 @@
       <c r="F10" s="23"/>
       <c r="G10" s="73"/>
       <c r="H10" s="74"/>
-      <c r="I10" s="199"/>
-      <c r="J10" s="200"/>
-      <c r="K10" s="205"/>
+      <c r="I10" s="189"/>
+      <c r="J10" s="190"/>
+      <c r="K10" s="196"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="123">
@@ -5317,9 +5314,9 @@
       <c r="F11" s="26"/>
       <c r="G11" s="76"/>
       <c r="H11" s="77"/>
-      <c r="I11" s="199"/>
-      <c r="J11" s="200"/>
-      <c r="K11" s="205"/>
+      <c r="I11" s="189"/>
+      <c r="J11" s="190"/>
+      <c r="K11" s="196"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="123">
@@ -5339,9 +5336,9 @@
       <c r="F12" s="26"/>
       <c r="G12" s="76"/>
       <c r="H12" s="77"/>
-      <c r="I12" s="199"/>
-      <c r="J12" s="200"/>
-      <c r="K12" s="205"/>
+      <c r="I12" s="189"/>
+      <c r="J12" s="190"/>
+      <c r="K12" s="196"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="123">
@@ -5361,9 +5358,9 @@
       <c r="F13" s="23"/>
       <c r="G13" s="73"/>
       <c r="H13" s="77"/>
-      <c r="I13" s="199"/>
-      <c r="J13" s="200"/>
-      <c r="K13" s="205"/>
+      <c r="I13" s="189"/>
+      <c r="J13" s="190"/>
+      <c r="K13" s="196"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="123">
@@ -5383,9 +5380,9 @@
       <c r="F14" s="26"/>
       <c r="G14" s="76"/>
       <c r="H14" s="77"/>
-      <c r="I14" s="199"/>
-      <c r="J14" s="200"/>
-      <c r="K14" s="205"/>
+      <c r="I14" s="189"/>
+      <c r="J14" s="190"/>
+      <c r="K14" s="196"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="123">
@@ -5405,9 +5402,9 @@
       <c r="F15" s="26"/>
       <c r="G15" s="76"/>
       <c r="H15" s="77"/>
-      <c r="I15" s="199"/>
-      <c r="J15" s="200"/>
-      <c r="K15" s="205"/>
+      <c r="I15" s="189"/>
+      <c r="J15" s="190"/>
+      <c r="K15" s="196"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="123">
@@ -5427,9 +5424,9 @@
       <c r="F16" s="26"/>
       <c r="G16" s="76"/>
       <c r="H16" s="77"/>
-      <c r="I16" s="199"/>
-      <c r="J16" s="200"/>
-      <c r="K16" s="205"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="190"/>
+      <c r="K16" s="196"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="123">
@@ -5449,9 +5446,9 @@
       <c r="F17" s="26"/>
       <c r="G17" s="76"/>
       <c r="H17" s="77"/>
-      <c r="I17" s="199"/>
-      <c r="J17" s="200"/>
-      <c r="K17" s="205"/>
+      <c r="I17" s="189"/>
+      <c r="J17" s="190"/>
+      <c r="K17" s="196"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="123">
@@ -5471,9 +5468,9 @@
       <c r="F18" s="26"/>
       <c r="G18" s="76"/>
       <c r="H18" s="77"/>
-      <c r="I18" s="199"/>
-      <c r="J18" s="200"/>
-      <c r="K18" s="205"/>
+      <c r="I18" s="189"/>
+      <c r="J18" s="190"/>
+      <c r="K18" s="196"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="123">
@@ -5493,9 +5490,9 @@
       <c r="F19" s="26"/>
       <c r="G19" s="76"/>
       <c r="H19" s="77"/>
-      <c r="I19" s="199"/>
-      <c r="J19" s="200"/>
-      <c r="K19" s="205"/>
+      <c r="I19" s="189"/>
+      <c r="J19" s="190"/>
+      <c r="K19" s="196"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="129">
@@ -5515,9 +5512,9 @@
       <c r="F20" s="26"/>
       <c r="G20" s="76"/>
       <c r="H20" s="77"/>
-      <c r="I20" s="199"/>
-      <c r="J20" s="200"/>
-      <c r="K20" s="205"/>
+      <c r="I20" s="189"/>
+      <c r="J20" s="190"/>
+      <c r="K20" s="196"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="123">
@@ -5537,9 +5534,9 @@
       <c r="F21" s="26"/>
       <c r="G21" s="76"/>
       <c r="H21" s="77"/>
-      <c r="I21" s="199"/>
-      <c r="J21" s="200"/>
-      <c r="K21" s="205"/>
+      <c r="I21" s="189"/>
+      <c r="J21" s="190"/>
+      <c r="K21" s="196"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="123">
@@ -5559,9 +5556,9 @@
       <c r="F22" s="26"/>
       <c r="G22" s="76"/>
       <c r="H22" s="77"/>
-      <c r="I22" s="199"/>
-      <c r="J22" s="200"/>
-      <c r="K22" s="205"/>
+      <c r="I22" s="189"/>
+      <c r="J22" s="190"/>
+      <c r="K22" s="196"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="123">
@@ -5581,9 +5578,9 @@
       <c r="F23" s="26"/>
       <c r="G23" s="76"/>
       <c r="H23" s="77"/>
-      <c r="I23" s="199"/>
-      <c r="J23" s="200"/>
-      <c r="K23" s="205"/>
+      <c r="I23" s="189"/>
+      <c r="J23" s="190"/>
+      <c r="K23" s="196"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="123">
@@ -5603,9 +5600,9 @@
       <c r="F24" s="26"/>
       <c r="G24" s="76"/>
       <c r="H24" s="77"/>
-      <c r="I24" s="199"/>
-      <c r="J24" s="200"/>
-      <c r="K24" s="205"/>
+      <c r="I24" s="189"/>
+      <c r="J24" s="190"/>
+      <c r="K24" s="196"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="123">
@@ -5625,9 +5622,9 @@
       <c r="F25" s="26"/>
       <c r="G25" s="76"/>
       <c r="H25" s="77"/>
-      <c r="I25" s="199"/>
-      <c r="J25" s="200"/>
-      <c r="K25" s="205"/>
+      <c r="I25" s="189"/>
+      <c r="J25" s="190"/>
+      <c r="K25" s="196"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="123">
@@ -5647,9 +5644,9 @@
       <c r="F26" s="26"/>
       <c r="G26" s="76"/>
       <c r="H26" s="77"/>
-      <c r="I26" s="199"/>
-      <c r="J26" s="200"/>
-      <c r="K26" s="205"/>
+      <c r="I26" s="189"/>
+      <c r="J26" s="190"/>
+      <c r="K26" s="196"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="123">
@@ -5669,9 +5666,9 @@
       <c r="F27" s="26"/>
       <c r="G27" s="76"/>
       <c r="H27" s="77"/>
-      <c r="I27" s="199"/>
-      <c r="J27" s="200"/>
-      <c r="K27" s="205"/>
+      <c r="I27" s="189"/>
+      <c r="J27" s="190"/>
+      <c r="K27" s="196"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="123">
@@ -5691,9 +5688,9 @@
       <c r="F28" s="26"/>
       <c r="G28" s="76"/>
       <c r="H28" s="77"/>
-      <c r="I28" s="199"/>
-      <c r="J28" s="200"/>
-      <c r="K28" s="205"/>
+      <c r="I28" s="189"/>
+      <c r="J28" s="190"/>
+      <c r="K28" s="196"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="123">
@@ -5713,9 +5710,9 @@
       <c r="F29" s="26"/>
       <c r="G29" s="76"/>
       <c r="H29" s="77"/>
-      <c r="I29" s="199"/>
-      <c r="J29" s="200"/>
-      <c r="K29" s="205"/>
+      <c r="I29" s="189"/>
+      <c r="J29" s="190"/>
+      <c r="K29" s="196"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="129">
@@ -5735,9 +5732,9 @@
       <c r="F30" s="26"/>
       <c r="G30" s="76"/>
       <c r="H30" s="77"/>
-      <c r="I30" s="199"/>
-      <c r="J30" s="200"/>
-      <c r="K30" s="205"/>
+      <c r="I30" s="189"/>
+      <c r="J30" s="190"/>
+      <c r="K30" s="196"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="123">
@@ -5757,9 +5754,9 @@
       <c r="F31" s="26"/>
       <c r="G31" s="76"/>
       <c r="H31" s="77"/>
-      <c r="I31" s="199"/>
-      <c r="J31" s="200"/>
-      <c r="K31" s="205"/>
+      <c r="I31" s="189"/>
+      <c r="J31" s="190"/>
+      <c r="K31" s="196"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="123">
@@ -5779,9 +5776,9 @@
       <c r="F32" s="26"/>
       <c r="G32" s="76"/>
       <c r="H32" s="77"/>
-      <c r="I32" s="199"/>
-      <c r="J32" s="200"/>
-      <c r="K32" s="205"/>
+      <c r="I32" s="189"/>
+      <c r="J32" s="190"/>
+      <c r="K32" s="196"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="123">
@@ -5801,9 +5798,9 @@
       <c r="F33" s="26"/>
       <c r="G33" s="76"/>
       <c r="H33" s="77"/>
-      <c r="I33" s="199"/>
-      <c r="J33" s="200"/>
-      <c r="K33" s="205"/>
+      <c r="I33" s="189"/>
+      <c r="J33" s="190"/>
+      <c r="K33" s="196"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="123">
@@ -5823,9 +5820,9 @@
       <c r="F34" s="26"/>
       <c r="G34" s="76"/>
       <c r="H34" s="77"/>
-      <c r="I34" s="199"/>
-      <c r="J34" s="200"/>
-      <c r="K34" s="205"/>
+      <c r="I34" s="189"/>
+      <c r="J34" s="190"/>
+      <c r="K34" s="196"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="123">
@@ -5845,9 +5842,9 @@
       <c r="F35" s="26"/>
       <c r="G35" s="76"/>
       <c r="H35" s="77"/>
-      <c r="I35" s="199"/>
-      <c r="J35" s="200"/>
-      <c r="K35" s="205"/>
+      <c r="I35" s="189"/>
+      <c r="J35" s="190"/>
+      <c r="K35" s="196"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="123">
@@ -5867,9 +5864,9 @@
       <c r="F36" s="26"/>
       <c r="G36" s="76"/>
       <c r="H36" s="77"/>
-      <c r="I36" s="199"/>
-      <c r="J36" s="200"/>
-      <c r="K36" s="205"/>
+      <c r="I36" s="189"/>
+      <c r="J36" s="190"/>
+      <c r="K36" s="196"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="123">
@@ -5889,9 +5886,9 @@
       <c r="F37" s="26"/>
       <c r="G37" s="76"/>
       <c r="H37" s="77"/>
-      <c r="I37" s="199"/>
-      <c r="J37" s="200"/>
-      <c r="K37" s="205"/>
+      <c r="I37" s="189"/>
+      <c r="J37" s="190"/>
+      <c r="K37" s="196"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="123">
@@ -5911,9 +5908,9 @@
       <c r="F38" s="26"/>
       <c r="G38" s="76"/>
       <c r="H38" s="77"/>
-      <c r="I38" s="199"/>
-      <c r="J38" s="200"/>
-      <c r="K38" s="205"/>
+      <c r="I38" s="189"/>
+      <c r="J38" s="190"/>
+      <c r="K38" s="196"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="130">
@@ -5933,9 +5930,9 @@
       <c r="F39" s="26"/>
       <c r="G39" s="76"/>
       <c r="H39" s="77"/>
-      <c r="I39" s="199"/>
-      <c r="J39" s="200"/>
-      <c r="K39" s="205"/>
+      <c r="I39" s="189"/>
+      <c r="J39" s="190"/>
+      <c r="K39" s="196"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="233" t="s">
@@ -5963,16 +5960,16 @@
         <f>AVERAGE(H10:H39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="200"/>
-      <c r="J40" s="200"/>
-      <c r="K40" s="205"/>
+      <c r="I40" s="190"/>
+      <c r="J40" s="190"/>
+      <c r="K40" s="196"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="175" t="s">
+      <c r="A41" s="218" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="176"/>
-      <c r="C41" s="176"/>
+      <c r="B41" s="219"/>
+      <c r="C41" s="219"/>
       <c r="D41" s="80">
         <f>MIN(D10:D39)</f>
         <v>0</v>
@@ -5993,16 +5990,16 @@
         <f>MIN(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="200"/>
-      <c r="J41" s="200"/>
-      <c r="K41" s="205"/>
+      <c r="I41" s="190"/>
+      <c r="J41" s="190"/>
+      <c r="K41" s="196"/>
     </row>
     <row r="42" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="221" t="s">
+      <c r="A42" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="222"/>
-      <c r="C42" s="222"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
       <c r="D42" s="82">
         <f>MAX(D10:D39)</f>
         <v>0</v>
@@ -6023,16 +6020,16 @@
         <f>MAX(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I42" s="203"/>
-      <c r="J42" s="203"/>
-      <c r="K42" s="206"/>
+      <c r="I42" s="194"/>
+      <c r="J42" s="194"/>
+      <c r="K42" s="197"/>
     </row>
     <row r="43" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="171"/>
-      <c r="C43" s="171"/>
+      <c r="B43" s="151"/>
+      <c r="C43" s="151"/>
       <c r="D43" s="44" t="s">
         <v>22</v>
       </c>
@@ -6049,8 +6046,8 @@
     </row>
     <row r="44" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50"/>
-      <c r="B44" s="172"/>
-      <c r="C44" s="172"/>
+      <c r="B44" s="152"/>
+      <c r="C44" s="152"/>
       <c r="D44" s="44"/>
       <c r="F44" s="46"/>
       <c r="G44" s="47"/>
@@ -6059,11 +6056,11 @@
       <c r="J44" s="51"/>
     </row>
     <row r="45" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="156" t="s">
+      <c r="A45" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="156"/>
-      <c r="C45" s="156"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="134"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="47" t="s">
@@ -6076,11 +6073,11 @@
       <c r="H45" s="44"/>
     </row>
     <row r="46" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="156" t="s">
+      <c r="A46" s="134" t="s">
         <v>130</v>
       </c>
-      <c r="B46" s="156"/>
-      <c r="C46" s="156"/>
+      <c r="B46" s="134"/>
+      <c r="C46" s="134"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
@@ -6105,6 +6102,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="I6:K42"/>
     <mergeCell ref="H7:H9"/>
@@ -6121,15 +6127,6 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="notBetween">
@@ -6174,7 +6171,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6187,15 +6184,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="242" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="292"/>
-      <c r="C1" s="292"/>
-      <c r="D1" s="292"/>
-      <c r="E1" s="292"/>
-      <c r="F1" s="292"/>
-      <c r="G1" s="293"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="243"/>
+      <c r="F1" s="243"/>
+      <c r="G1" s="244"/>
     </row>
     <row r="2" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="87"/>
@@ -6209,37 +6206,37 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="299" t="s">
+      <c r="A3" s="253" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="300"/>
-      <c r="C3" s="300"/>
-      <c r="D3" s="300"/>
-      <c r="E3" s="300"/>
-      <c r="F3" s="300"/>
-      <c r="G3" s="301"/>
+      <c r="B3" s="254"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="255"/>
     </row>
     <row r="4" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="199" t="s">
+      <c r="A4" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="200"/>
-      <c r="C4" s="200"/>
-      <c r="D4" s="200"/>
-      <c r="E4" s="200"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="205"/>
+      <c r="B4" s="190"/>
+      <c r="C4" s="190"/>
+      <c r="D4" s="190"/>
+      <c r="E4" s="190"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="196"/>
     </row>
     <row r="5" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="294" t="s">
+      <c r="A5" s="245" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="295"/>
-      <c r="C5" s="295"/>
-      <c r="D5" s="295"/>
-      <c r="E5" s="295"/>
-      <c r="F5" s="295"/>
-      <c r="G5" s="296"/>
+      <c r="B5" s="246"/>
+      <c r="C5" s="246"/>
+      <c r="D5" s="246"/>
+      <c r="E5" s="246"/>
+      <c r="F5" s="246"/>
+      <c r="G5" s="247"/>
     </row>
     <row r="6" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="90" t="s">
@@ -6251,14 +6248,15 @@
       <c r="C6" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="259" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="261"/>
-      <c r="F6" s="297" t="s">
+      <c r="D6" s="248">
+        <f>Page1!H4</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="249"/>
+      <c r="F6" s="250" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="282">
+      <c r="G6" s="251">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
@@ -6271,13 +6269,13 @@
       <c r="C7" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="259">
+      <c r="D7" s="248">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="261"/>
-      <c r="F7" s="297"/>
-      <c r="G7" s="298"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="250"/>
+      <c r="G7" s="252"/>
     </row>
     <row r="8" spans="1:7" s="86" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="90" t="s">
@@ -6290,15 +6288,15 @@
       <c r="C8" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="297">
+      <c r="D8" s="250">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="297"/>
-      <c r="F8" s="279" t="s">
+      <c r="E8" s="250"/>
+      <c r="F8" s="265" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="282">
+      <c r="G8" s="251">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
@@ -6311,15 +6309,15 @@
         <f>Page1!G44</f>
         <v>461309100</v>
       </c>
-      <c r="C9" s="279" t="s">
+      <c r="C9" s="265" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="285" t="s">
+      <c r="D9" s="270" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="286"/>
-      <c r="F9" s="280"/>
-      <c r="G9" s="283"/>
+      <c r="E9" s="271"/>
+      <c r="F9" s="266"/>
+      <c r="G9" s="268"/>
     </row>
     <row r="10" spans="1:7" s="86" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="97" t="s">
@@ -6329,34 +6327,34 @@
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C10" s="281"/>
-      <c r="D10" s="287"/>
-      <c r="E10" s="288"/>
-      <c r="F10" s="281"/>
-      <c r="G10" s="284"/>
+      <c r="C10" s="267"/>
+      <c r="D10" s="272"/>
+      <c r="E10" s="273"/>
+      <c r="F10" s="267"/>
+      <c r="G10" s="269"/>
     </row>
     <row r="11" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="302" t="s">
+      <c r="A11" s="256" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="304" t="s">
+      <c r="B11" s="258" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="306" t="s">
+      <c r="C11" s="260" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="307"/>
-      <c r="E11" s="308"/>
-      <c r="F11" s="304" t="s">
+      <c r="D11" s="261"/>
+      <c r="E11" s="262"/>
+      <c r="F11" s="258" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="309" t="s">
+      <c r="G11" s="263" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="303"/>
-      <c r="B12" s="305"/>
+      <c r="A12" s="257"/>
+      <c r="B12" s="259"/>
       <c r="C12" s="99" t="s">
         <v>60</v>
       </c>
@@ -6366,8 +6364,8 @@
       <c r="E12" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="305"/>
-      <c r="G12" s="310"/>
+      <c r="F12" s="259"/>
+      <c r="G12" s="264"/>
     </row>
     <row r="13" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="100" t="s">
@@ -6461,7 +6459,7 @@
         <f>Page2!F41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="289"/>
+      <c r="G16" s="274"/>
     </row>
     <row r="17" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="104" t="s">
@@ -6483,7 +6481,7 @@
         <f>Page1!I39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="289"/>
+      <c r="G17" s="274"/>
     </row>
     <row r="18" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="104" t="s">
@@ -6505,7 +6503,7 @@
         <f>Page2!D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="289"/>
+      <c r="G18" s="274"/>
     </row>
     <row r="19" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="104" t="s">
@@ -6527,7 +6525,7 @@
         <f>Page1!J39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="289"/>
+      <c r="G19" s="274"/>
     </row>
     <row r="20" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="104" t="s">
@@ -6549,7 +6547,7 @@
         <f>Page2!E41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="289"/>
+      <c r="G20" s="274"/>
     </row>
     <row r="21" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="104" t="s">
@@ -6571,7 +6569,7 @@
         <f>Page1!G39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="289"/>
+      <c r="G21" s="274"/>
     </row>
     <row r="22" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="104" t="s">
@@ -6593,7 +6591,7 @@
         <f>Page1!H39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="138"/>
+      <c r="G22" s="156"/>
     </row>
     <row r="23" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="104" t="s">
@@ -6693,26 +6691,26 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="273" t="s">
+      <c r="A27" s="275" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="274"/>
-      <c r="C27" s="274"/>
-      <c r="D27" s="274"/>
-      <c r="E27" s="274"/>
-      <c r="F27" s="274"/>
-      <c r="G27" s="275"/>
+      <c r="B27" s="276"/>
+      <c r="C27" s="276"/>
+      <c r="D27" s="276"/>
+      <c r="E27" s="276"/>
+      <c r="F27" s="276"/>
+      <c r="G27" s="277"/>
     </row>
     <row r="28" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="257" t="s">
+      <c r="A28" s="278" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="258"/>
-      <c r="C28" s="276" t="s">
+      <c r="B28" s="279"/>
+      <c r="C28" s="280" t="s">
         <v>127</v>
       </c>
-      <c r="D28" s="277"/>
-      <c r="E28" s="278"/>
+      <c r="D28" s="281"/>
+      <c r="E28" s="282"/>
       <c r="F28" s="113" t="s">
         <v>92</v>
       </c>
@@ -6721,15 +6719,15 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="262" t="s">
+      <c r="A29" s="283" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="261"/>
-      <c r="C29" s="267" t="s">
+      <c r="B29" s="249"/>
+      <c r="C29" s="284" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="268"/>
-      <c r="E29" s="269"/>
+      <c r="D29" s="285"/>
+      <c r="E29" s="286"/>
       <c r="F29" s="66" t="s">
         <v>92</v>
       </c>
@@ -6738,15 +6736,15 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="262" t="s">
+      <c r="A30" s="283" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="261"/>
-      <c r="C30" s="267" t="s">
+      <c r="B30" s="249"/>
+      <c r="C30" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="268"/>
-      <c r="E30" s="269"/>
+      <c r="D30" s="285"/>
+      <c r="E30" s="286"/>
       <c r="F30" s="66" t="s">
         <v>92</v>
       </c>
@@ -6755,15 +6753,15 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="262" t="s">
+      <c r="A31" s="283" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="261"/>
-      <c r="C31" s="267" t="s">
+      <c r="B31" s="249"/>
+      <c r="C31" s="284" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="268"/>
-      <c r="E31" s="269"/>
+      <c r="D31" s="285"/>
+      <c r="E31" s="286"/>
       <c r="F31" s="66" t="s">
         <v>92</v>
       </c>
@@ -6772,15 +6770,15 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="262" t="s">
+      <c r="A32" s="283" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="261"/>
-      <c r="C32" s="267" t="s">
+      <c r="B32" s="249"/>
+      <c r="C32" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="268"/>
-      <c r="E32" s="269"/>
+      <c r="D32" s="285"/>
+      <c r="E32" s="286"/>
       <c r="F32" s="66" t="s">
         <v>92</v>
       </c>
@@ -6789,15 +6787,15 @@
       </c>
     </row>
     <row r="33" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="262" t="s">
+      <c r="A33" s="283" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="261"/>
-      <c r="C33" s="267" t="s">
+      <c r="B33" s="249"/>
+      <c r="C33" s="284" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="268"/>
-      <c r="E33" s="269"/>
+      <c r="D33" s="285"/>
+      <c r="E33" s="286"/>
       <c r="F33" s="66" t="s">
         <v>92</v>
       </c>
@@ -6806,15 +6804,15 @@
       </c>
     </row>
     <row r="34" spans="1:7" s="86" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="148" t="s">
+      <c r="A34" s="166" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="149"/>
-      <c r="C34" s="270" t="s">
+      <c r="B34" s="167"/>
+      <c r="C34" s="289" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="271"/>
-      <c r="E34" s="272"/>
+      <c r="D34" s="290"/>
+      <c r="E34" s="291"/>
       <c r="F34" s="114" t="s">
         <v>92</v>
       </c>
@@ -6823,26 +6821,26 @@
       </c>
     </row>
     <row r="35" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="273" t="s">
+      <c r="A35" s="275" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="274"/>
-      <c r="C35" s="274"/>
-      <c r="D35" s="274"/>
-      <c r="E35" s="274"/>
-      <c r="F35" s="274"/>
-      <c r="G35" s="275"/>
+      <c r="B35" s="276"/>
+      <c r="C35" s="276"/>
+      <c r="D35" s="276"/>
+      <c r="E35" s="276"/>
+      <c r="F35" s="276"/>
+      <c r="G35" s="277"/>
     </row>
     <row r="36" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="144" t="s">
+      <c r="A36" s="162" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="145"/>
-      <c r="C36" s="265" t="s">
+      <c r="B36" s="163"/>
+      <c r="C36" s="287" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="266"/>
-      <c r="E36" s="145"/>
+      <c r="D36" s="288"/>
+      <c r="E36" s="163"/>
       <c r="F36" s="10" t="s">
         <v>92</v>
       </c>
@@ -6851,15 +6849,15 @@
       </c>
     </row>
     <row r="37" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="257" t="s">
+      <c r="A37" s="278" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="258"/>
-      <c r="C37" s="259" t="s">
+      <c r="B37" s="279"/>
+      <c r="C37" s="248" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="260"/>
-      <c r="E37" s="261"/>
+      <c r="D37" s="292"/>
+      <c r="E37" s="249"/>
       <c r="F37" s="106" t="s">
         <v>92</v>
       </c>
@@ -6868,15 +6866,15 @@
       </c>
     </row>
     <row r="38" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="262" t="s">
+      <c r="A38" s="283" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="261"/>
-      <c r="C38" s="259" t="s">
+      <c r="B38" s="249"/>
+      <c r="C38" s="248" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="260"/>
-      <c r="E38" s="261"/>
+      <c r="D38" s="292"/>
+      <c r="E38" s="249"/>
       <c r="F38" s="106" t="s">
         <v>92</v>
       </c>
@@ -6885,15 +6883,15 @@
       </c>
     </row>
     <row r="39" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="148" t="s">
+      <c r="A39" s="166" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="149"/>
-      <c r="C39" s="263" t="s">
+      <c r="B39" s="167"/>
+      <c r="C39" s="293" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="264"/>
-      <c r="E39" s="149"/>
+      <c r="D39" s="294"/>
+      <c r="E39" s="167"/>
       <c r="F39" s="1" t="s">
         <v>92</v>
       </c>
@@ -6902,50 +6900,50 @@
       </c>
     </row>
     <row r="40" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="243" t="s">
+      <c r="A40" s="297" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="244"/>
-      <c r="C40" s="245" t="s">
+      <c r="B40" s="298"/>
+      <c r="C40" s="299" t="s">
         <v>134</v>
       </c>
-      <c r="D40" s="246"/>
-      <c r="E40" s="247"/>
-      <c r="F40" s="245" t="s">
+      <c r="D40" s="300"/>
+      <c r="E40" s="301"/>
+      <c r="F40" s="299" t="s">
         <v>135</v>
       </c>
-      <c r="G40" s="247"/>
+      <c r="G40" s="301"/>
     </row>
     <row r="41" spans="1:7" s="86" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="248"/>
-      <c r="B41" s="249"/>
-      <c r="C41" s="199"/>
-      <c r="D41" s="200"/>
-      <c r="E41" s="205"/>
-      <c r="F41" s="252"/>
-      <c r="G41" s="253"/>
+      <c r="A41" s="302"/>
+      <c r="B41" s="303"/>
+      <c r="C41" s="189"/>
+      <c r="D41" s="190"/>
+      <c r="E41" s="196"/>
+      <c r="F41" s="306"/>
+      <c r="G41" s="307"/>
     </row>
     <row r="42" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="250"/>
-      <c r="B42" s="251"/>
-      <c r="C42" s="254" t="s">
+      <c r="A42" s="304"/>
+      <c r="B42" s="305"/>
+      <c r="C42" s="308" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="255"/>
-      <c r="E42" s="256"/>
-      <c r="F42" s="254" t="s">
+      <c r="D42" s="309"/>
+      <c r="E42" s="310"/>
+      <c r="F42" s="308" t="s">
         <v>136</v>
       </c>
-      <c r="G42" s="256"/>
+      <c r="G42" s="310"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="115"/>
       <c r="B43" s="115"/>
       <c r="C43" s="115"/>
       <c r="D43" s="115"/>
-      <c r="E43" s="241"/>
-      <c r="F43" s="241"/>
-      <c r="G43" s="241"/>
+      <c r="E43" s="295"/>
+      <c r="F43" s="295"/>
+      <c r="G43" s="295"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="46" t="s">
@@ -6954,24 +6952,63 @@
       <c r="B44" s="116"/>
       <c r="C44" s="118"/>
       <c r="D44" s="115"/>
-      <c r="E44" s="242"/>
-      <c r="F44" s="242"/>
-      <c r="G44" s="242"/>
+      <c r="E44" s="296"/>
+      <c r="F44" s="296"/>
+      <c r="G44" s="296"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="290" t="s">
+      <c r="A46" s="241" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="290"/>
+      <c r="B46" s="241"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="290" t="s">
+      <c r="A47" s="241" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="290"/>
+      <c r="B47" s="241"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="G15:G22"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A1:G1"/>
@@ -6988,45 +7025,6 @@
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="G15:G22"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.78740157480314965" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="84" orientation="portrait" r:id="rId1"/>

--- a/backend/templates/UC-18gsm-250W-BFQR.xlsx
+++ b/backend/templates/UC-18gsm-250W-BFQR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8013345-787B-4F42-ADEC-3FA841D92683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12BB227-7190-4EF2-A23A-918D5284C1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1443,7 +1443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="311">
+  <cellXfs count="312">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2399,20 +2399,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6171,7 +6174,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6914,27 +6917,27 @@
       </c>
       <c r="G40" s="301"/>
     </row>
-    <row r="41" spans="1:7" s="86" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" s="86" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="302"/>
       <c r="B41" s="303"/>
-      <c r="C41" s="189"/>
-      <c r="D41" s="190"/>
-      <c r="E41" s="196"/>
+      <c r="C41" s="306"/>
+      <c r="D41" s="307"/>
+      <c r="E41" s="308"/>
       <c r="F41" s="306"/>
-      <c r="G41" s="307"/>
-    </row>
-    <row r="42" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G41" s="308"/>
+    </row>
+    <row r="42" spans="1:7" s="86" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="304"/>
       <c r="B42" s="305"/>
-      <c r="C42" s="308" t="s">
+      <c r="C42" s="309" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="309"/>
-      <c r="E42" s="310"/>
-      <c r="F42" s="308" t="s">
+      <c r="D42" s="310"/>
+      <c r="E42" s="311"/>
+      <c r="F42" s="309" t="s">
         <v>136</v>
       </c>
-      <c r="G42" s="310"/>
+      <c r="G42" s="311"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="115"/>

--- a/backend/templates/UC-18gsm-250W-BFQR.xlsx
+++ b/backend/templates/UC-18gsm-250W-BFQR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12BB227-7190-4EF2-A23A-918D5284C1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C56E9E-81D9-4CFA-BF03-5238FC943DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -623,7 +623,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="67">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -1416,19 +1416,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1443,7 +1430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="312">
+  <cellXfs count="309">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1659,14 +1646,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1833,21 +1814,12 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1863,10 +1835,16 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="58" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1893,33 +1871,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2024,12 +1975,6 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2067,9 +2012,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2096,12 +2038,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2126,18 +2062,6 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2168,28 +2092,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2415,6 +2321,78 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2982,49 +2960,49 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="14" style="5" customWidth="1"/>
     <col min="4" max="11" width="21.7109375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="85" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="85"/>
-    <col min="14" max="14" width="9.42578125" style="85" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="85"/>
+    <col min="12" max="12" width="10.5703125" style="83" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="83"/>
+    <col min="14" max="14" width="9.42578125" style="83" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -3045,12 +3023,12 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:13" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="162" t="s">
+      <c r="A4" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="163"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="165"/>
+      <c r="B4" s="151"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="153"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -3062,19 +3040,19 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="157"/>
-      <c r="K4" s="158"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="146"/>
       <c r="M4" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="166" t="s">
+      <c r="A5" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="167"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="169"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="157"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -3086,64 +3064,64 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="159"/>
-      <c r="K5" s="160"/>
+      <c r="J5" s="147"/>
+      <c r="K5" s="148"/>
     </row>
     <row r="6" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="135" t="s">
+      <c r="A6" s="132" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="136"/>
-      <c r="C6" s="137"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="134"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="G6" s="153"/>
-      <c r="H6" s="172"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="154"/>
-      <c r="K6" s="155"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="142"/>
+      <c r="K6" s="143"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="138" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139" t="s">
+      <c r="A7" s="135" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="136"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="139" t="s">
+      <c r="E7" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="139" t="s">
+      <c r="F7" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="170" t="s">
+      <c r="G7" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="170" t="s">
+      <c r="H7" s="158" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="139" t="s">
+      <c r="I7" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="139"/>
-      <c r="K7" s="156"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="144"/>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="140"/>
-      <c r="B8" s="141"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141" t="s">
+      <c r="A8" s="137"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="141"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="171"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="159"/>
       <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3545,11 +3523,11 @@
       <c r="K38" s="28"/>
     </row>
     <row r="39" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="148" t="s">
+      <c r="A39" s="285" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="149"/>
-      <c r="C39" s="150"/>
+      <c r="B39" s="286"/>
+      <c r="C39" s="287"/>
       <c r="D39" s="35" t="e">
         <f t="shared" ref="D39:K39" si="0">AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
@@ -3584,11 +3562,11 @@
       </c>
     </row>
     <row r="40" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="145" t="s">
+      <c r="A40" s="288" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="146"/>
-      <c r="C40" s="147"/>
+      <c r="B40" s="289"/>
+      <c r="C40" s="290"/>
       <c r="D40" s="38">
         <f t="shared" ref="D40:K40" si="1">MIN(D9:D38)</f>
         <v>0</v>
@@ -3623,11 +3601,11 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="142" t="s">
+      <c r="A41" s="291" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="143"/>
-      <c r="C41" s="144"/>
+      <c r="B41" s="292"/>
+      <c r="C41" s="293"/>
       <c r="D41" s="41">
         <f t="shared" ref="D41:K41" si="2">MAX(D9:D38)</f>
         <v>0</v>
@@ -3668,8 +3646,8 @@
       <c r="A42" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="151"/>
-      <c r="C42" s="151"/>
+      <c r="B42" s="139"/>
+      <c r="C42" s="139"/>
       <c r="D42" s="44" t="s">
         <v>22</v>
       </c>
@@ -3686,8 +3664,8 @@
     </row>
     <row r="43" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="50"/>
-      <c r="B43" s="152"/>
-      <c r="C43" s="152"/>
+      <c r="B43" s="140"/>
+      <c r="C43" s="140"/>
       <c r="D43" s="44"/>
       <c r="F43" s="46"/>
       <c r="G43" s="47"/>
@@ -3696,11 +3674,11 @@
       <c r="J43" s="51"/>
     </row>
     <row r="44" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="134" t="s">
+      <c r="A44" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="134"/>
-      <c r="C44" s="134"/>
+      <c r="B44" s="131"/>
+      <c r="C44" s="131"/>
       <c r="D44" s="44"/>
       <c r="E44" s="44"/>
       <c r="F44" s="47" t="s">
@@ -3712,11 +3690,11 @@
       <c r="H44" s="44"/>
     </row>
     <row r="45" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="134" t="s">
+      <c r="A45" s="131" t="s">
         <v>130</v>
       </c>
-      <c r="B45" s="134"/>
-      <c r="C45" s="134"/>
+      <c r="B45" s="131"/>
+      <c r="C45" s="131"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="44"/>
@@ -3844,46 +3822,46 @@
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="14" style="5" customWidth="1"/>
     <col min="4" max="11" width="21.7109375" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="85"/>
+    <col min="12" max="16384" width="9.140625" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -3904,22 +3882,22 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="162" t="s">
+      <c r="A4" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="163">
+      <c r="B4" s="151">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="220">
+      <c r="C4" s="199">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="209"/>
+      <c r="D4" s="192"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="119">
+      <c r="F4" s="117">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
@@ -3933,25 +3911,25 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="221">
+      <c r="J4" s="200">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="222"/>
+      <c r="K4" s="201"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="166" t="s">
+      <c r="A5" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="167">
+      <c r="B5" s="155">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="168">
+      <c r="C5" s="156">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="169"/>
+      <c r="D5" s="157"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -3969,772 +3947,772 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="185">
+      <c r="J5" s="171">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="186"/>
+      <c r="K5" s="172"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="205" t="s">
+      <c r="A6" s="190" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="206"/>
-      <c r="C6" s="207"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="188"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="191"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="202"/>
-      <c r="J6" s="203"/>
+      <c r="B6" s="191"/>
+      <c r="C6" s="191"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="189"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="189"/>
+      <c r="I6" s="187"/>
+      <c r="J6" s="188"/>
       <c r="K6" s="55"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="187" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="188"/>
-      <c r="C7" s="188"/>
+      <c r="A7" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="174"/>
+      <c r="C7" s="189"/>
       <c r="D7" s="208" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="188"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="191" t="s">
+      <c r="E7" s="174"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="177" t="s">
         <v>125</v>
       </c>
-      <c r="H7" s="188"/>
-      <c r="I7" s="191" t="s">
+      <c r="H7" s="174"/>
+      <c r="I7" s="177" t="s">
         <v>132</v>
       </c>
-      <c r="J7" s="204"/>
-      <c r="K7" s="195" t="s">
+      <c r="J7" s="189"/>
+      <c r="K7" s="181" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="189"/>
-      <c r="B8" s="190"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="189" t="s">
+      <c r="A8" s="175"/>
+      <c r="B8" s="300"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="300" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="199" t="s">
+      <c r="E8" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="200" t="s">
+      <c r="F8" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="192"/>
-      <c r="H8" s="190"/>
-      <c r="I8" s="192" t="s">
+      <c r="G8" s="178"/>
+      <c r="H8" s="176"/>
+      <c r="I8" s="178" t="s">
         <v>133</v>
       </c>
-      <c r="J8" s="200"/>
-      <c r="K8" s="196"/>
+      <c r="J8" s="185"/>
+      <c r="K8" s="182"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="189"/>
-      <c r="B9" s="190"/>
-      <c r="C9" s="190"/>
-      <c r="D9" s="189"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="200"/>
-      <c r="G9" s="192"/>
-      <c r="H9" s="190"/>
+      <c r="A9" s="175"/>
+      <c r="B9" s="300"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="300"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="176"/>
       <c r="I9" s="57" t="s">
         <v>123</v>
       </c>
       <c r="J9" s="58">
         <v>250</v>
       </c>
-      <c r="K9" s="196"/>
+      <c r="K9" s="182"/>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="189"/>
-      <c r="B10" s="190"/>
-      <c r="C10" s="190"/>
-      <c r="D10" s="198"/>
-      <c r="E10" s="171"/>
-      <c r="F10" s="201"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="194"/>
+      <c r="A10" s="175"/>
+      <c r="B10" s="300"/>
+      <c r="C10" s="185"/>
+      <c r="D10" s="180"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="186"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="180"/>
       <c r="I10" s="59" t="s">
         <v>124</v>
       </c>
       <c r="J10" s="60">
         <v>253</v>
       </c>
-      <c r="K10" s="197"/>
+      <c r="K10" s="183"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="120">
+      <c r="A11" s="118">
         <f>Page1!A9</f>
         <v>0</v>
       </c>
-      <c r="B11" s="121">
+      <c r="B11" s="119">
         <f>Page1!B9</f>
         <v>0</v>
       </c>
-      <c r="C11" s="122">
+      <c r="C11" s="301">
         <f>Page1!C9</f>
         <v>0</v>
       </c>
       <c r="D11" s="61"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="212"/>
-      <c r="H11" s="212"/>
-      <c r="I11" s="223"/>
-      <c r="J11" s="224"/>
+      <c r="G11" s="195"/>
+      <c r="H11" s="195"/>
+      <c r="I11" s="202"/>
+      <c r="J11" s="203"/>
       <c r="K11" s="62"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="123">
+      <c r="A12" s="120">
         <f>Page1!A10</f>
         <v>0</v>
       </c>
-      <c r="B12" s="124">
+      <c r="B12" s="121">
         <f>Page1!B10</f>
         <v>0</v>
       </c>
-      <c r="C12" s="125">
+      <c r="C12" s="302">
         <f>Page1!C10</f>
         <v>0</v>
       </c>
       <c r="D12" s="63"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="213"/>
-      <c r="H12" s="213"/>
-      <c r="I12" s="175"/>
-      <c r="J12" s="176"/>
+      <c r="G12" s="196"/>
+      <c r="H12" s="196"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="164"/>
       <c r="K12" s="64"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="123">
+      <c r="A13" s="120">
         <f>Page1!A11</f>
         <v>0</v>
       </c>
-      <c r="B13" s="124">
+      <c r="B13" s="121">
         <f>Page1!B11</f>
         <v>0</v>
       </c>
-      <c r="C13" s="126">
+      <c r="C13" s="303">
         <f>Page1!C11</f>
         <v>0</v>
       </c>
       <c r="D13" s="63"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="213"/>
-      <c r="H13" s="213"/>
-      <c r="I13" s="175"/>
-      <c r="J13" s="176"/>
+      <c r="G13" s="196"/>
+      <c r="H13" s="196"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="164"/>
       <c r="K13" s="64"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="123">
+      <c r="A14" s="120">
         <f>Page1!A12</f>
         <v>0</v>
       </c>
-      <c r="B14" s="127">
+      <c r="B14" s="122">
         <f>Page1!B12</f>
         <v>0</v>
       </c>
-      <c r="C14" s="126">
+      <c r="C14" s="303">
         <f>Page1!C12</f>
         <v>0</v>
       </c>
       <c r="D14" s="63"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="213"/>
-      <c r="H14" s="213"/>
-      <c r="I14" s="175"/>
-      <c r="J14" s="176"/>
+      <c r="G14" s="196"/>
+      <c r="H14" s="196"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="164"/>
       <c r="K14" s="64"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="123">
+      <c r="A15" s="120">
         <f>Page1!A13</f>
         <v>0</v>
       </c>
-      <c r="B15" s="124">
+      <c r="B15" s="121">
         <f>Page1!B13</f>
         <v>0</v>
       </c>
-      <c r="C15" s="125">
+      <c r="C15" s="302">
         <f>Page1!C13</f>
         <v>0</v>
       </c>
       <c r="D15" s="63"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="213"/>
-      <c r="H15" s="213"/>
-      <c r="I15" s="175"/>
-      <c r="J15" s="176"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="196"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="164"/>
       <c r="K15" s="64"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="123">
+      <c r="A16" s="120">
         <f>Page1!A14</f>
         <v>0</v>
       </c>
-      <c r="B16" s="124">
+      <c r="B16" s="121">
         <f>Page1!B14</f>
         <v>0</v>
       </c>
-      <c r="C16" s="125">
+      <c r="C16" s="302">
         <f>Page1!C14</f>
         <v>0</v>
       </c>
       <c r="D16" s="61"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="212"/>
-      <c r="H16" s="212"/>
-      <c r="I16" s="175"/>
-      <c r="J16" s="176"/>
+      <c r="G16" s="195"/>
+      <c r="H16" s="195"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="164"/>
       <c r="K16" s="62"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="123">
+      <c r="A17" s="120">
         <f>Page1!A15</f>
         <v>0</v>
       </c>
-      <c r="B17" s="124">
+      <c r="B17" s="121">
         <f>Page1!B15</f>
         <v>0</v>
       </c>
-      <c r="C17" s="125">
+      <c r="C17" s="302">
         <f>Page1!C15</f>
         <v>0</v>
       </c>
       <c r="D17" s="63"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
-      <c r="G17" s="213"/>
-      <c r="H17" s="213"/>
-      <c r="I17" s="175"/>
-      <c r="J17" s="176"/>
+      <c r="G17" s="196"/>
+      <c r="H17" s="196"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="164"/>
       <c r="K17" s="64"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="123">
+      <c r="A18" s="120">
         <f>Page1!A16</f>
         <v>0</v>
       </c>
-      <c r="B18" s="124">
+      <c r="B18" s="121">
         <f>Page1!B16</f>
         <v>0</v>
       </c>
-      <c r="C18" s="125">
+      <c r="C18" s="302">
         <f>Page1!C16</f>
         <v>0</v>
       </c>
       <c r="D18" s="63"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
-      <c r="G18" s="213"/>
-      <c r="H18" s="213"/>
-      <c r="I18" s="175"/>
-      <c r="J18" s="176"/>
+      <c r="G18" s="196"/>
+      <c r="H18" s="196"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="164"/>
       <c r="K18" s="64"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="123">
+      <c r="A19" s="120">
         <f>Page1!A17</f>
         <v>0</v>
       </c>
-      <c r="B19" s="128">
+      <c r="B19" s="123">
         <f>Page1!B17</f>
         <v>0</v>
       </c>
-      <c r="C19" s="125">
+      <c r="C19" s="302">
         <f>Page1!C17</f>
         <v>0</v>
       </c>
       <c r="D19" s="63"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="213"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="175"/>
-      <c r="J19" s="176"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="196"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="164"/>
       <c r="K19" s="64"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="123">
+      <c r="A20" s="120">
         <f>Page1!A18</f>
         <v>0</v>
       </c>
-      <c r="B20" s="124">
+      <c r="B20" s="121">
         <f>Page1!B18</f>
         <v>0</v>
       </c>
-      <c r="C20" s="125">
+      <c r="C20" s="302">
         <f>Page1!C18</f>
         <v>0</v>
       </c>
       <c r="D20" s="63"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
-      <c r="G20" s="210"/>
-      <c r="H20" s="211"/>
-      <c r="I20" s="175"/>
-      <c r="J20" s="176"/>
+      <c r="G20" s="193"/>
+      <c r="H20" s="194"/>
+      <c r="I20" s="163"/>
+      <c r="J20" s="164"/>
       <c r="K20" s="64"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="129">
+      <c r="A21" s="124">
         <f>Page1!A19</f>
         <v>0</v>
       </c>
-      <c r="B21" s="128">
+      <c r="B21" s="123">
         <f>Page1!B19</f>
         <v>0</v>
       </c>
-      <c r="C21" s="126">
+      <c r="C21" s="303">
         <f>Page1!C19</f>
         <v>0</v>
       </c>
       <c r="D21" s="63"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
-      <c r="G21" s="210"/>
-      <c r="H21" s="211"/>
-      <c r="I21" s="175"/>
-      <c r="J21" s="176"/>
+      <c r="G21" s="193"/>
+      <c r="H21" s="194"/>
+      <c r="I21" s="163"/>
+      <c r="J21" s="164"/>
       <c r="K21" s="64"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="123">
+      <c r="A22" s="120">
         <f>Page1!A20</f>
         <v>0</v>
       </c>
-      <c r="B22" s="124">
+      <c r="B22" s="121">
         <f>Page1!B20</f>
         <v>0</v>
       </c>
-      <c r="C22" s="125">
+      <c r="C22" s="302">
         <f>Page1!C20</f>
         <v>0</v>
       </c>
       <c r="D22" s="63"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
-      <c r="G22" s="210"/>
-      <c r="H22" s="211"/>
-      <c r="I22" s="175"/>
-      <c r="J22" s="176"/>
+      <c r="G22" s="193"/>
+      <c r="H22" s="194"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="164"/>
       <c r="K22" s="64"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="123">
+      <c r="A23" s="120">
         <f>Page1!A21</f>
         <v>0</v>
       </c>
-      <c r="B23" s="124">
+      <c r="B23" s="121">
         <f>Page1!B21</f>
         <v>0</v>
       </c>
-      <c r="C23" s="126">
+      <c r="C23" s="303">
         <f>Page1!C21</f>
         <v>0</v>
       </c>
       <c r="D23" s="63"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="210"/>
-      <c r="H23" s="211"/>
-      <c r="I23" s="175"/>
-      <c r="J23" s="176"/>
+      <c r="G23" s="193"/>
+      <c r="H23" s="194"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="164"/>
       <c r="K23" s="64"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="123">
+      <c r="A24" s="120">
         <f>Page1!A22</f>
         <v>0</v>
       </c>
-      <c r="B24" s="127">
+      <c r="B24" s="122">
         <f>Page1!B22</f>
         <v>0</v>
       </c>
-      <c r="C24" s="126">
+      <c r="C24" s="303">
         <f>Page1!C22</f>
         <v>0</v>
       </c>
       <c r="D24" s="63"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
-      <c r="G24" s="210"/>
-      <c r="H24" s="211"/>
-      <c r="I24" s="175"/>
-      <c r="J24" s="176"/>
+      <c r="G24" s="193"/>
+      <c r="H24" s="194"/>
+      <c r="I24" s="163"/>
+      <c r="J24" s="164"/>
       <c r="K24" s="64"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="123">
+      <c r="A25" s="120">
         <f>Page1!A23</f>
         <v>0</v>
       </c>
-      <c r="B25" s="124">
+      <c r="B25" s="121">
         <f>Page1!B23</f>
         <v>0</v>
       </c>
-      <c r="C25" s="125">
+      <c r="C25" s="302">
         <f>Page1!C23</f>
         <v>0</v>
       </c>
       <c r="D25" s="63"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
-      <c r="G25" s="210"/>
-      <c r="H25" s="211"/>
-      <c r="I25" s="175"/>
-      <c r="J25" s="176"/>
+      <c r="G25" s="193"/>
+      <c r="H25" s="194"/>
+      <c r="I25" s="163"/>
+      <c r="J25" s="164"/>
       <c r="K25" s="64"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="123">
+      <c r="A26" s="120">
         <f>Page1!A24</f>
         <v>0</v>
       </c>
-      <c r="B26" s="124">
+      <c r="B26" s="121">
         <f>Page1!B24</f>
         <v>0</v>
       </c>
-      <c r="C26" s="125">
+      <c r="C26" s="302">
         <f>Page1!C24</f>
         <v>0</v>
       </c>
       <c r="D26" s="63"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
-      <c r="G26" s="210"/>
-      <c r="H26" s="211"/>
-      <c r="I26" s="175"/>
-      <c r="J26" s="176"/>
+      <c r="G26" s="193"/>
+      <c r="H26" s="194"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="164"/>
       <c r="K26" s="64"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="123">
+      <c r="A27" s="120">
         <f>Page1!A25</f>
         <v>0</v>
       </c>
-      <c r="B27" s="124">
+      <c r="B27" s="121">
         <f>Page1!B25</f>
         <v>0</v>
       </c>
-      <c r="C27" s="125">
+      <c r="C27" s="302">
         <f>Page1!C25</f>
         <v>0</v>
       </c>
       <c r="D27" s="63"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
-      <c r="G27" s="210"/>
-      <c r="H27" s="211"/>
-      <c r="I27" s="175"/>
-      <c r="J27" s="176"/>
+      <c r="G27" s="193"/>
+      <c r="H27" s="194"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="164"/>
       <c r="K27" s="64"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="123">
+      <c r="A28" s="120">
         <f>Page1!A26</f>
         <v>0</v>
       </c>
-      <c r="B28" s="124">
+      <c r="B28" s="121">
         <f>Page1!B26</f>
         <v>0</v>
       </c>
-      <c r="C28" s="125">
+      <c r="C28" s="302">
         <f>Page1!C26</f>
         <v>0</v>
       </c>
       <c r="D28" s="63"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="210"/>
-      <c r="H28" s="211"/>
-      <c r="I28" s="175"/>
-      <c r="J28" s="176"/>
+      <c r="G28" s="193"/>
+      <c r="H28" s="194"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="164"/>
       <c r="K28" s="64"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="123">
+      <c r="A29" s="120">
         <f>Page1!A27</f>
         <v>0</v>
       </c>
-      <c r="B29" s="128">
+      <c r="B29" s="123">
         <f>Page1!B27</f>
         <v>0</v>
       </c>
-      <c r="C29" s="125">
+      <c r="C29" s="302">
         <f>Page1!C27</f>
         <v>0</v>
       </c>
       <c r="D29" s="63"/>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="210"/>
-      <c r="H29" s="211"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="176"/>
+      <c r="G29" s="193"/>
+      <c r="H29" s="194"/>
+      <c r="I29" s="163"/>
+      <c r="J29" s="164"/>
       <c r="K29" s="64"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="123">
+      <c r="A30" s="120">
         <f>Page1!A28</f>
         <v>0</v>
       </c>
-      <c r="B30" s="124">
+      <c r="B30" s="121">
         <f>Page1!B28</f>
         <v>0</v>
       </c>
-      <c r="C30" s="125">
+      <c r="C30" s="302">
         <f>Page1!C28</f>
         <v>0</v>
       </c>
       <c r="D30" s="63"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
-      <c r="G30" s="210"/>
-      <c r="H30" s="211"/>
-      <c r="I30" s="175"/>
-      <c r="J30" s="176"/>
+      <c r="G30" s="193"/>
+      <c r="H30" s="194"/>
+      <c r="I30" s="163"/>
+      <c r="J30" s="164"/>
       <c r="K30" s="64"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="129">
+      <c r="A31" s="124">
         <f>Page1!A29</f>
         <v>0</v>
       </c>
-      <c r="B31" s="128">
+      <c r="B31" s="123">
         <f>Page1!B29</f>
         <v>0</v>
       </c>
-      <c r="C31" s="126">
+      <c r="C31" s="303">
         <f>Page1!C29</f>
         <v>0</v>
       </c>
       <c r="D31" s="63"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="210"/>
-      <c r="H31" s="211"/>
-      <c r="I31" s="175"/>
-      <c r="J31" s="176"/>
+      <c r="G31" s="193"/>
+      <c r="H31" s="194"/>
+      <c r="I31" s="163"/>
+      <c r="J31" s="164"/>
       <c r="K31" s="64"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="123">
+      <c r="A32" s="120">
         <f>Page1!A30</f>
         <v>0</v>
       </c>
-      <c r="B32" s="124">
+      <c r="B32" s="121">
         <f>Page1!B30</f>
         <v>0</v>
       </c>
-      <c r="C32" s="125">
+      <c r="C32" s="302">
         <f>Page1!C30</f>
         <v>0</v>
       </c>
       <c r="D32" s="63"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
-      <c r="G32" s="210"/>
-      <c r="H32" s="211"/>
-      <c r="I32" s="175"/>
-      <c r="J32" s="176"/>
+      <c r="G32" s="193"/>
+      <c r="H32" s="194"/>
+      <c r="I32" s="163"/>
+      <c r="J32" s="164"/>
       <c r="K32" s="64"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="123">
+      <c r="A33" s="120">
         <f>Page1!A31</f>
         <v>0</v>
       </c>
-      <c r="B33" s="124">
+      <c r="B33" s="121">
         <f>Page1!B31</f>
         <v>0</v>
       </c>
-      <c r="C33" s="126">
+      <c r="C33" s="303">
         <f>Page1!C31</f>
         <v>0</v>
       </c>
       <c r="D33" s="63"/>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
-      <c r="G33" s="210"/>
-      <c r="H33" s="211"/>
-      <c r="I33" s="175"/>
-      <c r="J33" s="176"/>
+      <c r="G33" s="193"/>
+      <c r="H33" s="194"/>
+      <c r="I33" s="163"/>
+      <c r="J33" s="164"/>
       <c r="K33" s="64"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="123">
+      <c r="A34" s="120">
         <f>Page1!A32</f>
         <v>0</v>
       </c>
-      <c r="B34" s="127">
+      <c r="B34" s="122">
         <f>Page1!B32</f>
         <v>0</v>
       </c>
-      <c r="C34" s="126">
+      <c r="C34" s="303">
         <f>Page1!C32</f>
         <v>0</v>
       </c>
       <c r="D34" s="63"/>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
-      <c r="G34" s="210"/>
-      <c r="H34" s="211"/>
-      <c r="I34" s="175"/>
-      <c r="J34" s="176"/>
+      <c r="G34" s="193"/>
+      <c r="H34" s="194"/>
+      <c r="I34" s="163"/>
+      <c r="J34" s="164"/>
       <c r="K34" s="64"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="123">
+      <c r="A35" s="120">
         <f>Page1!A33</f>
         <v>0</v>
       </c>
-      <c r="B35" s="124">
+      <c r="B35" s="121">
         <f>Page1!B33</f>
         <v>0</v>
       </c>
-      <c r="C35" s="125">
+      <c r="C35" s="302">
         <f>Page1!C33</f>
         <v>0</v>
       </c>
       <c r="D35" s="63"/>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
-      <c r="G35" s="210"/>
-      <c r="H35" s="211"/>
-      <c r="I35" s="175"/>
-      <c r="J35" s="176"/>
+      <c r="G35" s="193"/>
+      <c r="H35" s="194"/>
+      <c r="I35" s="163"/>
+      <c r="J35" s="164"/>
       <c r="K35" s="64"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="123">
+      <c r="A36" s="120">
         <f>Page1!A34</f>
         <v>0</v>
       </c>
-      <c r="B36" s="124">
+      <c r="B36" s="121">
         <f>Page1!B34</f>
         <v>0</v>
       </c>
-      <c r="C36" s="125">
+      <c r="C36" s="302">
         <f>Page1!C34</f>
         <v>0</v>
       </c>
       <c r="D36" s="63"/>
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
-      <c r="G36" s="210"/>
-      <c r="H36" s="211"/>
-      <c r="I36" s="175"/>
-      <c r="J36" s="176"/>
+      <c r="G36" s="193"/>
+      <c r="H36" s="194"/>
+      <c r="I36" s="163"/>
+      <c r="J36" s="164"/>
       <c r="K36" s="64"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="123">
+      <c r="A37" s="120">
         <f>Page1!A35</f>
         <v>0</v>
       </c>
-      <c r="B37" s="124">
+      <c r="B37" s="121">
         <f>Page1!B35</f>
         <v>0</v>
       </c>
-      <c r="C37" s="125">
+      <c r="C37" s="302">
         <f>Page1!C35</f>
         <v>0</v>
       </c>
       <c r="D37" s="63"/>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
-      <c r="G37" s="210"/>
-      <c r="H37" s="211"/>
-      <c r="I37" s="175"/>
-      <c r="J37" s="176"/>
+      <c r="G37" s="193"/>
+      <c r="H37" s="194"/>
+      <c r="I37" s="163"/>
+      <c r="J37" s="164"/>
       <c r="K37" s="64"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="123">
+      <c r="A38" s="120">
         <f>Page1!A36</f>
         <v>0</v>
       </c>
-      <c r="B38" s="124">
+      <c r="B38" s="121">
         <f>Page1!B36</f>
         <v>0</v>
       </c>
-      <c r="C38" s="125">
+      <c r="C38" s="302">
         <f>Page1!C36</f>
         <v>0</v>
       </c>
       <c r="D38" s="63"/>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
-      <c r="G38" s="210"/>
-      <c r="H38" s="211"/>
-      <c r="I38" s="175"/>
-      <c r="J38" s="176"/>
+      <c r="G38" s="193"/>
+      <c r="H38" s="194"/>
+      <c r="I38" s="163"/>
+      <c r="J38" s="164"/>
       <c r="K38" s="64"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="123">
+      <c r="A39" s="120">
         <f>Page1!A37</f>
         <v>0</v>
       </c>
-      <c r="B39" s="124">
+      <c r="B39" s="121">
         <f>Page1!B37</f>
         <v>0</v>
       </c>
-      <c r="C39" s="125">
+      <c r="C39" s="302">
         <f>Page1!C37</f>
         <v>0</v>
       </c>
       <c r="D39" s="63"/>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
-      <c r="G39" s="210"/>
-      <c r="H39" s="211"/>
-      <c r="I39" s="175"/>
-      <c r="J39" s="176"/>
+      <c r="G39" s="193"/>
+      <c r="H39" s="194"/>
+      <c r="I39" s="163"/>
+      <c r="J39" s="164"/>
       <c r="K39" s="64"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="130">
+      <c r="A40" s="125">
         <f>Page1!A38</f>
         <v>0</v>
       </c>
-      <c r="B40" s="131">
+      <c r="B40" s="126">
         <f>Page1!B38</f>
         <v>0</v>
       </c>
-      <c r="C40" s="132">
+      <c r="C40" s="304">
         <f>Page1!C38</f>
         <v>0</v>
       </c>
       <c r="D40" s="63"/>
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
-      <c r="G40" s="213"/>
-      <c r="H40" s="213"/>
-      <c r="I40" s="175"/>
-      <c r="J40" s="176"/>
+      <c r="G40" s="196"/>
+      <c r="H40" s="196"/>
+      <c r="I40" s="163"/>
+      <c r="J40" s="164"/>
       <c r="K40" s="64"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="216" t="s">
+      <c r="A41" s="294" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="217"/>
-      <c r="C41" s="217"/>
-      <c r="D41" s="65" t="e">
+      <c r="B41" s="295"/>
+      <c r="C41" s="295"/>
+      <c r="D41" s="130" t="e">
         <f>AVERAGE(D11:D40)</f>
         <v>#DIV/0!</v>
       </c>
@@ -4746,28 +4724,28 @@
         <f>AVERAGE(F11:F40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="214" t="e">
+      <c r="G41" s="197" t="e">
         <f>AVERAGE(G11:H40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="215"/>
-      <c r="I41" s="177" t="e">
+      <c r="H41" s="198"/>
+      <c r="I41" s="165" t="e">
         <f>AVERAGE(I11:J40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="178"/>
+      <c r="J41" s="166"/>
       <c r="K41" s="37" t="e">
         <f>AVERAGE(K11:K40)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="218" t="s">
+      <c r="A42" s="296" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="219"/>
-      <c r="C42" s="219"/>
-      <c r="D42" s="66">
+      <c r="B42" s="297"/>
+      <c r="C42" s="297"/>
+      <c r="D42" s="129">
         <f>MIN(D11:D40)</f>
         <v>0</v>
       </c>
@@ -4779,50 +4757,50 @@
         <f>MIN(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="225">
+      <c r="G42" s="204">
         <f>MIN(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="226"/>
-      <c r="I42" s="173">
+      <c r="H42" s="205"/>
+      <c r="I42" s="161">
         <f>MIN(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="174"/>
+      <c r="J42" s="162"/>
       <c r="K42" s="40">
         <f>MIN(K11:K40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="183" t="s">
+      <c r="A43" s="298" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="184"/>
-      <c r="C43" s="184"/>
-      <c r="D43" s="67">
+      <c r="B43" s="299"/>
+      <c r="C43" s="299"/>
+      <c r="D43" s="128">
         <f>MAX(D11:D40)</f>
         <v>0</v>
       </c>
-      <c r="E43" s="68">
+      <c r="E43" s="66">
         <f>MAX(E11:E40)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="68">
+      <c r="F43" s="66">
         <f>MAX(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="179">
+      <c r="G43" s="167">
         <f>MAX(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="180"/>
-      <c r="I43" s="181">
+      <c r="H43" s="168"/>
+      <c r="I43" s="169">
         <f>MAX(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="182"/>
-      <c r="K43" s="69">
+      <c r="J43" s="170"/>
+      <c r="K43" s="67">
         <f>MAX(K11:K40)</f>
         <v>0</v>
       </c>
@@ -4831,8 +4809,8 @@
       <c r="A44" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="151"/>
-      <c r="C44" s="151"/>
+      <c r="B44" s="139"/>
+      <c r="C44" s="139"/>
       <c r="D44" s="44" t="s">
         <v>22</v>
       </c>
@@ -4849,8 +4827,8 @@
     </row>
     <row r="45" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="50"/>
-      <c r="B45" s="152"/>
-      <c r="C45" s="152"/>
+      <c r="B45" s="140"/>
+      <c r="C45" s="140"/>
       <c r="D45" s="44"/>
       <c r="F45" s="46"/>
       <c r="G45" s="47"/>
@@ -4859,11 +4837,11 @@
       <c r="J45" s="51"/>
     </row>
     <row r="46" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="134" t="s">
+      <c r="A46" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="134"/>
-      <c r="C46" s="134"/>
+      <c r="B46" s="131"/>
+      <c r="C46" s="131"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="47" t="s">
@@ -4876,11 +4854,11 @@
       <c r="H46" s="44"/>
     </row>
     <row r="47" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="134" t="s">
+      <c r="A47" s="131" t="s">
         <v>130</v>
       </c>
-      <c r="B47" s="134"/>
-      <c r="C47" s="134"/>
+      <c r="B47" s="131"/>
+      <c r="C47" s="131"/>
       <c r="D47" s="44"/>
       <c r="E47" s="44"/>
       <c r="F47" s="44"/>
@@ -4904,34 +4882,34 @@
       <c r="K48" s="54"/>
     </row>
     <row r="51" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I51" s="70"/>
+      <c r="I51" s="68"/>
     </row>
     <row r="52" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I52" s="70"/>
+      <c r="I52" s="68"/>
     </row>
     <row r="53" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I53" s="70"/>
+      <c r="I53" s="68"/>
     </row>
     <row r="54" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I54" s="70"/>
+      <c r="I54" s="68"/>
     </row>
     <row r="55" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I55" s="70"/>
+      <c r="I55" s="68"/>
     </row>
     <row r="56" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I56" s="70"/>
+      <c r="I56" s="68"/>
     </row>
     <row r="57" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I57" s="70"/>
+      <c r="I57" s="68"/>
     </row>
     <row r="58" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I58" s="70"/>
+      <c r="I58" s="68"/>
     </row>
     <row r="59" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I59" s="70"/>
+      <c r="I59" s="68"/>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I60" s="70"/>
+      <c r="I60" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="94">
@@ -5078,46 +5056,46 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="14" style="5" customWidth="1"/>
     <col min="4" max="11" width="21.7109375" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="85"/>
+    <col min="12" max="16384" width="9.140625" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -5138,22 +5116,22 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="162" t="s">
+      <c r="A4" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="163">
+      <c r="B4" s="151">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="220">
+      <c r="C4" s="199">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="209"/>
+      <c r="D4" s="192"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="119">
+      <c r="F4" s="117">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
@@ -5167,25 +5145,25 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="221">
+      <c r="J4" s="200">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="222"/>
+      <c r="K4" s="201"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="166" t="s">
+      <c r="A5" s="154" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="167">
+      <c r="B5" s="155">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="168">
+      <c r="C5" s="156">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="169"/>
+      <c r="D5" s="157"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -5203,747 +5181,747 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="185">
+      <c r="J5" s="171">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="186"/>
+      <c r="K5" s="172"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="227" t="s">
+      <c r="A6" s="206" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="228"/>
-      <c r="C6" s="229"/>
-      <c r="D6" s="230"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="172"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="187"/>
-      <c r="J6" s="188"/>
-      <c r="K6" s="195"/>
+      <c r="B6" s="207"/>
+      <c r="C6" s="207"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="173"/>
+      <c r="J6" s="174"/>
+      <c r="K6" s="181"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="187" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="188"/>
-      <c r="C7" s="188"/>
+      <c r="A7" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="174"/>
+      <c r="C7" s="189"/>
       <c r="D7" s="208" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="231"/>
-      <c r="F7" s="231"/>
-      <c r="G7" s="232"/>
-      <c r="H7" s="195" t="s">
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="209"/>
+      <c r="H7" s="181" t="s">
         <v>126</v>
       </c>
-      <c r="I7" s="189"/>
-      <c r="J7" s="190"/>
-      <c r="K7" s="196"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="182"/>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="189"/>
-      <c r="B8" s="190"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="235" t="s">
+      <c r="A8" s="175"/>
+      <c r="B8" s="300"/>
+      <c r="C8" s="185"/>
+      <c r="D8" s="307" t="s">
         <v>139</v>
       </c>
-      <c r="E8" s="237" t="s">
+      <c r="E8" s="210" t="s">
         <v>140</v>
       </c>
-      <c r="F8" s="237" t="s">
+      <c r="F8" s="210" t="s">
         <v>141</v>
       </c>
-      <c r="G8" s="239" t="s">
+      <c r="G8" s="212" t="s">
         <v>128</v>
       </c>
-      <c r="H8" s="196"/>
-      <c r="I8" s="189"/>
-      <c r="J8" s="190"/>
-      <c r="K8" s="196"/>
+      <c r="H8" s="182"/>
+      <c r="I8" s="175"/>
+      <c r="J8" s="176"/>
+      <c r="K8" s="182"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="189"/>
-      <c r="B9" s="190"/>
-      <c r="C9" s="190"/>
-      <c r="D9" s="236"/>
-      <c r="E9" s="238"/>
-      <c r="F9" s="238"/>
-      <c r="G9" s="240"/>
-      <c r="H9" s="197"/>
-      <c r="I9" s="189"/>
-      <c r="J9" s="190"/>
-      <c r="K9" s="196"/>
+      <c r="A9" s="175"/>
+      <c r="B9" s="300"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="308"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="213"/>
+      <c r="H9" s="183"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="176"/>
+      <c r="K9" s="182"/>
     </row>
     <row r="10" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="120">
+      <c r="A10" s="118">
         <f>Page1!A9</f>
         <v>0</v>
       </c>
-      <c r="B10" s="121">
+      <c r="B10" s="119">
         <f>Page1!B9</f>
         <v>0</v>
       </c>
-      <c r="C10" s="122">
+      <c r="C10" s="301">
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="72"/>
+      <c r="D10" s="70"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="189"/>
-      <c r="J10" s="190"/>
-      <c r="K10" s="196"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="176"/>
+      <c r="K10" s="182"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="123">
+      <c r="A11" s="120">
         <f>Page1!A10</f>
         <v>0</v>
       </c>
-      <c r="B11" s="124">
+      <c r="B11" s="121">
         <f>Page1!B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="125">
+      <c r="C11" s="302">
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="75"/>
+      <c r="D11" s="73"/>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="189"/>
-      <c r="J11" s="190"/>
-      <c r="K11" s="196"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="175"/>
+      <c r="J11" s="176"/>
+      <c r="K11" s="182"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="123">
+      <c r="A12" s="120">
         <f>Page1!A11</f>
         <v>0</v>
       </c>
-      <c r="B12" s="124">
+      <c r="B12" s="121">
         <f>Page1!B11</f>
         <v>0</v>
       </c>
-      <c r="C12" s="126">
+      <c r="C12" s="303">
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="75"/>
+      <c r="D12" s="73"/>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="189"/>
-      <c r="J12" s="190"/>
-      <c r="K12" s="196"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="175"/>
+      <c r="J12" s="176"/>
+      <c r="K12" s="182"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="123">
+      <c r="A13" s="120">
         <f>Page1!A12</f>
         <v>0</v>
       </c>
-      <c r="B13" s="127">
+      <c r="B13" s="122">
         <f>Page1!B12</f>
         <v>0</v>
       </c>
-      <c r="C13" s="126">
+      <c r="C13" s="303">
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="72"/>
+      <c r="D13" s="70"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="189"/>
-      <c r="J13" s="190"/>
-      <c r="K13" s="196"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="176"/>
+      <c r="K13" s="182"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="123">
+      <c r="A14" s="120">
         <f>Page1!A13</f>
         <v>0</v>
       </c>
-      <c r="B14" s="124">
+      <c r="B14" s="121">
         <f>Page1!B13</f>
         <v>0</v>
       </c>
-      <c r="C14" s="125">
+      <c r="C14" s="302">
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="75"/>
+      <c r="D14" s="73"/>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="189"/>
-      <c r="J14" s="190"/>
-      <c r="K14" s="196"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="175"/>
+      <c r="J14" s="176"/>
+      <c r="K14" s="182"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="123">
+      <c r="A15" s="120">
         <f>Page1!A14</f>
         <v>0</v>
       </c>
-      <c r="B15" s="124">
+      <c r="B15" s="121">
         <f>Page1!B14</f>
         <v>0</v>
       </c>
-      <c r="C15" s="125">
+      <c r="C15" s="302">
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="75"/>
+      <c r="D15" s="73"/>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="189"/>
-      <c r="J15" s="190"/>
-      <c r="K15" s="196"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="176"/>
+      <c r="K15" s="182"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="123">
+      <c r="A16" s="120">
         <f>Page1!A15</f>
         <v>0</v>
       </c>
-      <c r="B16" s="124">
+      <c r="B16" s="121">
         <f>Page1!B15</f>
         <v>0</v>
       </c>
-      <c r="C16" s="125">
+      <c r="C16" s="302">
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="75"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="189"/>
-      <c r="J16" s="190"/>
-      <c r="K16" s="196"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="176"/>
+      <c r="K16" s="182"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="123">
+      <c r="A17" s="120">
         <f>Page1!A16</f>
         <v>0</v>
       </c>
-      <c r="B17" s="124">
+      <c r="B17" s="121">
         <f>Page1!B16</f>
         <v>0</v>
       </c>
-      <c r="C17" s="125">
+      <c r="C17" s="302">
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="75"/>
+      <c r="D17" s="73"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="189"/>
-      <c r="J17" s="190"/>
-      <c r="K17" s="196"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="175"/>
+      <c r="J17" s="176"/>
+      <c r="K17" s="182"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="123">
+      <c r="A18" s="120">
         <f>Page1!A17</f>
         <v>0</v>
       </c>
-      <c r="B18" s="128">
+      <c r="B18" s="123">
         <f>Page1!B17</f>
         <v>0</v>
       </c>
-      <c r="C18" s="125">
+      <c r="C18" s="302">
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="75"/>
+      <c r="D18" s="73"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="189"/>
-      <c r="J18" s="190"/>
-      <c r="K18" s="196"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="175"/>
+      <c r="J18" s="176"/>
+      <c r="K18" s="182"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="123">
+      <c r="A19" s="120">
         <f>Page1!A18</f>
         <v>0</v>
       </c>
-      <c r="B19" s="124">
+      <c r="B19" s="121">
         <f>Page1!B18</f>
         <v>0</v>
       </c>
-      <c r="C19" s="125">
+      <c r="C19" s="302">
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="D19" s="75"/>
+      <c r="D19" s="73"/>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="189"/>
-      <c r="J19" s="190"/>
-      <c r="K19" s="196"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="175"/>
+      <c r="J19" s="176"/>
+      <c r="K19" s="182"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="129">
+      <c r="A20" s="124">
         <f>Page1!A19</f>
         <v>0</v>
       </c>
-      <c r="B20" s="128">
+      <c r="B20" s="123">
         <f>Page1!B19</f>
         <v>0</v>
       </c>
-      <c r="C20" s="126">
+      <c r="C20" s="303">
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="75"/>
+      <c r="D20" s="73"/>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="189"/>
-      <c r="J20" s="190"/>
-      <c r="K20" s="196"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="175"/>
+      <c r="J20" s="176"/>
+      <c r="K20" s="182"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="123">
+      <c r="A21" s="120">
         <f>Page1!A20</f>
         <v>0</v>
       </c>
-      <c r="B21" s="124">
+      <c r="B21" s="121">
         <f>Page1!B20</f>
         <v>0</v>
       </c>
-      <c r="C21" s="125">
+      <c r="C21" s="302">
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="75"/>
+      <c r="D21" s="73"/>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="189"/>
-      <c r="J21" s="190"/>
-      <c r="K21" s="196"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="175"/>
+      <c r="J21" s="176"/>
+      <c r="K21" s="182"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="123">
+      <c r="A22" s="120">
         <f>Page1!A21</f>
         <v>0</v>
       </c>
-      <c r="B22" s="124">
+      <c r="B22" s="121">
         <f>Page1!B21</f>
         <v>0</v>
       </c>
-      <c r="C22" s="126">
+      <c r="C22" s="303">
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="75"/>
+      <c r="D22" s="73"/>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="189"/>
-      <c r="J22" s="190"/>
-      <c r="K22" s="196"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="176"/>
+      <c r="K22" s="182"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="123">
+      <c r="A23" s="120">
         <f>Page1!A22</f>
         <v>0</v>
       </c>
-      <c r="B23" s="127">
+      <c r="B23" s="122">
         <f>Page1!B22</f>
         <v>0</v>
       </c>
-      <c r="C23" s="126">
+      <c r="C23" s="303">
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="D23" s="75"/>
+      <c r="D23" s="73"/>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="189"/>
-      <c r="J23" s="190"/>
-      <c r="K23" s="196"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="175"/>
+      <c r="J23" s="176"/>
+      <c r="K23" s="182"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="123">
+      <c r="A24" s="120">
         <f>Page1!A23</f>
         <v>0</v>
       </c>
-      <c r="B24" s="124">
+      <c r="B24" s="121">
         <f>Page1!B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="125">
+      <c r="C24" s="302">
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="75"/>
+      <c r="D24" s="73"/>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="189"/>
-      <c r="J24" s="190"/>
-      <c r="K24" s="196"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="175"/>
+      <c r="J24" s="176"/>
+      <c r="K24" s="182"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="123">
+      <c r="A25" s="120">
         <f>Page1!A24</f>
         <v>0</v>
       </c>
-      <c r="B25" s="124">
+      <c r="B25" s="121">
         <f>Page1!B24</f>
         <v>0</v>
       </c>
-      <c r="C25" s="125">
+      <c r="C25" s="302">
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="D25" s="75"/>
+      <c r="D25" s="73"/>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="189"/>
-      <c r="J25" s="190"/>
-      <c r="K25" s="196"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="175"/>
+      <c r="J25" s="176"/>
+      <c r="K25" s="182"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="123">
+      <c r="A26" s="120">
         <f>Page1!A25</f>
         <v>0</v>
       </c>
-      <c r="B26" s="124">
+      <c r="B26" s="121">
         <f>Page1!B25</f>
         <v>0</v>
       </c>
-      <c r="C26" s="125">
+      <c r="C26" s="302">
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="D26" s="75"/>
+      <c r="D26" s="73"/>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="189"/>
-      <c r="J26" s="190"/>
-      <c r="K26" s="196"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="176"/>
+      <c r="K26" s="182"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="123">
+      <c r="A27" s="120">
         <f>Page1!A26</f>
         <v>0</v>
       </c>
-      <c r="B27" s="124">
+      <c r="B27" s="121">
         <f>Page1!B26</f>
         <v>0</v>
       </c>
-      <c r="C27" s="125">
+      <c r="C27" s="302">
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="D27" s="75"/>
+      <c r="D27" s="73"/>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="189"/>
-      <c r="J27" s="190"/>
-      <c r="K27" s="196"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="175"/>
+      <c r="J27" s="176"/>
+      <c r="K27" s="182"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="123">
+      <c r="A28" s="120">
         <f>Page1!A27</f>
         <v>0</v>
       </c>
-      <c r="B28" s="128">
+      <c r="B28" s="123">
         <f>Page1!B27</f>
         <v>0</v>
       </c>
-      <c r="C28" s="125">
+      <c r="C28" s="302">
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="75"/>
+      <c r="D28" s="73"/>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="189"/>
-      <c r="J28" s="190"/>
-      <c r="K28" s="196"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="175"/>
+      <c r="J28" s="176"/>
+      <c r="K28" s="182"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="123">
+      <c r="A29" s="120">
         <f>Page1!A28</f>
         <v>0</v>
       </c>
-      <c r="B29" s="124">
+      <c r="B29" s="121">
         <f>Page1!B28</f>
         <v>0</v>
       </c>
-      <c r="C29" s="125">
+      <c r="C29" s="302">
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="75"/>
+      <c r="D29" s="73"/>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="189"/>
-      <c r="J29" s="190"/>
-      <c r="K29" s="196"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="176"/>
+      <c r="K29" s="182"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="129">
+      <c r="A30" s="124">
         <f>Page1!A29</f>
         <v>0</v>
       </c>
-      <c r="B30" s="128">
+      <c r="B30" s="123">
         <f>Page1!B29</f>
         <v>0</v>
       </c>
-      <c r="C30" s="126">
+      <c r="C30" s="303">
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="75"/>
+      <c r="D30" s="73"/>
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="189"/>
-      <c r="J30" s="190"/>
-      <c r="K30" s="196"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="175"/>
+      <c r="J30" s="176"/>
+      <c r="K30" s="182"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="123">
+      <c r="A31" s="120">
         <f>Page1!A30</f>
         <v>0</v>
       </c>
-      <c r="B31" s="124">
+      <c r="B31" s="121">
         <f>Page1!B30</f>
         <v>0</v>
       </c>
-      <c r="C31" s="125">
+      <c r="C31" s="302">
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="75"/>
+      <c r="D31" s="73"/>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="189"/>
-      <c r="J31" s="190"/>
-      <c r="K31" s="196"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="175"/>
+      <c r="J31" s="176"/>
+      <c r="K31" s="182"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="123">
+      <c r="A32" s="120">
         <f>Page1!A31</f>
         <v>0</v>
       </c>
-      <c r="B32" s="124">
+      <c r="B32" s="121">
         <f>Page1!B31</f>
         <v>0</v>
       </c>
-      <c r="C32" s="126">
+      <c r="C32" s="303">
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="75"/>
+      <c r="D32" s="73"/>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="189"/>
-      <c r="J32" s="190"/>
-      <c r="K32" s="196"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="175"/>
+      <c r="J32" s="176"/>
+      <c r="K32" s="182"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="123">
+      <c r="A33" s="120">
         <f>Page1!A32</f>
         <v>0</v>
       </c>
-      <c r="B33" s="127">
+      <c r="B33" s="122">
         <f>Page1!B32</f>
         <v>0</v>
       </c>
-      <c r="C33" s="126">
+      <c r="C33" s="303">
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="75"/>
+      <c r="D33" s="73"/>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="189"/>
-      <c r="J33" s="190"/>
-      <c r="K33" s="196"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="175"/>
+      <c r="J33" s="176"/>
+      <c r="K33" s="182"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="123">
+      <c r="A34" s="120">
         <f>Page1!A33</f>
         <v>0</v>
       </c>
-      <c r="B34" s="124">
+      <c r="B34" s="121">
         <f>Page1!B33</f>
         <v>0</v>
       </c>
-      <c r="C34" s="125">
+      <c r="C34" s="302">
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="D34" s="75"/>
+      <c r="D34" s="73"/>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="189"/>
-      <c r="J34" s="190"/>
-      <c r="K34" s="196"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="175"/>
+      <c r="J34" s="176"/>
+      <c r="K34" s="182"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="123">
+      <c r="A35" s="120">
         <f>Page1!A34</f>
         <v>0</v>
       </c>
-      <c r="B35" s="124">
+      <c r="B35" s="121">
         <f>Page1!B34</f>
         <v>0</v>
       </c>
-      <c r="C35" s="125">
+      <c r="C35" s="302">
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="75"/>
+      <c r="D35" s="73"/>
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="189"/>
-      <c r="J35" s="190"/>
-      <c r="K35" s="196"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="175"/>
+      <c r="J35" s="176"/>
+      <c r="K35" s="182"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="123">
+      <c r="A36" s="120">
         <f>Page1!A35</f>
         <v>0</v>
       </c>
-      <c r="B36" s="124">
+      <c r="B36" s="121">
         <f>Page1!B35</f>
         <v>0</v>
       </c>
-      <c r="C36" s="125">
+      <c r="C36" s="302">
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="D36" s="75"/>
+      <c r="D36" s="73"/>
       <c r="E36" s="26"/>
       <c r="F36" s="26"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="189"/>
-      <c r="J36" s="190"/>
-      <c r="K36" s="196"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="175"/>
+      <c r="J36" s="176"/>
+      <c r="K36" s="182"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="123">
+      <c r="A37" s="120">
         <f>Page1!A36</f>
         <v>0</v>
       </c>
-      <c r="B37" s="124">
+      <c r="B37" s="121">
         <f>Page1!B36</f>
         <v>0</v>
       </c>
-      <c r="C37" s="125">
+      <c r="C37" s="302">
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="75"/>
+      <c r="D37" s="73"/>
       <c r="E37" s="26"/>
       <c r="F37" s="26"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="189"/>
-      <c r="J37" s="190"/>
-      <c r="K37" s="196"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="175"/>
+      <c r="J37" s="176"/>
+      <c r="K37" s="182"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="123">
+      <c r="A38" s="120">
         <f>Page1!A37</f>
         <v>0</v>
       </c>
-      <c r="B38" s="124">
+      <c r="B38" s="121">
         <f>Page1!B37</f>
         <v>0</v>
       </c>
-      <c r="C38" s="125">
+      <c r="C38" s="302">
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="D38" s="75"/>
+      <c r="D38" s="73"/>
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="189"/>
-      <c r="J38" s="190"/>
-      <c r="K38" s="196"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="175"/>
+      <c r="J38" s="176"/>
+      <c r="K38" s="182"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="130">
+      <c r="A39" s="125">
         <f>Page1!A38</f>
         <v>0</v>
       </c>
-      <c r="B39" s="131">
+      <c r="B39" s="126">
         <f>Page1!B38</f>
         <v>0</v>
       </c>
-      <c r="C39" s="132">
+      <c r="C39" s="304">
         <f>Page1!C38</f>
         <v>0</v>
       </c>
-      <c r="D39" s="75"/>
+      <c r="D39" s="73"/>
       <c r="E39" s="26"/>
       <c r="F39" s="26"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="189"/>
-      <c r="J39" s="190"/>
-      <c r="K39" s="196"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="175"/>
+      <c r="J39" s="176"/>
+      <c r="K39" s="182"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="233" t="s">
+      <c r="A40" s="305" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="234"/>
-      <c r="C40" s="234"/>
-      <c r="D40" s="78" t="e">
+      <c r="B40" s="306"/>
+      <c r="C40" s="306"/>
+      <c r="D40" s="76" t="e">
         <f>AVERAGE(D10:D39)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5959,21 +5937,21 @@
         <f>AVERAGE(G10:G39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H40" s="79" t="e">
+      <c r="H40" s="77" t="e">
         <f>AVERAGE(H10:H39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="190"/>
-      <c r="J40" s="190"/>
-      <c r="K40" s="196"/>
+      <c r="I40" s="176"/>
+      <c r="J40" s="176"/>
+      <c r="K40" s="182"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="218" t="s">
+      <c r="A41" s="296" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="219"/>
-      <c r="C41" s="219"/>
-      <c r="D41" s="80">
+      <c r="B41" s="297"/>
+      <c r="C41" s="297"/>
+      <c r="D41" s="78">
         <f>MIN(D10:D39)</f>
         <v>0</v>
       </c>
@@ -5989,50 +5967,50 @@
         <f>MIN(G10:G39)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="81">
+      <c r="H41" s="79">
         <f>MIN(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="190"/>
-      <c r="J41" s="190"/>
-      <c r="K41" s="196"/>
+      <c r="I41" s="176"/>
+      <c r="J41" s="176"/>
+      <c r="K41" s="182"/>
     </row>
     <row r="42" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="183" t="s">
+      <c r="A42" s="298" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="184"/>
-      <c r="C42" s="184"/>
-      <c r="D42" s="82">
+      <c r="B42" s="299"/>
+      <c r="C42" s="299"/>
+      <c r="D42" s="80">
         <f>MAX(D10:D39)</f>
         <v>0</v>
       </c>
-      <c r="E42" s="83">
+      <c r="E42" s="81">
         <f>MAX(E10:E39)</f>
         <v>0</v>
       </c>
-      <c r="F42" s="83">
+      <c r="F42" s="81">
         <f>MAX(F10:F39)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="83">
+      <c r="G42" s="81">
         <f>MAX(G10:G39)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="84">
+      <c r="H42" s="82">
         <f>MAX(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I42" s="194"/>
-      <c r="J42" s="194"/>
-      <c r="K42" s="197"/>
+      <c r="I42" s="180"/>
+      <c r="J42" s="180"/>
+      <c r="K42" s="183"/>
     </row>
     <row r="43" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="151"/>
-      <c r="C43" s="151"/>
+      <c r="B43" s="139"/>
+      <c r="C43" s="139"/>
       <c r="D43" s="44" t="s">
         <v>22</v>
       </c>
@@ -6049,8 +6027,8 @@
     </row>
     <row r="44" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50"/>
-      <c r="B44" s="152"/>
-      <c r="C44" s="152"/>
+      <c r="B44" s="140"/>
+      <c r="C44" s="140"/>
       <c r="D44" s="44"/>
       <c r="F44" s="46"/>
       <c r="G44" s="47"/>
@@ -6059,11 +6037,11 @@
       <c r="J44" s="51"/>
     </row>
     <row r="45" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="134" t="s">
+      <c r="A45" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="134"/>
-      <c r="C45" s="134"/>
+      <c r="B45" s="131"/>
+      <c r="C45" s="131"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="47" t="s">
@@ -6076,11 +6054,11 @@
       <c r="H45" s="44"/>
     </row>
     <row r="46" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="134" t="s">
+      <c r="A46" s="131" t="s">
         <v>130</v>
       </c>
-      <c r="B46" s="134"/>
-      <c r="C46" s="134"/>
+      <c r="B46" s="131"/>
+      <c r="C46" s="131"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
@@ -6179,214 +6157,214 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.42578125" style="86" customWidth="1"/>
-    <col min="3" max="5" width="12.85546875" style="86" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="86" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" style="86" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="117"/>
+    <col min="1" max="2" width="21.42578125" style="84" customWidth="1"/>
+    <col min="3" max="5" width="12.85546875" style="84" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="84" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="84" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="115"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="242" t="s">
+    <row r="1" spans="1:7" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="215" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="244"/>
-    </row>
-    <row r="2" spans="1:7" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="89" t="s">
+      <c r="B1" s="216"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="217"/>
+    </row>
+    <row r="2" spans="1:7" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="87" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="253" t="s">
+    <row r="3" spans="1:7" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="226" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="254"/>
-      <c r="C3" s="254"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="254"/>
-      <c r="G3" s="255"/>
-    </row>
-    <row r="4" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="189" t="s">
+      <c r="B3" s="227"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
+      <c r="F3" s="227"/>
+      <c r="G3" s="228"/>
+    </row>
+    <row r="4" spans="1:7" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="175" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="190"/>
-      <c r="C4" s="190"/>
-      <c r="D4" s="190"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="196"/>
-    </row>
-    <row r="5" spans="1:7" s="86" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="245" t="s">
+      <c r="B4" s="176"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="182"/>
+    </row>
+    <row r="5" spans="1:7" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="218" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="246"/>
-      <c r="C5" s="246"/>
-      <c r="D5" s="246"/>
-      <c r="E5" s="246"/>
-      <c r="F5" s="246"/>
-      <c r="G5" s="247"/>
-    </row>
-    <row r="6" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="90" t="s">
+      <c r="B5" s="219"/>
+      <c r="C5" s="219"/>
+      <c r="D5" s="219"/>
+      <c r="E5" s="219"/>
+      <c r="F5" s="219"/>
+      <c r="G5" s="220"/>
+    </row>
+    <row r="6" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="248">
+      <c r="D6" s="221">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="249"/>
-      <c r="F6" s="250" t="s">
+      <c r="E6" s="222"/>
+      <c r="F6" s="223" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="251">
+      <c r="G6" s="224">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="90" t="s">
+    <row r="7" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="92" t="s">
+      <c r="B7" s="92"/>
+      <c r="C7" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="248">
+      <c r="D7" s="221">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="249"/>
-      <c r="F7" s="250"/>
-      <c r="G7" s="252"/>
-    </row>
-    <row r="8" spans="1:7" s="86" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="90" t="s">
+      <c r="E7" s="222"/>
+      <c r="F7" s="223"/>
+      <c r="G7" s="225"/>
+    </row>
+    <row r="8" spans="1:7" s="84" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="93">
+      <c r="B8" s="91">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="250">
+      <c r="D8" s="223">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="250"/>
-      <c r="F8" s="265" t="s">
+      <c r="E8" s="223"/>
+      <c r="F8" s="238" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="251">
+      <c r="G8" s="224">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="96" t="s">
+    <row r="9" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="95">
+      <c r="B9" s="93">
         <f>Page1!G44</f>
         <v>461309100</v>
       </c>
-      <c r="C9" s="265" t="s">
+      <c r="C9" s="238" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="270" t="s">
+      <c r="D9" s="243" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="271"/>
-      <c r="F9" s="266"/>
-      <c r="G9" s="268"/>
-    </row>
-    <row r="10" spans="1:7" s="86" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="97" t="s">
+      <c r="E9" s="244"/>
+      <c r="F9" s="239"/>
+      <c r="G9" s="241"/>
+    </row>
+    <row r="10" spans="1:7" s="84" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="98">
+      <c r="B10" s="96">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C10" s="267"/>
-      <c r="D10" s="272"/>
-      <c r="E10" s="273"/>
-      <c r="F10" s="267"/>
-      <c r="G10" s="269"/>
-    </row>
-    <row r="11" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="256" t="s">
+      <c r="C10" s="240"/>
+      <c r="D10" s="245"/>
+      <c r="E10" s="246"/>
+      <c r="F10" s="240"/>
+      <c r="G10" s="242"/>
+    </row>
+    <row r="11" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="229" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="258" t="s">
+      <c r="B11" s="231" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="260" t="s">
+      <c r="C11" s="233" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="261"/>
-      <c r="E11" s="262"/>
-      <c r="F11" s="258" t="s">
+      <c r="D11" s="234"/>
+      <c r="E11" s="235"/>
+      <c r="F11" s="231" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="263" t="s">
+      <c r="G11" s="236" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="257"/>
-      <c r="B12" s="259"/>
-      <c r="C12" s="99" t="s">
+    <row r="12" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="230"/>
+      <c r="B12" s="232"/>
+      <c r="C12" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="99" t="s">
+      <c r="D12" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="99" t="s">
+      <c r="E12" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="259"/>
-      <c r="G12" s="264"/>
-    </row>
-    <row r="13" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="100" t="s">
+      <c r="F12" s="232"/>
+      <c r="G12" s="237"/>
+    </row>
+    <row r="13" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="102">
+      <c r="C13" s="100">
         <v>17</v>
       </c>
-      <c r="D13" s="102">
+      <c r="D13" s="100">
         <v>18</v>
       </c>
-      <c r="E13" s="102">
+      <c r="E13" s="100">
         <v>20</v>
       </c>
-      <c r="F13" s="103" t="e">
+      <c r="F13" s="101" t="e">
         <f>Page1!D39</f>
         <v>#DIV/0!</v>
       </c>
@@ -6394,169 +6372,169 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="104" t="s">
+    <row r="14" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="105" t="s">
+      <c r="B14" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="106">
+      <c r="C14" s="104">
         <v>18</v>
       </c>
-      <c r="D14" s="106">
+      <c r="D14" s="104">
         <v>23</v>
       </c>
-      <c r="E14" s="106">
+      <c r="E14" s="104">
         <v>28</v>
       </c>
-      <c r="F14" s="107" t="e">
+      <c r="F14" s="105" t="e">
         <f>Page1!E39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="108" t="s">
+      <c r="G14" s="106" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="104" t="s">
+    <row r="15" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="102" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="105" t="s">
+      <c r="B15" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="106">
+      <c r="C15" s="104">
         <v>300</v>
       </c>
-      <c r="D15" s="106" t="s">
+      <c r="D15" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="106" t="s">
+      <c r="E15" s="104" t="s">
         <v>39</v>
       </c>
       <c r="F15" s="39" t="e">
         <f>Page1!K39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="239" t="s">
+      <c r="G15" s="212" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="104" t="s">
+    <row r="16" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="105" t="s">
+      <c r="B16" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="106">
+      <c r="C16" s="104">
         <v>300</v>
       </c>
-      <c r="D16" s="106" t="s">
+      <c r="D16" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="106" t="s">
+      <c r="E16" s="104" t="s">
         <v>39</v>
       </c>
       <c r="F16" s="39" t="e">
         <f>Page2!F41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="274"/>
-    </row>
-    <row r="17" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="104" t="s">
+      <c r="G16" s="247"/>
+    </row>
+    <row r="17" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="105" t="s">
+      <c r="B17" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="106">
+      <c r="C17" s="104">
         <v>900</v>
       </c>
-      <c r="D17" s="106" t="s">
+      <c r="D17" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="106">
+      <c r="E17" s="104">
         <v>1200</v>
       </c>
       <c r="F17" s="39" t="e">
         <f>Page1!I39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="274"/>
-    </row>
-    <row r="18" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="104" t="s">
+      <c r="G17" s="247"/>
+    </row>
+    <row r="18" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="105" t="s">
+      <c r="B18" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="106">
+      <c r="C18" s="104">
         <v>700</v>
       </c>
-      <c r="D18" s="106" t="s">
+      <c r="D18" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="106">
+      <c r="E18" s="104">
         <v>1000</v>
       </c>
       <c r="F18" s="39" t="e">
         <f>Page2!D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="274"/>
-    </row>
-    <row r="19" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="104" t="s">
+      <c r="G18" s="247"/>
+    </row>
+    <row r="19" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="105" t="s">
+      <c r="B19" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="106">
+      <c r="C19" s="104">
         <v>350</v>
       </c>
-      <c r="D19" s="106" t="s">
+      <c r="D19" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="106" t="s">
+      <c r="E19" s="104" t="s">
         <v>39</v>
       </c>
       <c r="F19" s="39" t="e">
         <f>Page1!J39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="274"/>
-    </row>
-    <row r="20" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="104" t="s">
+      <c r="G19" s="247"/>
+    </row>
+    <row r="20" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="105" t="s">
+      <c r="B20" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="106">
+      <c r="C20" s="104">
         <v>400</v>
       </c>
-      <c r="D20" s="106" t="s">
+      <c r="D20" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="106" t="s">
+      <c r="E20" s="104" t="s">
         <v>39</v>
       </c>
       <c r="F20" s="39" t="e">
         <f>Page2!E41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="274"/>
-    </row>
-    <row r="21" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="104" t="s">
+      <c r="G20" s="247"/>
+    </row>
+    <row r="21" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="105" t="s">
+      <c r="B21" s="103" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="38">
@@ -6572,13 +6550,13 @@
         <f>Page1!G39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="274"/>
-    </row>
-    <row r="22" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="104" t="s">
+      <c r="G21" s="247"/>
+    </row>
+    <row r="22" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="105" t="s">
+      <c r="B22" s="103" t="s">
         <v>39</v>
       </c>
       <c r="C22" s="38">
@@ -6594,13 +6572,13 @@
         <f>Page1!H39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="156"/>
-    </row>
-    <row r="23" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="104" t="s">
+      <c r="G22" s="144"/>
+    </row>
+    <row r="23" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="105" t="s">
+      <c r="B23" s="103" t="s">
         <v>81</v>
       </c>
       <c r="C23" s="39">
@@ -6616,18 +6594,18 @@
         <f>Page1!F39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="108" t="s">
+      <c r="G23" s="106" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="104" t="s">
+    <row r="24" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="105" t="s">
+      <c r="B24" s="103" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="106" t="s">
+      <c r="C24" s="104" t="s">
         <v>39</v>
       </c>
       <c r="D24" s="39">
@@ -6642,38 +6620,38 @@
         <f>Page2!I41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="108" t="s">
+      <c r="G24" s="106" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="104" t="s">
+    <row r="25" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="102" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="105" t="s">
+      <c r="B25" s="103" t="s">
         <v>87</v>
       </c>
       <c r="C25" s="39">
         <v>6000</v>
       </c>
-      <c r="D25" s="106" t="s">
+      <c r="D25" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="106" t="s">
+      <c r="E25" s="104" t="s">
         <v>39</v>
       </c>
       <c r="F25" s="39">
         <v>6000</v>
       </c>
-      <c r="G25" s="108" t="s">
+      <c r="G25" s="106" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="110" t="s">
+    <row r="26" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="111" t="s">
+      <c r="B26" s="109" t="s">
         <v>84</v>
       </c>
       <c r="C26" s="56">
@@ -6682,168 +6660,168 @@
       <c r="D26" s="56">
         <v>430</v>
       </c>
-      <c r="E26" s="112">
+      <c r="E26" s="110">
         <v>450</v>
       </c>
-      <c r="F26" s="112" t="e">
+      <c r="F26" s="110" t="e">
         <f>Page2!K41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="109" t="s">
+      <c r="G26" s="107" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="275" t="s">
+    <row r="27" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="248" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="276"/>
-      <c r="C27" s="276"/>
-      <c r="D27" s="276"/>
-      <c r="E27" s="276"/>
-      <c r="F27" s="276"/>
-      <c r="G27" s="277"/>
-    </row>
-    <row r="28" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="278" t="s">
+      <c r="B27" s="249"/>
+      <c r="C27" s="249"/>
+      <c r="D27" s="249"/>
+      <c r="E27" s="249"/>
+      <c r="F27" s="249"/>
+      <c r="G27" s="250"/>
+    </row>
+    <row r="28" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="251" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="279"/>
-      <c r="C28" s="280" t="s">
+      <c r="B28" s="252"/>
+      <c r="C28" s="253" t="s">
         <v>127</v>
       </c>
-      <c r="D28" s="281"/>
-      <c r="E28" s="282"/>
-      <c r="F28" s="113" t="s">
+      <c r="D28" s="254"/>
+      <c r="E28" s="255"/>
+      <c r="F28" s="111" t="s">
         <v>92</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="283" t="s">
+    <row r="29" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="256" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="249"/>
-      <c r="C29" s="284" t="s">
+      <c r="B29" s="222"/>
+      <c r="C29" s="257" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="285"/>
-      <c r="E29" s="286"/>
-      <c r="F29" s="66" t="s">
+      <c r="D29" s="258"/>
+      <c r="E29" s="259"/>
+      <c r="F29" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="108" t="s">
+      <c r="G29" s="106" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="283" t="s">
+    <row r="30" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="256" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="249"/>
-      <c r="C30" s="284" t="s">
+      <c r="B30" s="222"/>
+      <c r="C30" s="257" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="285"/>
-      <c r="E30" s="286"/>
-      <c r="F30" s="66" t="s">
+      <c r="D30" s="258"/>
+      <c r="E30" s="259"/>
+      <c r="F30" s="65" t="s">
         <v>92</v>
       </c>
       <c r="G30" s="18" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="283" t="s">
+    <row r="31" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="256" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="249"/>
-      <c r="C31" s="284" t="s">
+      <c r="B31" s="222"/>
+      <c r="C31" s="257" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="285"/>
-      <c r="E31" s="286"/>
-      <c r="F31" s="66" t="s">
+      <c r="D31" s="258"/>
+      <c r="E31" s="259"/>
+      <c r="F31" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="G31" s="108" t="s">
+      <c r="G31" s="106" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="283" t="s">
+    <row r="32" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="256" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="249"/>
-      <c r="C32" s="284" t="s">
+      <c r="B32" s="222"/>
+      <c r="C32" s="257" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="285"/>
-      <c r="E32" s="286"/>
-      <c r="F32" s="66" t="s">
+      <c r="D32" s="258"/>
+      <c r="E32" s="259"/>
+      <c r="F32" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="G32" s="108" t="s">
+      <c r="G32" s="106" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="283" t="s">
+    <row r="33" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="256" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="249"/>
-      <c r="C33" s="284" t="s">
+      <c r="B33" s="222"/>
+      <c r="C33" s="257" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="285"/>
-      <c r="E33" s="286"/>
-      <c r="F33" s="66" t="s">
+      <c r="D33" s="258"/>
+      <c r="E33" s="259"/>
+      <c r="F33" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="G33" s="108" t="s">
+      <c r="G33" s="106" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="86" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="166" t="s">
+    <row r="34" spans="1:7" s="84" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="154" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="167"/>
-      <c r="C34" s="289" t="s">
+      <c r="B34" s="155"/>
+      <c r="C34" s="262" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="290"/>
-      <c r="E34" s="291"/>
-      <c r="F34" s="114" t="s">
+      <c r="D34" s="263"/>
+      <c r="E34" s="264"/>
+      <c r="F34" s="112" t="s">
         <v>92</v>
       </c>
-      <c r="G34" s="133" t="s">
+      <c r="G34" s="127" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="275" t="s">
+    <row r="35" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="248" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="276"/>
-      <c r="C35" s="276"/>
-      <c r="D35" s="276"/>
-      <c r="E35" s="276"/>
-      <c r="F35" s="276"/>
-      <c r="G35" s="277"/>
-    </row>
-    <row r="36" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="162" t="s">
+      <c r="B35" s="249"/>
+      <c r="C35" s="249"/>
+      <c r="D35" s="249"/>
+      <c r="E35" s="249"/>
+      <c r="F35" s="249"/>
+      <c r="G35" s="250"/>
+    </row>
+    <row r="36" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="150" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="163"/>
-      <c r="C36" s="287" t="s">
+      <c r="B36" s="151"/>
+      <c r="C36" s="260" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="288"/>
-      <c r="E36" s="163"/>
+      <c r="D36" s="261"/>
+      <c r="E36" s="151"/>
       <c r="F36" s="10" t="s">
         <v>92</v>
       </c>
@@ -6851,125 +6829,125 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="278" t="s">
+    <row r="37" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="251" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="279"/>
-      <c r="C37" s="248" t="s">
+      <c r="B37" s="252"/>
+      <c r="C37" s="221" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="292"/>
-      <c r="E37" s="249"/>
-      <c r="F37" s="106" t="s">
+      <c r="D37" s="265"/>
+      <c r="E37" s="222"/>
+      <c r="F37" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="G37" s="108" t="s">
+      <c r="G37" s="106" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="283" t="s">
+    <row r="38" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="256" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="249"/>
-      <c r="C38" s="248" t="s">
+      <c r="B38" s="222"/>
+      <c r="C38" s="221" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="292"/>
-      <c r="E38" s="249"/>
-      <c r="F38" s="106" t="s">
+      <c r="D38" s="265"/>
+      <c r="E38" s="222"/>
+      <c r="F38" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="G38" s="108" t="s">
+      <c r="G38" s="106" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="166" t="s">
+    <row r="39" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="154" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="167"/>
-      <c r="C39" s="293" t="s">
+      <c r="B39" s="155"/>
+      <c r="C39" s="266" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="294"/>
-      <c r="E39" s="167"/>
+      <c r="D39" s="267"/>
+      <c r="E39" s="155"/>
       <c r="F39" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G39" s="109" t="s">
+      <c r="G39" s="107" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="86" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="297" t="s">
+    <row r="40" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="270" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="298"/>
-      <c r="C40" s="299" t="s">
+      <c r="B40" s="271"/>
+      <c r="C40" s="272" t="s">
         <v>134</v>
       </c>
-      <c r="D40" s="300"/>
-      <c r="E40" s="301"/>
-      <c r="F40" s="299" t="s">
+      <c r="D40" s="273"/>
+      <c r="E40" s="274"/>
+      <c r="F40" s="272" t="s">
         <v>135</v>
       </c>
-      <c r="G40" s="301"/>
-    </row>
-    <row r="41" spans="1:7" s="86" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="302"/>
-      <c r="B41" s="303"/>
-      <c r="C41" s="306"/>
-      <c r="D41" s="307"/>
-      <c r="E41" s="308"/>
-      <c r="F41" s="306"/>
-      <c r="G41" s="308"/>
-    </row>
-    <row r="42" spans="1:7" s="86" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="304"/>
-      <c r="B42" s="305"/>
-      <c r="C42" s="309" t="s">
+      <c r="G40" s="274"/>
+    </row>
+    <row r="41" spans="1:7" s="84" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="275"/>
+      <c r="B41" s="276"/>
+      <c r="C41" s="279"/>
+      <c r="D41" s="280"/>
+      <c r="E41" s="281"/>
+      <c r="F41" s="279"/>
+      <c r="G41" s="281"/>
+    </row>
+    <row r="42" spans="1:7" s="84" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="277"/>
+      <c r="B42" s="278"/>
+      <c r="C42" s="282" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="310"/>
-      <c r="E42" s="311"/>
-      <c r="F42" s="309" t="s">
+      <c r="D42" s="283"/>
+      <c r="E42" s="284"/>
+      <c r="F42" s="282" t="s">
         <v>136</v>
       </c>
-      <c r="G42" s="311"/>
+      <c r="G42" s="284"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="115"/>
-      <c r="B43" s="115"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="295"/>
-      <c r="F43" s="295"/>
-      <c r="G43" s="295"/>
+      <c r="A43" s="113"/>
+      <c r="B43" s="113"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="268"/>
+      <c r="F43" s="268"/>
+      <c r="G43" s="268"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="B44" s="116"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="296"/>
-      <c r="F44" s="296"/>
-      <c r="G44" s="296"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="269"/>
+      <c r="F44" s="269"/>
+      <c r="G44" s="269"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="241" t="s">
+      <c r="A46" s="214" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="241"/>
+      <c r="B46" s="214"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="241" t="s">
+      <c r="A47" s="214" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="241"/>
+      <c r="B47" s="214"/>
     </row>
   </sheetData>
   <mergeCells count="55">
@@ -7029,8 +7007,8 @@
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="D8:E8"/>
   </mergeCells>
-  <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.78740157480314965" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="84" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/backend/templates/UC-18gsm-250W-BFQR.xlsx
+++ b/backend/templates/UC-18gsm-250W-BFQR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C56E9E-81D9-4CFA-BF03-5238FC943DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C50027-5736-4CEA-9D7E-E57E8477ABFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1430,7 +1430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="309">
+  <cellXfs count="313">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1645,9 +1645,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1759,9 +1756,6 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1771,9 +1765,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1787,12 +1778,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1847,6 +1832,90 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1862,13 +1931,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1877,90 +1967,141 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1975,115 +2116,22 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2092,22 +2140,178 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2131,18 +2335,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2182,217 +2377,34 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2967,42 +2979,42 @@
   <cols>
     <col min="1" max="3" width="14" style="5" customWidth="1"/>
     <col min="4" max="11" width="21.7109375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="83" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="83"/>
-    <col min="14" max="14" width="9.42578125" style="83" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="83"/>
+    <col min="12" max="12" width="10.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="82"/>
+    <col min="14" max="14" width="9.42578125" style="82" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="82"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -3023,12 +3035,12 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:13" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="151"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="153"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="143"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
@@ -3040,19 +3052,19 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="145"/>
-      <c r="K4" s="146"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="136"/>
       <c r="M4" s="45" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="155"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="157"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="147"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -3064,64 +3076,64 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="147"/>
-      <c r="K5" s="148"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="138"/>
     </row>
     <row r="6" spans="1:13" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="132" t="s">
+      <c r="A6" s="153" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="133"/>
-      <c r="C6" s="134"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="155"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="G6" s="141"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="143"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="151"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="132"/>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="135" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136" t="s">
+      <c r="A7" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="136" t="s">
+      <c r="E7" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="136" t="s">
+      <c r="F7" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="158" t="s">
+      <c r="G7" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="158" t="s">
+      <c r="H7" s="148" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="136" t="s">
+      <c r="I7" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="136"/>
-      <c r="K7" s="144"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="134"/>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="137"/>
-      <c r="B8" s="138"/>
-      <c r="C8" s="138"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138" t="s">
+      <c r="A8" s="157"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="138"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="159"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
       <c r="I8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3523,11 +3535,11 @@
       <c r="K38" s="28"/>
     </row>
     <row r="39" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="285" t="s">
+      <c r="A39" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="286"/>
-      <c r="C39" s="287"/>
+      <c r="B39" s="165"/>
+      <c r="C39" s="166"/>
       <c r="D39" s="35" t="e">
         <f t="shared" ref="D39:K39" si="0">AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
@@ -3562,11 +3574,11 @@
       </c>
     </row>
     <row r="40" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="288" t="s">
+      <c r="A40" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="289"/>
-      <c r="C40" s="290"/>
+      <c r="B40" s="162"/>
+      <c r="C40" s="163"/>
       <c r="D40" s="38">
         <f t="shared" ref="D40:K40" si="1">MIN(D9:D38)</f>
         <v>0</v>
@@ -3601,11 +3613,11 @@
       </c>
     </row>
     <row r="41" spans="1:14" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="291" t="s">
+      <c r="A41" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="292"/>
-      <c r="C41" s="293"/>
+      <c r="B41" s="159"/>
+      <c r="C41" s="160"/>
       <c r="D41" s="41">
         <f t="shared" ref="D41:K41" si="2">MAX(D9:D38)</f>
         <v>0</v>
@@ -3646,8 +3658,8 @@
       <c r="A42" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="139"/>
-      <c r="C42" s="139"/>
+      <c r="B42" s="167"/>
+      <c r="C42" s="167"/>
       <c r="D42" s="44" t="s">
         <v>22</v>
       </c>
@@ -3664,8 +3676,8 @@
     </row>
     <row r="43" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="50"/>
-      <c r="B43" s="140"/>
-      <c r="C43" s="140"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168"/>
       <c r="D43" s="44"/>
       <c r="F43" s="46"/>
       <c r="G43" s="47"/>
@@ -3674,11 +3686,11 @@
       <c r="J43" s="51"/>
     </row>
     <row r="44" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="131" t="s">
+      <c r="A44" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="131"/>
-      <c r="C44" s="131"/>
+      <c r="B44" s="152"/>
+      <c r="C44" s="152"/>
       <c r="D44" s="44"/>
       <c r="E44" s="44"/>
       <c r="F44" s="47" t="s">
@@ -3690,11 +3702,11 @@
       <c r="H44" s="44"/>
     </row>
     <row r="45" spans="1:14" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="131" t="s">
+      <c r="A45" s="152" t="s">
         <v>130</v>
       </c>
-      <c r="B45" s="131"/>
-      <c r="C45" s="131"/>
+      <c r="B45" s="152"/>
+      <c r="C45" s="152"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="44"/>
@@ -3736,6 +3748,15 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="25">
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="J4:K4"/>
@@ -3752,15 +3773,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="B43:C43"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D9:D41">
@@ -3829,39 +3841,39 @@
   <cols>
     <col min="1" max="3" width="14" style="5" customWidth="1"/>
     <col min="4" max="11" width="21.7109375" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="83"/>
+    <col min="12" max="16384" width="9.140625" style="82"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -3882,22 +3894,22 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="151">
+      <c r="B4" s="141">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="199">
+      <c r="C4" s="173">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="192"/>
+      <c r="D4" s="174"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="117">
+      <c r="F4" s="112">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
@@ -3911,25 +3923,25 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="200">
+      <c r="J4" s="175">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="201"/>
+      <c r="K4" s="176"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="155">
+      <c r="B5" s="145">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="156">
+      <c r="C5" s="146">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="157"/>
+      <c r="D5" s="147"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -3947,772 +3959,772 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="171">
+      <c r="J5" s="191">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="172"/>
+      <c r="K5" s="192"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="190" t="s">
+      <c r="A6" s="209" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="191"/>
-      <c r="C6" s="191"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="174"/>
-      <c r="F6" s="189"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="189"/>
-      <c r="I6" s="187"/>
-      <c r="J6" s="188"/>
+      <c r="B6" s="210"/>
+      <c r="C6" s="210"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="181"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="207"/>
+      <c r="J6" s="208"/>
       <c r="K6" s="55"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="174"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="208" t="s">
+      <c r="A7" s="193" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="194"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="211" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="174"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="177" t="s">
+      <c r="E7" s="194"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="181" t="s">
         <v>125</v>
       </c>
-      <c r="H7" s="174"/>
-      <c r="I7" s="177" t="s">
+      <c r="H7" s="194"/>
+      <c r="I7" s="181" t="s">
         <v>132</v>
       </c>
-      <c r="J7" s="189"/>
-      <c r="K7" s="181" t="s">
+      <c r="J7" s="182"/>
+      <c r="K7" s="202" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="175"/>
-      <c r="B8" s="300"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="300" t="s">
+      <c r="A8" s="195"/>
+      <c r="B8" s="196"/>
+      <c r="C8" s="197"/>
+      <c r="D8" s="196" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="184" t="s">
+      <c r="E8" s="205" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="185" t="s">
+      <c r="F8" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="178"/>
-      <c r="H8" s="176"/>
-      <c r="I8" s="178" t="s">
+      <c r="G8" s="198"/>
+      <c r="H8" s="199"/>
+      <c r="I8" s="198" t="s">
         <v>133</v>
       </c>
-      <c r="J8" s="185"/>
-      <c r="K8" s="182"/>
+      <c r="J8" s="197"/>
+      <c r="K8" s="203"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="175"/>
-      <c r="B9" s="300"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="300"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="176"/>
+      <c r="A9" s="195"/>
+      <c r="B9" s="196"/>
+      <c r="C9" s="197"/>
+      <c r="D9" s="196"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="197"/>
+      <c r="G9" s="198"/>
+      <c r="H9" s="199"/>
       <c r="I9" s="57" t="s">
         <v>123</v>
       </c>
       <c r="J9" s="58">
         <v>250</v>
       </c>
-      <c r="K9" s="182"/>
+      <c r="K9" s="203"/>
     </row>
     <row r="10" spans="1:11" s="5" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="175"/>
-      <c r="B10" s="300"/>
-      <c r="C10" s="185"/>
-      <c r="D10" s="180"/>
-      <c r="E10" s="159"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="180"/>
+      <c r="A10" s="195"/>
+      <c r="B10" s="196"/>
+      <c r="C10" s="197"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="206"/>
+      <c r="G10" s="200"/>
+      <c r="H10" s="201"/>
       <c r="I10" s="59" t="s">
         <v>124</v>
       </c>
       <c r="J10" s="60">
         <v>253</v>
       </c>
-      <c r="K10" s="183"/>
+      <c r="K10" s="204"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="118">
+      <c r="A11" s="113">
         <f>Page1!A9</f>
         <v>0</v>
       </c>
-      <c r="B11" s="119">
+      <c r="B11" s="114">
         <f>Page1!B9</f>
         <v>0</v>
       </c>
-      <c r="C11" s="301">
+      <c r="C11" s="126">
         <f>Page1!C9</f>
         <v>0</v>
       </c>
       <c r="D11" s="61"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="195"/>
-      <c r="H11" s="195"/>
-      <c r="I11" s="202"/>
-      <c r="J11" s="203"/>
+      <c r="G11" s="190"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="177"/>
+      <c r="J11" s="178"/>
       <c r="K11" s="62"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="120">
+      <c r="A12" s="115">
         <f>Page1!A10</f>
         <v>0</v>
       </c>
-      <c r="B12" s="121">
+      <c r="B12" s="116">
         <f>Page1!B10</f>
         <v>0</v>
       </c>
-      <c r="C12" s="302">
+      <c r="C12" s="127">
         <f>Page1!C10</f>
         <v>0</v>
       </c>
       <c r="D12" s="63"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="196"/>
-      <c r="H12" s="196"/>
-      <c r="I12" s="163"/>
-      <c r="J12" s="164"/>
+      <c r="G12" s="189"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="179"/>
+      <c r="J12" s="180"/>
       <c r="K12" s="64"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="120">
+      <c r="A13" s="115">
         <f>Page1!A11</f>
         <v>0</v>
       </c>
-      <c r="B13" s="121">
+      <c r="B13" s="116">
         <f>Page1!B11</f>
         <v>0</v>
       </c>
-      <c r="C13" s="303">
+      <c r="C13" s="128">
         <f>Page1!C11</f>
         <v>0</v>
       </c>
       <c r="D13" s="63"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="196"/>
-      <c r="H13" s="196"/>
-      <c r="I13" s="163"/>
-      <c r="J13" s="164"/>
+      <c r="G13" s="189"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="179"/>
+      <c r="J13" s="180"/>
       <c r="K13" s="64"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="120">
+      <c r="A14" s="115">
         <f>Page1!A12</f>
         <v>0</v>
       </c>
-      <c r="B14" s="122">
+      <c r="B14" s="117">
         <f>Page1!B12</f>
         <v>0</v>
       </c>
-      <c r="C14" s="303">
+      <c r="C14" s="128">
         <f>Page1!C12</f>
         <v>0</v>
       </c>
       <c r="D14" s="63"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="196"/>
-      <c r="H14" s="196"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="164"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="179"/>
+      <c r="J14" s="180"/>
       <c r="K14" s="64"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="120">
+      <c r="A15" s="115">
         <f>Page1!A13</f>
         <v>0</v>
       </c>
-      <c r="B15" s="121">
+      <c r="B15" s="116">
         <f>Page1!B13</f>
         <v>0</v>
       </c>
-      <c r="C15" s="302">
+      <c r="C15" s="127">
         <f>Page1!C13</f>
         <v>0</v>
       </c>
       <c r="D15" s="63"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="196"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="164"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="189"/>
+      <c r="I15" s="179"/>
+      <c r="J15" s="180"/>
       <c r="K15" s="64"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="120">
+      <c r="A16" s="115">
         <f>Page1!A14</f>
         <v>0</v>
       </c>
-      <c r="B16" s="121">
+      <c r="B16" s="116">
         <f>Page1!B14</f>
         <v>0</v>
       </c>
-      <c r="C16" s="302">
+      <c r="C16" s="127">
         <f>Page1!C14</f>
         <v>0</v>
       </c>
       <c r="D16" s="61"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="195"/>
-      <c r="H16" s="195"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="164"/>
+      <c r="G16" s="190"/>
+      <c r="H16" s="190"/>
+      <c r="I16" s="179"/>
+      <c r="J16" s="180"/>
       <c r="K16" s="62"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="120">
+      <c r="A17" s="115">
         <f>Page1!A15</f>
         <v>0</v>
       </c>
-      <c r="B17" s="121">
+      <c r="B17" s="116">
         <f>Page1!B15</f>
         <v>0</v>
       </c>
-      <c r="C17" s="302">
+      <c r="C17" s="127">
         <f>Page1!C15</f>
         <v>0</v>
       </c>
       <c r="D17" s="63"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
-      <c r="G17" s="196"/>
-      <c r="H17" s="196"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="164"/>
+      <c r="G17" s="189"/>
+      <c r="H17" s="189"/>
+      <c r="I17" s="179"/>
+      <c r="J17" s="180"/>
       <c r="K17" s="64"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="120">
+      <c r="A18" s="115">
         <f>Page1!A16</f>
         <v>0</v>
       </c>
-      <c r="B18" s="121">
+      <c r="B18" s="116">
         <f>Page1!B16</f>
         <v>0</v>
       </c>
-      <c r="C18" s="302">
+      <c r="C18" s="127">
         <f>Page1!C16</f>
         <v>0</v>
       </c>
       <c r="D18" s="63"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="196"/>
-      <c r="I18" s="163"/>
-      <c r="J18" s="164"/>
+      <c r="G18" s="189"/>
+      <c r="H18" s="189"/>
+      <c r="I18" s="179"/>
+      <c r="J18" s="180"/>
       <c r="K18" s="64"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="120">
+      <c r="A19" s="115">
         <f>Page1!A17</f>
         <v>0</v>
       </c>
-      <c r="B19" s="123">
+      <c r="B19" s="118">
         <f>Page1!B17</f>
         <v>0</v>
       </c>
-      <c r="C19" s="302">
+      <c r="C19" s="127">
         <f>Page1!C17</f>
         <v>0</v>
       </c>
       <c r="D19" s="63"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="196"/>
-      <c r="I19" s="163"/>
-      <c r="J19" s="164"/>
+      <c r="G19" s="189"/>
+      <c r="H19" s="189"/>
+      <c r="I19" s="179"/>
+      <c r="J19" s="180"/>
       <c r="K19" s="64"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="120">
+      <c r="A20" s="115">
         <f>Page1!A18</f>
         <v>0</v>
       </c>
-      <c r="B20" s="121">
+      <c r="B20" s="116">
         <f>Page1!B18</f>
         <v>0</v>
       </c>
-      <c r="C20" s="302">
+      <c r="C20" s="127">
         <f>Page1!C18</f>
         <v>0</v>
       </c>
       <c r="D20" s="63"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
-      <c r="G20" s="193"/>
-      <c r="H20" s="194"/>
-      <c r="I20" s="163"/>
-      <c r="J20" s="164"/>
+      <c r="G20" s="185"/>
+      <c r="H20" s="186"/>
+      <c r="I20" s="179"/>
+      <c r="J20" s="180"/>
       <c r="K20" s="64"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="124">
+      <c r="A21" s="119">
         <f>Page1!A19</f>
         <v>0</v>
       </c>
-      <c r="B21" s="123">
+      <c r="B21" s="118">
         <f>Page1!B19</f>
         <v>0</v>
       </c>
-      <c r="C21" s="303">
+      <c r="C21" s="128">
         <f>Page1!C19</f>
         <v>0</v>
       </c>
       <c r="D21" s="63"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
-      <c r="G21" s="193"/>
-      <c r="H21" s="194"/>
-      <c r="I21" s="163"/>
-      <c r="J21" s="164"/>
+      <c r="G21" s="185"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="179"/>
+      <c r="J21" s="180"/>
       <c r="K21" s="64"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="120">
+      <c r="A22" s="115">
         <f>Page1!A20</f>
         <v>0</v>
       </c>
-      <c r="B22" s="121">
+      <c r="B22" s="116">
         <f>Page1!B20</f>
         <v>0</v>
       </c>
-      <c r="C22" s="302">
+      <c r="C22" s="127">
         <f>Page1!C20</f>
         <v>0</v>
       </c>
       <c r="D22" s="63"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
-      <c r="G22" s="193"/>
-      <c r="H22" s="194"/>
-      <c r="I22" s="163"/>
-      <c r="J22" s="164"/>
+      <c r="G22" s="185"/>
+      <c r="H22" s="186"/>
+      <c r="I22" s="179"/>
+      <c r="J22" s="180"/>
       <c r="K22" s="64"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="120">
+      <c r="A23" s="115">
         <f>Page1!A21</f>
         <v>0</v>
       </c>
-      <c r="B23" s="121">
+      <c r="B23" s="116">
         <f>Page1!B21</f>
         <v>0</v>
       </c>
-      <c r="C23" s="303">
+      <c r="C23" s="128">
         <f>Page1!C21</f>
         <v>0</v>
       </c>
       <c r="D23" s="63"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="193"/>
-      <c r="H23" s="194"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="164"/>
+      <c r="G23" s="185"/>
+      <c r="H23" s="186"/>
+      <c r="I23" s="179"/>
+      <c r="J23" s="180"/>
       <c r="K23" s="64"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="120">
+      <c r="A24" s="115">
         <f>Page1!A22</f>
         <v>0</v>
       </c>
-      <c r="B24" s="122">
+      <c r="B24" s="117">
         <f>Page1!B22</f>
         <v>0</v>
       </c>
-      <c r="C24" s="303">
+      <c r="C24" s="128">
         <f>Page1!C22</f>
         <v>0</v>
       </c>
       <c r="D24" s="63"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
-      <c r="G24" s="193"/>
-      <c r="H24" s="194"/>
-      <c r="I24" s="163"/>
-      <c r="J24" s="164"/>
+      <c r="G24" s="185"/>
+      <c r="H24" s="186"/>
+      <c r="I24" s="179"/>
+      <c r="J24" s="180"/>
       <c r="K24" s="64"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="120">
+      <c r="A25" s="115">
         <f>Page1!A23</f>
         <v>0</v>
       </c>
-      <c r="B25" s="121">
+      <c r="B25" s="116">
         <f>Page1!B23</f>
         <v>0</v>
       </c>
-      <c r="C25" s="302">
+      <c r="C25" s="127">
         <f>Page1!C23</f>
         <v>0</v>
       </c>
       <c r="D25" s="63"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
-      <c r="G25" s="193"/>
-      <c r="H25" s="194"/>
-      <c r="I25" s="163"/>
-      <c r="J25" s="164"/>
+      <c r="G25" s="185"/>
+      <c r="H25" s="186"/>
+      <c r="I25" s="179"/>
+      <c r="J25" s="180"/>
       <c r="K25" s="64"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="120">
+      <c r="A26" s="115">
         <f>Page1!A24</f>
         <v>0</v>
       </c>
-      <c r="B26" s="121">
+      <c r="B26" s="116">
         <f>Page1!B24</f>
         <v>0</v>
       </c>
-      <c r="C26" s="302">
+      <c r="C26" s="127">
         <f>Page1!C24</f>
         <v>0</v>
       </c>
       <c r="D26" s="63"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
-      <c r="G26" s="193"/>
-      <c r="H26" s="194"/>
-      <c r="I26" s="163"/>
-      <c r="J26" s="164"/>
+      <c r="G26" s="185"/>
+      <c r="H26" s="186"/>
+      <c r="I26" s="179"/>
+      <c r="J26" s="180"/>
       <c r="K26" s="64"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="120">
+      <c r="A27" s="115">
         <f>Page1!A25</f>
         <v>0</v>
       </c>
-      <c r="B27" s="121">
+      <c r="B27" s="116">
         <f>Page1!B25</f>
         <v>0</v>
       </c>
-      <c r="C27" s="302">
+      <c r="C27" s="127">
         <f>Page1!C25</f>
         <v>0</v>
       </c>
       <c r="D27" s="63"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
-      <c r="G27" s="193"/>
-      <c r="H27" s="194"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="164"/>
+      <c r="G27" s="185"/>
+      <c r="H27" s="186"/>
+      <c r="I27" s="179"/>
+      <c r="J27" s="180"/>
       <c r="K27" s="64"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="120">
+      <c r="A28" s="115">
         <f>Page1!A26</f>
         <v>0</v>
       </c>
-      <c r="B28" s="121">
+      <c r="B28" s="116">
         <f>Page1!B26</f>
         <v>0</v>
       </c>
-      <c r="C28" s="302">
+      <c r="C28" s="127">
         <f>Page1!C26</f>
         <v>0</v>
       </c>
       <c r="D28" s="63"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="194"/>
-      <c r="I28" s="163"/>
-      <c r="J28" s="164"/>
+      <c r="G28" s="185"/>
+      <c r="H28" s="186"/>
+      <c r="I28" s="179"/>
+      <c r="J28" s="180"/>
       <c r="K28" s="64"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="120">
+      <c r="A29" s="115">
         <f>Page1!A27</f>
         <v>0</v>
       </c>
-      <c r="B29" s="123">
+      <c r="B29" s="118">
         <f>Page1!B27</f>
         <v>0</v>
       </c>
-      <c r="C29" s="302">
+      <c r="C29" s="127">
         <f>Page1!C27</f>
         <v>0</v>
       </c>
       <c r="D29" s="63"/>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="193"/>
-      <c r="H29" s="194"/>
-      <c r="I29" s="163"/>
-      <c r="J29" s="164"/>
+      <c r="G29" s="185"/>
+      <c r="H29" s="186"/>
+      <c r="I29" s="179"/>
+      <c r="J29" s="180"/>
       <c r="K29" s="64"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="120">
+      <c r="A30" s="115">
         <f>Page1!A28</f>
         <v>0</v>
       </c>
-      <c r="B30" s="121">
+      <c r="B30" s="116">
         <f>Page1!B28</f>
         <v>0</v>
       </c>
-      <c r="C30" s="302">
+      <c r="C30" s="127">
         <f>Page1!C28</f>
         <v>0</v>
       </c>
       <c r="D30" s="63"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
-      <c r="G30" s="193"/>
-      <c r="H30" s="194"/>
-      <c r="I30" s="163"/>
-      <c r="J30" s="164"/>
+      <c r="G30" s="185"/>
+      <c r="H30" s="186"/>
+      <c r="I30" s="179"/>
+      <c r="J30" s="180"/>
       <c r="K30" s="64"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="124">
+      <c r="A31" s="119">
         <f>Page1!A29</f>
         <v>0</v>
       </c>
-      <c r="B31" s="123">
+      <c r="B31" s="118">
         <f>Page1!B29</f>
         <v>0</v>
       </c>
-      <c r="C31" s="303">
+      <c r="C31" s="128">
         <f>Page1!C29</f>
         <v>0</v>
       </c>
       <c r="D31" s="63"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="193"/>
-      <c r="H31" s="194"/>
-      <c r="I31" s="163"/>
-      <c r="J31" s="164"/>
+      <c r="G31" s="185"/>
+      <c r="H31" s="186"/>
+      <c r="I31" s="179"/>
+      <c r="J31" s="180"/>
       <c r="K31" s="64"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="120">
+      <c r="A32" s="115">
         <f>Page1!A30</f>
         <v>0</v>
       </c>
-      <c r="B32" s="121">
+      <c r="B32" s="116">
         <f>Page1!B30</f>
         <v>0</v>
       </c>
-      <c r="C32" s="302">
+      <c r="C32" s="127">
         <f>Page1!C30</f>
         <v>0</v>
       </c>
       <c r="D32" s="63"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
-      <c r="G32" s="193"/>
-      <c r="H32" s="194"/>
-      <c r="I32" s="163"/>
-      <c r="J32" s="164"/>
+      <c r="G32" s="185"/>
+      <c r="H32" s="186"/>
+      <c r="I32" s="179"/>
+      <c r="J32" s="180"/>
       <c r="K32" s="64"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="120">
+      <c r="A33" s="115">
         <f>Page1!A31</f>
         <v>0</v>
       </c>
-      <c r="B33" s="121">
+      <c r="B33" s="116">
         <f>Page1!B31</f>
         <v>0</v>
       </c>
-      <c r="C33" s="303">
+      <c r="C33" s="128">
         <f>Page1!C31</f>
         <v>0</v>
       </c>
       <c r="D33" s="63"/>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
-      <c r="G33" s="193"/>
-      <c r="H33" s="194"/>
-      <c r="I33" s="163"/>
-      <c r="J33" s="164"/>
+      <c r="G33" s="185"/>
+      <c r="H33" s="186"/>
+      <c r="I33" s="179"/>
+      <c r="J33" s="180"/>
       <c r="K33" s="64"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="120">
+      <c r="A34" s="115">
         <f>Page1!A32</f>
         <v>0</v>
       </c>
-      <c r="B34" s="122">
+      <c r="B34" s="117">
         <f>Page1!B32</f>
         <v>0</v>
       </c>
-      <c r="C34" s="303">
+      <c r="C34" s="128">
         <f>Page1!C32</f>
         <v>0</v>
       </c>
       <c r="D34" s="63"/>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
-      <c r="G34" s="193"/>
-      <c r="H34" s="194"/>
-      <c r="I34" s="163"/>
-      <c r="J34" s="164"/>
+      <c r="G34" s="185"/>
+      <c r="H34" s="186"/>
+      <c r="I34" s="179"/>
+      <c r="J34" s="180"/>
       <c r="K34" s="64"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="120">
+      <c r="A35" s="115">
         <f>Page1!A33</f>
         <v>0</v>
       </c>
-      <c r="B35" s="121">
+      <c r="B35" s="116">
         <f>Page1!B33</f>
         <v>0</v>
       </c>
-      <c r="C35" s="302">
+      <c r="C35" s="127">
         <f>Page1!C33</f>
         <v>0</v>
       </c>
       <c r="D35" s="63"/>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
-      <c r="G35" s="193"/>
-      <c r="H35" s="194"/>
-      <c r="I35" s="163"/>
-      <c r="J35" s="164"/>
+      <c r="G35" s="185"/>
+      <c r="H35" s="186"/>
+      <c r="I35" s="179"/>
+      <c r="J35" s="180"/>
       <c r="K35" s="64"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="120">
+      <c r="A36" s="115">
         <f>Page1!A34</f>
         <v>0</v>
       </c>
-      <c r="B36" s="121">
+      <c r="B36" s="116">
         <f>Page1!B34</f>
         <v>0</v>
       </c>
-      <c r="C36" s="302">
+      <c r="C36" s="127">
         <f>Page1!C34</f>
         <v>0</v>
       </c>
       <c r="D36" s="63"/>
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
-      <c r="G36" s="193"/>
-      <c r="H36" s="194"/>
-      <c r="I36" s="163"/>
-      <c r="J36" s="164"/>
+      <c r="G36" s="185"/>
+      <c r="H36" s="186"/>
+      <c r="I36" s="179"/>
+      <c r="J36" s="180"/>
       <c r="K36" s="64"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="120">
+      <c r="A37" s="115">
         <f>Page1!A35</f>
         <v>0</v>
       </c>
-      <c r="B37" s="121">
+      <c r="B37" s="116">
         <f>Page1!B35</f>
         <v>0</v>
       </c>
-      <c r="C37" s="302">
+      <c r="C37" s="127">
         <f>Page1!C35</f>
         <v>0</v>
       </c>
       <c r="D37" s="63"/>
       <c r="E37" s="25"/>
       <c r="F37" s="25"/>
-      <c r="G37" s="193"/>
-      <c r="H37" s="194"/>
-      <c r="I37" s="163"/>
-      <c r="J37" s="164"/>
+      <c r="G37" s="185"/>
+      <c r="H37" s="186"/>
+      <c r="I37" s="179"/>
+      <c r="J37" s="180"/>
       <c r="K37" s="64"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="120">
+      <c r="A38" s="115">
         <f>Page1!A36</f>
         <v>0</v>
       </c>
-      <c r="B38" s="121">
+      <c r="B38" s="116">
         <f>Page1!B36</f>
         <v>0</v>
       </c>
-      <c r="C38" s="302">
+      <c r="C38" s="127">
         <f>Page1!C36</f>
         <v>0</v>
       </c>
       <c r="D38" s="63"/>
       <c r="E38" s="25"/>
       <c r="F38" s="25"/>
-      <c r="G38" s="193"/>
-      <c r="H38" s="194"/>
-      <c r="I38" s="163"/>
-      <c r="J38" s="164"/>
+      <c r="G38" s="185"/>
+      <c r="H38" s="186"/>
+      <c r="I38" s="179"/>
+      <c r="J38" s="180"/>
       <c r="K38" s="64"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="120">
+      <c r="A39" s="115">
         <f>Page1!A37</f>
         <v>0</v>
       </c>
-      <c r="B39" s="121">
+      <c r="B39" s="116">
         <f>Page1!B37</f>
         <v>0</v>
       </c>
-      <c r="C39" s="302">
+      <c r="C39" s="127">
         <f>Page1!C37</f>
         <v>0</v>
       </c>
       <c r="D39" s="63"/>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
-      <c r="G39" s="193"/>
-      <c r="H39" s="194"/>
-      <c r="I39" s="163"/>
-      <c r="J39" s="164"/>
+      <c r="G39" s="185"/>
+      <c r="H39" s="186"/>
+      <c r="I39" s="179"/>
+      <c r="J39" s="180"/>
       <c r="K39" s="64"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="125">
+      <c r="A40" s="120">
         <f>Page1!A38</f>
         <v>0</v>
       </c>
-      <c r="B40" s="126">
+      <c r="B40" s="121">
         <f>Page1!B38</f>
         <v>0</v>
       </c>
-      <c r="C40" s="304">
+      <c r="C40" s="129">
         <f>Page1!C38</f>
         <v>0</v>
       </c>
       <c r="D40" s="63"/>
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
-      <c r="G40" s="196"/>
-      <c r="H40" s="196"/>
-      <c r="I40" s="163"/>
-      <c r="J40" s="164"/>
+      <c r="G40" s="189"/>
+      <c r="H40" s="189"/>
+      <c r="I40" s="179"/>
+      <c r="J40" s="180"/>
       <c r="K40" s="64"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="294" t="s">
+      <c r="A41" s="169" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="295"/>
-      <c r="C41" s="295"/>
-      <c r="D41" s="130" t="e">
+      <c r="B41" s="170"/>
+      <c r="C41" s="170"/>
+      <c r="D41" s="125" t="e">
         <f>AVERAGE(D11:D40)</f>
         <v>#DIV/0!</v>
       </c>
@@ -4724,28 +4736,28 @@
         <f>AVERAGE(F11:F40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="197" t="e">
+      <c r="G41" s="187" t="e">
         <f>AVERAGE(G11:H40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="198"/>
-      <c r="I41" s="165" t="e">
+      <c r="H41" s="188"/>
+      <c r="I41" s="220" t="e">
         <f>AVERAGE(I11:J40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="166"/>
+      <c r="J41" s="221"/>
       <c r="K41" s="37" t="e">
         <f>AVERAGE(K11:K40)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="296" t="s">
+      <c r="A42" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="297"/>
-      <c r="C42" s="297"/>
-      <c r="D42" s="129">
+      <c r="B42" s="172"/>
+      <c r="C42" s="172"/>
+      <c r="D42" s="124">
         <f>MIN(D11:D40)</f>
         <v>0</v>
       </c>
@@ -4757,50 +4769,50 @@
         <f>MIN(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="204">
+      <c r="G42" s="183">
         <f>MIN(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="205"/>
-      <c r="I42" s="161">
+      <c r="H42" s="184"/>
+      <c r="I42" s="218">
         <f>MIN(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J42" s="162"/>
+      <c r="J42" s="219"/>
       <c r="K42" s="40">
         <f>MIN(K11:K40)</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="298" t="s">
+      <c r="A43" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="299"/>
-      <c r="C43" s="299"/>
-      <c r="D43" s="128">
+      <c r="B43" s="217"/>
+      <c r="C43" s="217"/>
+      <c r="D43" s="123">
         <f>MAX(D11:D40)</f>
         <v>0</v>
       </c>
-      <c r="E43" s="66">
+      <c r="E43" s="65">
         <f>MAX(E11:E40)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="66">
+      <c r="F43" s="65">
         <f>MAX(F11:F40)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="167">
+      <c r="G43" s="212">
         <f>MAX(G11:H40)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="168"/>
-      <c r="I43" s="169">
+      <c r="H43" s="213"/>
+      <c r="I43" s="214">
         <f>MAX(I11:J40)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="170"/>
-      <c r="K43" s="67">
+      <c r="J43" s="215"/>
+      <c r="K43" s="66">
         <f>MAX(K11:K40)</f>
         <v>0</v>
       </c>
@@ -4809,8 +4821,8 @@
       <c r="A44" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="139"/>
-      <c r="C44" s="139"/>
+      <c r="B44" s="167"/>
+      <c r="C44" s="167"/>
       <c r="D44" s="44" t="s">
         <v>22</v>
       </c>
@@ -4827,8 +4839,8 @@
     </row>
     <row r="45" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="50"/>
-      <c r="B45" s="140"/>
-      <c r="C45" s="140"/>
+      <c r="B45" s="168"/>
+      <c r="C45" s="168"/>
       <c r="D45" s="44"/>
       <c r="F45" s="46"/>
       <c r="G45" s="47"/>
@@ -4837,11 +4849,11 @@
       <c r="J45" s="51"/>
     </row>
     <row r="46" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="131" t="s">
+      <c r="A46" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="131"/>
-      <c r="C46" s="131"/>
+      <c r="B46" s="152"/>
+      <c r="C46" s="152"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="47" t="s">
@@ -4854,11 +4866,11 @@
       <c r="H46" s="44"/>
     </row>
     <row r="47" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="131" t="s">
+      <c r="A47" s="152" t="s">
         <v>130</v>
       </c>
-      <c r="B47" s="131"/>
-      <c r="C47" s="131"/>
+      <c r="B47" s="152"/>
+      <c r="C47" s="152"/>
       <c r="D47" s="44"/>
       <c r="E47" s="44"/>
       <c r="F47" s="44"/>
@@ -4882,37 +4894,115 @@
       <c r="K48" s="54"/>
     </row>
     <row r="51" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I51" s="68"/>
+      <c r="I51" s="67"/>
     </row>
     <row r="52" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I52" s="68"/>
+      <c r="I52" s="67"/>
     </row>
     <row r="53" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I53" s="68"/>
+      <c r="I53" s="67"/>
     </row>
     <row r="54" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I54" s="68"/>
+      <c r="I54" s="67"/>
     </row>
     <row r="55" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I55" s="68"/>
+      <c r="I55" s="67"/>
     </row>
     <row r="56" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I56" s="68"/>
+      <c r="I56" s="67"/>
     </row>
     <row r="57" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I57" s="68"/>
+      <c r="I57" s="67"/>
     </row>
     <row r="58" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I58" s="68"/>
+      <c r="I58" s="67"/>
     </row>
     <row r="59" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I59" s="68"/>
+      <c r="I59" s="67"/>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I60" s="68"/>
+      <c r="I60" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A7:C10"/>
+    <mergeCell ref="G7:H10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A5:B5"/>
@@ -4929,84 +5019,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="G42:H42"/>
     <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A7:C10"/>
-    <mergeCell ref="G7:H10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D11:D43">
@@ -5063,39 +5075,39 @@
   <cols>
     <col min="1" max="3" width="14" style="5" customWidth="1"/>
     <col min="4" max="11" width="21.7109375" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="83"/>
+    <col min="12" max="16384" width="9.140625" style="82"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
       <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
@@ -5116,22 +5128,22 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="151">
+      <c r="B4" s="141">
         <f>Page1!B4:D4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="199">
+      <c r="C4" s="173">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="192"/>
+      <c r="D4" s="174"/>
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="117">
+      <c r="F4" s="112">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
@@ -5145,25 +5157,25 @@
       <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="200">
+      <c r="J4" s="175">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="201"/>
+      <c r="K4" s="176"/>
     </row>
     <row r="5" spans="1:11" s="45" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="155">
+      <c r="B5" s="145">
         <f>Page1!B5:D5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="156">
+      <c r="C5" s="146">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="157"/>
+      <c r="D5" s="147"/>
       <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
@@ -5181,747 +5193,747 @@
       <c r="I5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="171">
+      <c r="J5" s="191">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="172"/>
+      <c r="K5" s="192"/>
     </row>
     <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="206" t="s">
+      <c r="A6" s="222" t="s">
         <v>131</v>
       </c>
-      <c r="B6" s="207"/>
-      <c r="C6" s="207"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="173"/>
-      <c r="J6" s="174"/>
-      <c r="K6" s="181"/>
+      <c r="B6" s="223"/>
+      <c r="C6" s="223"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="193"/>
+      <c r="J6" s="194"/>
+      <c r="K6" s="202"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="174"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="208" t="s">
+      <c r="A7" s="193" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="194"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="211" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="208"/>
-      <c r="F7" s="208"/>
-      <c r="G7" s="209"/>
-      <c r="H7" s="181" t="s">
+      <c r="E7" s="211"/>
+      <c r="F7" s="211"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="202" t="s">
         <v>126</v>
       </c>
-      <c r="I7" s="175"/>
-      <c r="J7" s="176"/>
-      <c r="K7" s="182"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="199"/>
+      <c r="K7" s="203"/>
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="175"/>
-      <c r="B8" s="300"/>
-      <c r="C8" s="185"/>
-      <c r="D8" s="307" t="s">
+      <c r="A8" s="195"/>
+      <c r="B8" s="196"/>
+      <c r="C8" s="197"/>
+      <c r="D8" s="227" t="s">
         <v>139</v>
       </c>
-      <c r="E8" s="210" t="s">
+      <c r="E8" s="229" t="s">
         <v>140</v>
       </c>
-      <c r="F8" s="210" t="s">
+      <c r="F8" s="229" t="s">
         <v>141</v>
       </c>
-      <c r="G8" s="212" t="s">
+      <c r="G8" s="231" t="s">
         <v>128</v>
       </c>
-      <c r="H8" s="182"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="176"/>
-      <c r="K8" s="182"/>
+      <c r="H8" s="203"/>
+      <c r="I8" s="195"/>
+      <c r="J8" s="199"/>
+      <c r="K8" s="203"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="175"/>
-      <c r="B9" s="300"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="308"/>
-      <c r="E9" s="211"/>
-      <c r="F9" s="211"/>
-      <c r="G9" s="213"/>
-      <c r="H9" s="183"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="176"/>
-      <c r="K9" s="182"/>
+      <c r="A9" s="195"/>
+      <c r="B9" s="196"/>
+      <c r="C9" s="197"/>
+      <c r="D9" s="228"/>
+      <c r="E9" s="230"/>
+      <c r="F9" s="230"/>
+      <c r="G9" s="232"/>
+      <c r="H9" s="204"/>
+      <c r="I9" s="195"/>
+      <c r="J9" s="199"/>
+      <c r="K9" s="203"/>
     </row>
     <row r="10" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="118">
+      <c r="A10" s="113">
         <f>Page1!A9</f>
         <v>0</v>
       </c>
-      <c r="B10" s="119">
+      <c r="B10" s="114">
         <f>Page1!B9</f>
         <v>0</v>
       </c>
-      <c r="C10" s="301">
+      <c r="C10" s="126">
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="70"/>
+      <c r="D10" s="69"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="175"/>
-      <c r="J10" s="176"/>
-      <c r="K10" s="182"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="195"/>
+      <c r="J10" s="199"/>
+      <c r="K10" s="203"/>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="120">
+      <c r="A11" s="115">
         <f>Page1!A10</f>
         <v>0</v>
       </c>
-      <c r="B11" s="121">
+      <c r="B11" s="116">
         <f>Page1!B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="302">
+      <c r="C11" s="127">
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="73"/>
+      <c r="D11" s="72"/>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="175"/>
-      <c r="J11" s="176"/>
-      <c r="K11" s="182"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="195"/>
+      <c r="J11" s="199"/>
+      <c r="K11" s="203"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="120">
+      <c r="A12" s="115">
         <f>Page1!A11</f>
         <v>0</v>
       </c>
-      <c r="B12" s="121">
+      <c r="B12" s="116">
         <f>Page1!B11</f>
         <v>0</v>
       </c>
-      <c r="C12" s="303">
+      <c r="C12" s="128">
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="73"/>
+      <c r="D12" s="72"/>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="175"/>
-      <c r="J12" s="176"/>
-      <c r="K12" s="182"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="195"/>
+      <c r="J12" s="199"/>
+      <c r="K12" s="203"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="120">
+      <c r="A13" s="115">
         <f>Page1!A12</f>
         <v>0</v>
       </c>
-      <c r="B13" s="122">
+      <c r="B13" s="117">
         <f>Page1!B12</f>
         <v>0</v>
       </c>
-      <c r="C13" s="303">
+      <c r="C13" s="128">
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="70"/>
+      <c r="D13" s="69"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="175"/>
-      <c r="J13" s="176"/>
-      <c r="K13" s="182"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="195"/>
+      <c r="J13" s="199"/>
+      <c r="K13" s="203"/>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="120">
+      <c r="A14" s="115">
         <f>Page1!A13</f>
         <v>0</v>
       </c>
-      <c r="B14" s="121">
+      <c r="B14" s="116">
         <f>Page1!B13</f>
         <v>0</v>
       </c>
-      <c r="C14" s="302">
+      <c r="C14" s="127">
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="73"/>
+      <c r="D14" s="72"/>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="175"/>
-      <c r="J14" s="176"/>
-      <c r="K14" s="182"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="195"/>
+      <c r="J14" s="199"/>
+      <c r="K14" s="203"/>
     </row>
     <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="120">
+      <c r="A15" s="115">
         <f>Page1!A14</f>
         <v>0</v>
       </c>
-      <c r="B15" s="121">
+      <c r="B15" s="116">
         <f>Page1!B14</f>
         <v>0</v>
       </c>
-      <c r="C15" s="302">
+      <c r="C15" s="127">
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="73"/>
+      <c r="D15" s="72"/>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="175"/>
-      <c r="J15" s="176"/>
-      <c r="K15" s="182"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="195"/>
+      <c r="J15" s="199"/>
+      <c r="K15" s="203"/>
     </row>
     <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="120">
+      <c r="A16" s="115">
         <f>Page1!A15</f>
         <v>0</v>
       </c>
-      <c r="B16" s="121">
+      <c r="B16" s="116">
         <f>Page1!B15</f>
         <v>0</v>
       </c>
-      <c r="C16" s="302">
+      <c r="C16" s="127">
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="73"/>
+      <c r="D16" s="72"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="175"/>
-      <c r="J16" s="176"/>
-      <c r="K16" s="182"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="195"/>
+      <c r="J16" s="199"/>
+      <c r="K16" s="203"/>
     </row>
     <row r="17" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="120">
+      <c r="A17" s="115">
         <f>Page1!A16</f>
         <v>0</v>
       </c>
-      <c r="B17" s="121">
+      <c r="B17" s="116">
         <f>Page1!B16</f>
         <v>0</v>
       </c>
-      <c r="C17" s="302">
+      <c r="C17" s="127">
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="73"/>
+      <c r="D17" s="72"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="175"/>
-      <c r="J17" s="176"/>
-      <c r="K17" s="182"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="195"/>
+      <c r="J17" s="199"/>
+      <c r="K17" s="203"/>
     </row>
     <row r="18" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="120">
+      <c r="A18" s="115">
         <f>Page1!A17</f>
         <v>0</v>
       </c>
-      <c r="B18" s="123">
+      <c r="B18" s="118">
         <f>Page1!B17</f>
         <v>0</v>
       </c>
-      <c r="C18" s="302">
+      <c r="C18" s="127">
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="73"/>
+      <c r="D18" s="72"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="175"/>
-      <c r="J18" s="176"/>
-      <c r="K18" s="182"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="195"/>
+      <c r="J18" s="199"/>
+      <c r="K18" s="203"/>
     </row>
     <row r="19" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="120">
+      <c r="A19" s="115">
         <f>Page1!A18</f>
         <v>0</v>
       </c>
-      <c r="B19" s="121">
+      <c r="B19" s="116">
         <f>Page1!B18</f>
         <v>0</v>
       </c>
-      <c r="C19" s="302">
+      <c r="C19" s="127">
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="D19" s="73"/>
+      <c r="D19" s="72"/>
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="175"/>
-      <c r="J19" s="176"/>
-      <c r="K19" s="182"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="195"/>
+      <c r="J19" s="199"/>
+      <c r="K19" s="203"/>
     </row>
     <row r="20" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="124">
+      <c r="A20" s="119">
         <f>Page1!A19</f>
         <v>0</v>
       </c>
-      <c r="B20" s="123">
+      <c r="B20" s="118">
         <f>Page1!B19</f>
         <v>0</v>
       </c>
-      <c r="C20" s="303">
+      <c r="C20" s="128">
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="73"/>
+      <c r="D20" s="72"/>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="175"/>
-      <c r="J20" s="176"/>
-      <c r="K20" s="182"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="195"/>
+      <c r="J20" s="199"/>
+      <c r="K20" s="203"/>
     </row>
     <row r="21" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="120">
+      <c r="A21" s="115">
         <f>Page1!A20</f>
         <v>0</v>
       </c>
-      <c r="B21" s="121">
+      <c r="B21" s="116">
         <f>Page1!B20</f>
         <v>0</v>
       </c>
-      <c r="C21" s="302">
+      <c r="C21" s="127">
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="73"/>
+      <c r="D21" s="72"/>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="175"/>
-      <c r="J21" s="176"/>
-      <c r="K21" s="182"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="195"/>
+      <c r="J21" s="199"/>
+      <c r="K21" s="203"/>
     </row>
     <row r="22" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="120">
+      <c r="A22" s="115">
         <f>Page1!A21</f>
         <v>0</v>
       </c>
-      <c r="B22" s="121">
+      <c r="B22" s="116">
         <f>Page1!B21</f>
         <v>0</v>
       </c>
-      <c r="C22" s="303">
+      <c r="C22" s="128">
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="73"/>
+      <c r="D22" s="72"/>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="175"/>
-      <c r="J22" s="176"/>
-      <c r="K22" s="182"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="195"/>
+      <c r="J22" s="199"/>
+      <c r="K22" s="203"/>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="120">
+      <c r="A23" s="115">
         <f>Page1!A22</f>
         <v>0</v>
       </c>
-      <c r="B23" s="122">
+      <c r="B23" s="117">
         <f>Page1!B22</f>
         <v>0</v>
       </c>
-      <c r="C23" s="303">
+      <c r="C23" s="128">
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="D23" s="73"/>
+      <c r="D23" s="72"/>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="175"/>
-      <c r="J23" s="176"/>
-      <c r="K23" s="182"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="195"/>
+      <c r="J23" s="199"/>
+      <c r="K23" s="203"/>
     </row>
     <row r="24" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="120">
+      <c r="A24" s="115">
         <f>Page1!A23</f>
         <v>0</v>
       </c>
-      <c r="B24" s="121">
+      <c r="B24" s="116">
         <f>Page1!B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="302">
+      <c r="C24" s="127">
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="73"/>
+      <c r="D24" s="72"/>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="175"/>
-      <c r="J24" s="176"/>
-      <c r="K24" s="182"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="195"/>
+      <c r="J24" s="199"/>
+      <c r="K24" s="203"/>
     </row>
     <row r="25" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="120">
+      <c r="A25" s="115">
         <f>Page1!A24</f>
         <v>0</v>
       </c>
-      <c r="B25" s="121">
+      <c r="B25" s="116">
         <f>Page1!B24</f>
         <v>0</v>
       </c>
-      <c r="C25" s="302">
+      <c r="C25" s="127">
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="D25" s="73"/>
+      <c r="D25" s="72"/>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="175"/>
-      <c r="J25" s="176"/>
-      <c r="K25" s="182"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="195"/>
+      <c r="J25" s="199"/>
+      <c r="K25" s="203"/>
     </row>
     <row r="26" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="120">
+      <c r="A26" s="115">
         <f>Page1!A25</f>
         <v>0</v>
       </c>
-      <c r="B26" s="121">
+      <c r="B26" s="116">
         <f>Page1!B25</f>
         <v>0</v>
       </c>
-      <c r="C26" s="302">
+      <c r="C26" s="127">
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="D26" s="73"/>
+      <c r="D26" s="72"/>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="175"/>
-      <c r="J26" s="176"/>
-      <c r="K26" s="182"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="195"/>
+      <c r="J26" s="199"/>
+      <c r="K26" s="203"/>
     </row>
     <row r="27" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="120">
+      <c r="A27" s="115">
         <f>Page1!A26</f>
         <v>0</v>
       </c>
-      <c r="B27" s="121">
+      <c r="B27" s="116">
         <f>Page1!B26</f>
         <v>0</v>
       </c>
-      <c r="C27" s="302">
+      <c r="C27" s="127">
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="D27" s="73"/>
+      <c r="D27" s="72"/>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="175"/>
-      <c r="J27" s="176"/>
-      <c r="K27" s="182"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="195"/>
+      <c r="J27" s="199"/>
+      <c r="K27" s="203"/>
     </row>
     <row r="28" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="120">
+      <c r="A28" s="115">
         <f>Page1!A27</f>
         <v>0</v>
       </c>
-      <c r="B28" s="123">
+      <c r="B28" s="118">
         <f>Page1!B27</f>
         <v>0</v>
       </c>
-      <c r="C28" s="302">
+      <c r="C28" s="127">
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="73"/>
+      <c r="D28" s="72"/>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="175"/>
-      <c r="J28" s="176"/>
-      <c r="K28" s="182"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="195"/>
+      <c r="J28" s="199"/>
+      <c r="K28" s="203"/>
     </row>
     <row r="29" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="120">
+      <c r="A29" s="115">
         <f>Page1!A28</f>
         <v>0</v>
       </c>
-      <c r="B29" s="121">
+      <c r="B29" s="116">
         <f>Page1!B28</f>
         <v>0</v>
       </c>
-      <c r="C29" s="302">
+      <c r="C29" s="127">
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="73"/>
+      <c r="D29" s="72"/>
       <c r="E29" s="26"/>
       <c r="F29" s="26"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="176"/>
-      <c r="K29" s="182"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="195"/>
+      <c r="J29" s="199"/>
+      <c r="K29" s="203"/>
     </row>
     <row r="30" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="124">
+      <c r="A30" s="119">
         <f>Page1!A29</f>
         <v>0</v>
       </c>
-      <c r="B30" s="123">
+      <c r="B30" s="118">
         <f>Page1!B29</f>
         <v>0</v>
       </c>
-      <c r="C30" s="303">
+      <c r="C30" s="128">
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="73"/>
+      <c r="D30" s="72"/>
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="175"/>
-      <c r="J30" s="176"/>
-      <c r="K30" s="182"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="195"/>
+      <c r="J30" s="199"/>
+      <c r="K30" s="203"/>
     </row>
     <row r="31" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="120">
+      <c r="A31" s="115">
         <f>Page1!A30</f>
         <v>0</v>
       </c>
-      <c r="B31" s="121">
+      <c r="B31" s="116">
         <f>Page1!B30</f>
         <v>0</v>
       </c>
-      <c r="C31" s="302">
+      <c r="C31" s="127">
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="73"/>
+      <c r="D31" s="72"/>
       <c r="E31" s="26"/>
       <c r="F31" s="26"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="175"/>
-      <c r="J31" s="176"/>
-      <c r="K31" s="182"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="195"/>
+      <c r="J31" s="199"/>
+      <c r="K31" s="203"/>
     </row>
     <row r="32" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="120">
+      <c r="A32" s="115">
         <f>Page1!A31</f>
         <v>0</v>
       </c>
-      <c r="B32" s="121">
+      <c r="B32" s="116">
         <f>Page1!B31</f>
         <v>0</v>
       </c>
-      <c r="C32" s="303">
+      <c r="C32" s="128">
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="73"/>
+      <c r="D32" s="72"/>
       <c r="E32" s="26"/>
       <c r="F32" s="26"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="175"/>
-      <c r="J32" s="176"/>
-      <c r="K32" s="182"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="195"/>
+      <c r="J32" s="199"/>
+      <c r="K32" s="203"/>
     </row>
     <row r="33" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="120">
+      <c r="A33" s="115">
         <f>Page1!A32</f>
         <v>0</v>
       </c>
-      <c r="B33" s="122">
+      <c r="B33" s="117">
         <f>Page1!B32</f>
         <v>0</v>
       </c>
-      <c r="C33" s="303">
+      <c r="C33" s="128">
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="73"/>
+      <c r="D33" s="72"/>
       <c r="E33" s="26"/>
       <c r="F33" s="26"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="175"/>
-      <c r="J33" s="176"/>
-      <c r="K33" s="182"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="195"/>
+      <c r="J33" s="199"/>
+      <c r="K33" s="203"/>
     </row>
     <row r="34" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="120">
+      <c r="A34" s="115">
         <f>Page1!A33</f>
         <v>0</v>
       </c>
-      <c r="B34" s="121">
+      <c r="B34" s="116">
         <f>Page1!B33</f>
         <v>0</v>
       </c>
-      <c r="C34" s="302">
+      <c r="C34" s="127">
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="D34" s="73"/>
+      <c r="D34" s="72"/>
       <c r="E34" s="26"/>
       <c r="F34" s="26"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="175"/>
-      <c r="J34" s="176"/>
-      <c r="K34" s="182"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="195"/>
+      <c r="J34" s="199"/>
+      <c r="K34" s="203"/>
     </row>
     <row r="35" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="120">
+      <c r="A35" s="115">
         <f>Page1!A34</f>
         <v>0</v>
       </c>
-      <c r="B35" s="121">
+      <c r="B35" s="116">
         <f>Page1!B34</f>
         <v>0</v>
       </c>
-      <c r="C35" s="302">
+      <c r="C35" s="127">
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="73"/>
+      <c r="D35" s="72"/>
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="175"/>
-      <c r="J35" s="176"/>
-      <c r="K35" s="182"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="195"/>
+      <c r="J35" s="199"/>
+      <c r="K35" s="203"/>
     </row>
     <row r="36" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="120">
+      <c r="A36" s="115">
         <f>Page1!A35</f>
         <v>0</v>
       </c>
-      <c r="B36" s="121">
+      <c r="B36" s="116">
         <f>Page1!B35</f>
         <v>0</v>
       </c>
-      <c r="C36" s="302">
+      <c r="C36" s="127">
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="D36" s="73"/>
+      <c r="D36" s="72"/>
       <c r="E36" s="26"/>
       <c r="F36" s="26"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="175"/>
-      <c r="J36" s="176"/>
-      <c r="K36" s="182"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="195"/>
+      <c r="J36" s="199"/>
+      <c r="K36" s="203"/>
     </row>
     <row r="37" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="120">
+      <c r="A37" s="115">
         <f>Page1!A36</f>
         <v>0</v>
       </c>
-      <c r="B37" s="121">
+      <c r="B37" s="116">
         <f>Page1!B36</f>
         <v>0</v>
       </c>
-      <c r="C37" s="302">
+      <c r="C37" s="127">
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="73"/>
+      <c r="D37" s="72"/>
       <c r="E37" s="26"/>
       <c r="F37" s="26"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="175"/>
-      <c r="J37" s="176"/>
-      <c r="K37" s="182"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="195"/>
+      <c r="J37" s="199"/>
+      <c r="K37" s="203"/>
     </row>
     <row r="38" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="120">
+      <c r="A38" s="115">
         <f>Page1!A37</f>
         <v>0</v>
       </c>
-      <c r="B38" s="121">
+      <c r="B38" s="116">
         <f>Page1!B37</f>
         <v>0</v>
       </c>
-      <c r="C38" s="302">
+      <c r="C38" s="127">
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="D38" s="73"/>
+      <c r="D38" s="72"/>
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="175"/>
-      <c r="J38" s="176"/>
-      <c r="K38" s="182"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="195"/>
+      <c r="J38" s="199"/>
+      <c r="K38" s="203"/>
     </row>
     <row r="39" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="125">
+      <c r="A39" s="120">
         <f>Page1!A38</f>
         <v>0</v>
       </c>
-      <c r="B39" s="126">
+      <c r="B39" s="121">
         <f>Page1!B38</f>
         <v>0</v>
       </c>
-      <c r="C39" s="304">
+      <c r="C39" s="129">
         <f>Page1!C38</f>
         <v>0</v>
       </c>
-      <c r="D39" s="73"/>
+      <c r="D39" s="72"/>
       <c r="E39" s="26"/>
       <c r="F39" s="26"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="175"/>
-      <c r="J39" s="176"/>
-      <c r="K39" s="182"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="195"/>
+      <c r="J39" s="199"/>
+      <c r="K39" s="203"/>
     </row>
     <row r="40" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="305" t="s">
+      <c r="A40" s="225" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="306"/>
-      <c r="C40" s="306"/>
-      <c r="D40" s="76" t="e">
+      <c r="B40" s="226"/>
+      <c r="C40" s="226"/>
+      <c r="D40" s="75" t="e">
         <f>AVERAGE(D10:D39)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5937,21 +5949,21 @@
         <f>AVERAGE(G10:G39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H40" s="77" t="e">
+      <c r="H40" s="76" t="e">
         <f>AVERAGE(H10:H39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="176"/>
-      <c r="J40" s="176"/>
-      <c r="K40" s="182"/>
+      <c r="I40" s="199"/>
+      <c r="J40" s="199"/>
+      <c r="K40" s="203"/>
     </row>
     <row r="41" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="296" t="s">
+      <c r="A41" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="297"/>
-      <c r="C41" s="297"/>
-      <c r="D41" s="78">
+      <c r="B41" s="172"/>
+      <c r="C41" s="172"/>
+      <c r="D41" s="77">
         <f>MIN(D10:D39)</f>
         <v>0</v>
       </c>
@@ -5967,50 +5979,50 @@
         <f>MIN(G10:G39)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="79">
+      <c r="H41" s="78">
         <f>MIN(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="176"/>
-      <c r="J41" s="176"/>
-      <c r="K41" s="182"/>
+      <c r="I41" s="199"/>
+      <c r="J41" s="199"/>
+      <c r="K41" s="203"/>
     </row>
     <row r="42" spans="1:11" s="5" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="298" t="s">
+      <c r="A42" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="299"/>
-      <c r="C42" s="299"/>
-      <c r="D42" s="80">
+      <c r="B42" s="217"/>
+      <c r="C42" s="217"/>
+      <c r="D42" s="79">
         <f>MAX(D10:D39)</f>
         <v>0</v>
       </c>
-      <c r="E42" s="81">
+      <c r="E42" s="80">
         <f>MAX(E10:E39)</f>
         <v>0</v>
       </c>
-      <c r="F42" s="81">
+      <c r="F42" s="80">
         <f>MAX(F10:F39)</f>
         <v>0</v>
       </c>
-      <c r="G42" s="81">
+      <c r="G42" s="80">
         <f>MAX(G10:G39)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="82">
+      <c r="H42" s="81">
         <f>MAX(H10:H39)</f>
         <v>0</v>
       </c>
-      <c r="I42" s="180"/>
-      <c r="J42" s="180"/>
-      <c r="K42" s="183"/>
+      <c r="I42" s="201"/>
+      <c r="J42" s="201"/>
+      <c r="K42" s="204"/>
     </row>
     <row r="43" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="139"/>
-      <c r="C43" s="139"/>
+      <c r="B43" s="167"/>
+      <c r="C43" s="167"/>
       <c r="D43" s="44" t="s">
         <v>22</v>
       </c>
@@ -6027,8 +6039,8 @@
     </row>
     <row r="44" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50"/>
-      <c r="B44" s="140"/>
-      <c r="C44" s="140"/>
+      <c r="B44" s="168"/>
+      <c r="C44" s="168"/>
       <c r="D44" s="44"/>
       <c r="F44" s="46"/>
       <c r="G44" s="47"/>
@@ -6037,11 +6049,11 @@
       <c r="J44" s="51"/>
     </row>
     <row r="45" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="131" t="s">
+      <c r="A45" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="131"/>
-      <c r="C45" s="131"/>
+      <c r="B45" s="152"/>
+      <c r="C45" s="152"/>
       <c r="D45" s="44"/>
       <c r="E45" s="44"/>
       <c r="F45" s="47" t="s">
@@ -6054,11 +6066,11 @@
       <c r="H45" s="44"/>
     </row>
     <row r="46" spans="1:11" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="131" t="s">
+      <c r="A46" s="152" t="s">
         <v>130</v>
       </c>
-      <c r="B46" s="131"/>
-      <c r="C46" s="131"/>
+      <c r="B46" s="152"/>
+      <c r="C46" s="152"/>
       <c r="D46" s="44"/>
       <c r="E46" s="44"/>
       <c r="F46" s="44"/>
@@ -6083,15 +6095,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="I6:K42"/>
     <mergeCell ref="H7:H9"/>
@@ -6108,6 +6111,15 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:D42">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="notBetween">
@@ -6149,392 +6161,413 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.42578125" style="84" customWidth="1"/>
-    <col min="3" max="5" width="12.85546875" style="84" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="84" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" style="84" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="115"/>
+    <col min="1" max="2" width="21.42578125" style="83" customWidth="1"/>
+    <col min="3" max="5" width="12.85546875" style="83" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="83" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" style="83" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="83" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="110"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="215" t="s">
+    <row r="1" spans="1:8" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="283" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="216"/>
-      <c r="C1" s="216"/>
-      <c r="D1" s="216"/>
-      <c r="E1" s="216"/>
-      <c r="F1" s="216"/>
-      <c r="G1" s="217"/>
-    </row>
-    <row r="2" spans="1:7" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="87" t="s">
+      <c r="B1" s="284"/>
+      <c r="C1" s="284"/>
+      <c r="D1" s="284"/>
+      <c r="E1" s="284"/>
+      <c r="F1" s="284"/>
+      <c r="G1" s="284"/>
+      <c r="H1" s="285"/>
+    </row>
+    <row r="2" spans="1:8" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="226" t="s">
+    <row r="3" spans="1:8" s="83" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="291" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="227"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="228"/>
-    </row>
-    <row r="4" spans="1:7" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="175" t="s">
+      <c r="B3" s="292"/>
+      <c r="C3" s="292"/>
+      <c r="D3" s="292"/>
+      <c r="E3" s="292"/>
+      <c r="F3" s="292"/>
+      <c r="G3" s="292"/>
+      <c r="H3" s="293"/>
+    </row>
+    <row r="4" spans="1:8" s="83" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="195" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="182"/>
-    </row>
-    <row r="5" spans="1:7" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="218" t="s">
+      <c r="B4" s="199"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="199"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="199"/>
+      <c r="H4" s="203"/>
+    </row>
+    <row r="5" spans="1:8" s="83" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="286" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="219"/>
-      <c r="C5" s="219"/>
-      <c r="D5" s="219"/>
-      <c r="E5" s="219"/>
-      <c r="F5" s="219"/>
-      <c r="G5" s="220"/>
-    </row>
-    <row r="6" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="88" t="s">
+      <c r="B5" s="287"/>
+      <c r="C5" s="287"/>
+      <c r="D5" s="287"/>
+      <c r="E5" s="287"/>
+      <c r="F5" s="287"/>
+      <c r="G5" s="287"/>
+      <c r="H5" s="288"/>
+    </row>
+    <row r="6" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="221">
+      <c r="D6" s="252">
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="222"/>
-      <c r="F6" s="223" t="s">
+      <c r="E6" s="254"/>
+      <c r="F6" s="277" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="224">
+      <c r="G6" s="278"/>
+      <c r="H6" s="274">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+    <row r="7" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="90" t="s">
+      <c r="B7" s="91"/>
+      <c r="C7" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="221">
+      <c r="D7" s="252">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="222"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="225"/>
-    </row>
-    <row r="8" spans="1:7" s="84" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
+      <c r="E7" s="254"/>
+      <c r="F7" s="304"/>
+      <c r="G7" s="251"/>
+      <c r="H7" s="290"/>
+    </row>
+    <row r="8" spans="1:8" s="83" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="91">
+      <c r="B8" s="90">
         <f>Page1!C4</f>
         <v>0</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="223">
+      <c r="D8" s="289">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="223"/>
-      <c r="F8" s="238" t="s">
+      <c r="E8" s="289"/>
+      <c r="F8" s="277" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="224">
+      <c r="G8" s="278"/>
+      <c r="H8" s="274">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="94" t="s">
+    <row r="9" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="93">
+      <c r="B9" s="92">
         <f>Page1!G44</f>
         <v>461309100</v>
       </c>
-      <c r="C9" s="238" t="s">
+      <c r="C9" s="272" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="243" t="s">
+      <c r="D9" s="277" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="244"/>
-      <c r="F9" s="239"/>
-      <c r="G9" s="241"/>
-    </row>
-    <row r="10" spans="1:7" s="84" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="95" t="s">
+      <c r="E9" s="278"/>
+      <c r="F9" s="305"/>
+      <c r="G9" s="306"/>
+      <c r="H9" s="275"/>
+    </row>
+    <row r="10" spans="1:8" s="83" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="96">
+      <c r="B10" s="95">
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C10" s="240"/>
-      <c r="D10" s="245"/>
-      <c r="E10" s="246"/>
-      <c r="F10" s="240"/>
-      <c r="G10" s="242"/>
-    </row>
-    <row r="11" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="229" t="s">
+      <c r="C10" s="273"/>
+      <c r="D10" s="279"/>
+      <c r="E10" s="280"/>
+      <c r="F10" s="279"/>
+      <c r="G10" s="280"/>
+      <c r="H10" s="276"/>
+    </row>
+    <row r="11" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="294" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="231" t="s">
+      <c r="B11" s="296" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="233" t="s">
+      <c r="C11" s="298" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="234"/>
-      <c r="E11" s="235"/>
-      <c r="F11" s="231" t="s">
+      <c r="D11" s="299"/>
+      <c r="E11" s="300"/>
+      <c r="F11" s="307" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="236" t="s">
+      <c r="G11" s="308"/>
+      <c r="H11" s="301" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="230"/>
-      <c r="B12" s="232"/>
-      <c r="C12" s="97" t="s">
+    <row r="12" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="295"/>
+      <c r="B12" s="297"/>
+      <c r="C12" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="97" t="s">
+      <c r="D12" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="97" t="s">
+      <c r="E12" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="232"/>
-      <c r="G12" s="237"/>
-    </row>
-    <row r="13" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="98" t="s">
+      <c r="F12" s="309"/>
+      <c r="G12" s="310"/>
+      <c r="H12" s="302"/>
+    </row>
+    <row r="13" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="100">
+      <c r="C13" s="99">
         <v>17</v>
       </c>
-      <c r="D13" s="100">
+      <c r="D13" s="99">
         <v>18</v>
       </c>
-      <c r="E13" s="100">
+      <c r="E13" s="99">
         <v>20</v>
       </c>
-      <c r="F13" s="101" t="e">
+      <c r="F13" s="311" t="e">
         <f>Page1!D39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="312"/>
+      <c r="H13" s="18" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="102" t="s">
+    <row r="14" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="104">
+      <c r="C14" s="102">
         <v>18</v>
       </c>
-      <c r="D14" s="104">
+      <c r="D14" s="102">
         <v>23</v>
       </c>
-      <c r="E14" s="104">
+      <c r="E14" s="102">
         <v>28</v>
       </c>
-      <c r="F14" s="105" t="e">
+      <c r="F14" s="218" t="e">
         <f>Page1!E39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="106" t="s">
+      <c r="G14" s="219"/>
+      <c r="H14" s="103" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="102" t="s">
+    <row r="15" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="104">
+      <c r="C15" s="102">
         <v>300</v>
       </c>
-      <c r="D15" s="104" t="s">
+      <c r="D15" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="104" t="s">
+      <c r="E15" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="39" t="e">
+      <c r="F15" s="218" t="e">
         <f>Page1!K39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="212" t="s">
+      <c r="G15" s="219"/>
+      <c r="H15" s="231" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="102" t="s">
+    <row r="16" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="104">
+      <c r="C16" s="102">
         <v>300</v>
       </c>
-      <c r="D16" s="104" t="s">
+      <c r="D16" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="104" t="s">
+      <c r="E16" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="39" t="e">
+      <c r="F16" s="218" t="e">
         <f>Page2!F41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="247"/>
-    </row>
-    <row r="17" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="102" t="s">
+      <c r="G16" s="219"/>
+      <c r="H16" s="281"/>
+    </row>
+    <row r="17" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="104">
+      <c r="C17" s="102">
         <v>900</v>
       </c>
-      <c r="D17" s="104" t="s">
+      <c r="D17" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="104">
+      <c r="E17" s="102">
         <v>1200</v>
       </c>
-      <c r="F17" s="39" t="e">
+      <c r="F17" s="218" t="e">
         <f>Page1!I39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="247"/>
-    </row>
-    <row r="18" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="102" t="s">
+      <c r="G17" s="219"/>
+      <c r="H17" s="281"/>
+    </row>
+    <row r="18" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="104">
+      <c r="C18" s="102">
         <v>700</v>
       </c>
-      <c r="D18" s="104" t="s">
+      <c r="D18" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="104">
+      <c r="E18" s="102">
         <v>1000</v>
       </c>
-      <c r="F18" s="39" t="e">
+      <c r="F18" s="218" t="e">
         <f>Page2!D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="247"/>
-    </row>
-    <row r="19" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="102" t="s">
+      <c r="G18" s="219"/>
+      <c r="H18" s="281"/>
+    </row>
+    <row r="19" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="103" t="s">
+      <c r="B19" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="104">
+      <c r="C19" s="102">
         <v>350</v>
       </c>
-      <c r="D19" s="104" t="s">
+      <c r="D19" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="104" t="s">
+      <c r="E19" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="39" t="e">
+      <c r="F19" s="218" t="e">
         <f>Page1!J39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="247"/>
-    </row>
-    <row r="20" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="102" t="s">
+      <c r="G19" s="219"/>
+      <c r="H19" s="281"/>
+    </row>
+    <row r="20" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="103" t="s">
+      <c r="B20" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="104">
+      <c r="C20" s="102">
         <v>400</v>
       </c>
-      <c r="D20" s="104" t="s">
+      <c r="D20" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="104" t="s">
+      <c r="E20" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="39" t="e">
+      <c r="F20" s="218" t="e">
         <f>Page2!E41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="247"/>
-    </row>
-    <row r="21" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="102" t="s">
+      <c r="G20" s="219"/>
+      <c r="H20" s="281"/>
+    </row>
+    <row r="21" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="103" t="s">
+      <c r="B21" s="101" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="38">
@@ -6546,17 +6579,18 @@
       <c r="E21" s="38">
         <v>0.6</v>
       </c>
-      <c r="F21" s="38" t="e">
+      <c r="F21" s="218" t="e">
         <f>Page1!G39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="247"/>
-    </row>
-    <row r="22" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="102" t="s">
+      <c r="G21" s="219"/>
+      <c r="H21" s="281"/>
+    </row>
+    <row r="22" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="103" t="s">
+      <c r="B22" s="101" t="s">
         <v>39</v>
       </c>
       <c r="C22" s="38">
@@ -6568,17 +6602,18 @@
       <c r="E22" s="38">
         <v>1.4</v>
       </c>
-      <c r="F22" s="38" t="e">
+      <c r="F22" s="218" t="e">
         <f>Page1!H39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="144"/>
-    </row>
-    <row r="23" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="102" t="s">
+      <c r="G22" s="219"/>
+      <c r="H22" s="134"/>
+    </row>
+    <row r="23" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="101" t="s">
         <v>81</v>
       </c>
       <c r="C23" s="39">
@@ -6590,22 +6625,23 @@
       <c r="E23" s="39">
         <v>400</v>
       </c>
-      <c r="F23" s="39" t="e">
+      <c r="F23" s="218" t="e">
         <f>Page1!F39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="106" t="s">
+      <c r="G23" s="219"/>
+      <c r="H23" s="103" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="102" t="s">
+    <row r="24" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="103" t="s">
+      <c r="B24" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="104" t="s">
+      <c r="C24" s="102" t="s">
         <v>39</v>
       </c>
       <c r="D24" s="39">
@@ -6616,42 +6652,44 @@
         <f>Page2!J10</f>
         <v>253</v>
       </c>
-      <c r="F24" s="39" t="e">
+      <c r="F24" s="218" t="e">
         <f>Page2!I41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="106" t="s">
+      <c r="G24" s="219"/>
+      <c r="H24" s="103" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="102" t="s">
+    <row r="25" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="103" t="s">
+      <c r="B25" s="101" t="s">
         <v>87</v>
       </c>
       <c r="C25" s="39">
         <v>6000</v>
       </c>
-      <c r="D25" s="104" t="s">
+      <c r="D25" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="104" t="s">
+      <c r="E25" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F25" s="218">
         <v>6000</v>
       </c>
-      <c r="G25" s="106" t="s">
+      <c r="G25" s="219"/>
+      <c r="H25" s="103" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="108" t="s">
+    <row r="26" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="105" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="109" t="s">
+      <c r="B26" s="106" t="s">
         <v>84</v>
       </c>
       <c r="C26" s="56">
@@ -6660,313 +6698,376 @@
       <c r="D26" s="56">
         <v>430</v>
       </c>
-      <c r="E26" s="110">
+      <c r="E26" s="107">
         <v>450</v>
       </c>
-      <c r="F26" s="110" t="e">
+      <c r="F26" s="218" t="e">
         <f>Page2!K41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="107" t="s">
+      <c r="G26" s="219"/>
+      <c r="H26" s="104" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="248" t="s">
+    <row r="27" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="266" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="249"/>
-      <c r="C27" s="249"/>
-      <c r="D27" s="249"/>
-      <c r="E27" s="249"/>
-      <c r="F27" s="249"/>
-      <c r="G27" s="250"/>
-    </row>
-    <row r="28" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="251" t="s">
+      <c r="B27" s="267"/>
+      <c r="C27" s="267"/>
+      <c r="D27" s="267"/>
+      <c r="E27" s="267"/>
+      <c r="F27" s="267"/>
+      <c r="G27" s="267"/>
+      <c r="H27" s="268"/>
+    </row>
+    <row r="28" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="250" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="252"/>
-      <c r="C28" s="253" t="s">
+      <c r="B28" s="251"/>
+      <c r="C28" s="269" t="s">
         <v>127</v>
       </c>
-      <c r="D28" s="254"/>
-      <c r="E28" s="255"/>
-      <c r="F28" s="111" t="s">
+      <c r="D28" s="270"/>
+      <c r="E28" s="271"/>
+      <c r="F28" s="218" t="s">
         <v>92</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="219"/>
+      <c r="H28" s="18" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="256" t="s">
+    <row r="29" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="255" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="222"/>
-      <c r="C29" s="257" t="s">
+      <c r="B29" s="254"/>
+      <c r="C29" s="260" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="258"/>
-      <c r="E29" s="259"/>
-      <c r="F29" s="65" t="s">
+      <c r="D29" s="261"/>
+      <c r="E29" s="262"/>
+      <c r="F29" s="218" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="106" t="s">
+      <c r="G29" s="219"/>
+      <c r="H29" s="103" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="256" t="s">
+    <row r="30" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="255" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="222"/>
-      <c r="C30" s="257" t="s">
+      <c r="B30" s="254"/>
+      <c r="C30" s="260" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="258"/>
-      <c r="E30" s="259"/>
-      <c r="F30" s="65" t="s">
+      <c r="D30" s="261"/>
+      <c r="E30" s="262"/>
+      <c r="F30" s="218" t="s">
         <v>92</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="219"/>
+      <c r="H30" s="18" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="256" t="s">
+    <row r="31" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="255" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="222"/>
-      <c r="C31" s="257" t="s">
+      <c r="B31" s="254"/>
+      <c r="C31" s="260" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="258"/>
-      <c r="E31" s="259"/>
-      <c r="F31" s="65" t="s">
+      <c r="D31" s="261"/>
+      <c r="E31" s="262"/>
+      <c r="F31" s="218" t="s">
         <v>92</v>
       </c>
-      <c r="G31" s="106" t="s">
+      <c r="G31" s="219"/>
+      <c r="H31" s="103" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="256" t="s">
+    <row r="32" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="255" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="222"/>
-      <c r="C32" s="257" t="s">
+      <c r="B32" s="254"/>
+      <c r="C32" s="260" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="258"/>
-      <c r="E32" s="259"/>
-      <c r="F32" s="65" t="s">
+      <c r="D32" s="261"/>
+      <c r="E32" s="262"/>
+      <c r="F32" s="218" t="s">
         <v>92</v>
       </c>
-      <c r="G32" s="106" t="s">
+      <c r="G32" s="219"/>
+      <c r="H32" s="103" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="256" t="s">
+    <row r="33" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="255" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="222"/>
-      <c r="C33" s="257" t="s">
+      <c r="B33" s="254"/>
+      <c r="C33" s="260" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="258"/>
-      <c r="E33" s="259"/>
-      <c r="F33" s="65" t="s">
+      <c r="D33" s="261"/>
+      <c r="E33" s="262"/>
+      <c r="F33" s="218" t="s">
         <v>92</v>
       </c>
-      <c r="G33" s="106" t="s">
+      <c r="G33" s="219"/>
+      <c r="H33" s="103" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="84" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="154" t="s">
+    <row r="34" spans="1:8" s="83" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="144" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="155"/>
-      <c r="C34" s="262" t="s">
+      <c r="B34" s="145"/>
+      <c r="C34" s="263" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="263"/>
-      <c r="E34" s="264"/>
-      <c r="F34" s="112" t="s">
+      <c r="D34" s="264"/>
+      <c r="E34" s="265"/>
+      <c r="F34" s="218" t="s">
         <v>92</v>
       </c>
-      <c r="G34" s="127" t="s">
+      <c r="G34" s="219"/>
+      <c r="H34" s="122" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="248" t="s">
+    <row r="35" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="266" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="249"/>
-      <c r="C35" s="249"/>
-      <c r="D35" s="249"/>
-      <c r="E35" s="249"/>
-      <c r="F35" s="249"/>
-      <c r="G35" s="250"/>
-    </row>
-    <row r="36" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="150" t="s">
+      <c r="B35" s="267"/>
+      <c r="C35" s="267"/>
+      <c r="D35" s="267"/>
+      <c r="E35" s="267"/>
+      <c r="F35" s="267"/>
+      <c r="G35" s="267"/>
+      <c r="H35" s="268"/>
+    </row>
+    <row r="36" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="140" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="151"/>
-      <c r="C36" s="260" t="s">
+      <c r="B36" s="141"/>
+      <c r="C36" s="258" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="261"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="10" t="s">
+      <c r="D36" s="259"/>
+      <c r="E36" s="141"/>
+      <c r="F36" s="218" t="s">
         <v>92</v>
       </c>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="219"/>
+      <c r="H36" s="18" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="251" t="s">
+    <row r="37" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="250" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="252"/>
-      <c r="C37" s="221" t="s">
+      <c r="B37" s="251"/>
+      <c r="C37" s="252" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="265"/>
-      <c r="E37" s="222"/>
-      <c r="F37" s="104" t="s">
+      <c r="D37" s="253"/>
+      <c r="E37" s="254"/>
+      <c r="F37" s="218" t="s">
         <v>92</v>
       </c>
-      <c r="G37" s="106" t="s">
+      <c r="G37" s="219"/>
+      <c r="H37" s="103" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="256" t="s">
+    <row r="38" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="255" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="222"/>
-      <c r="C38" s="221" t="s">
+      <c r="B38" s="254"/>
+      <c r="C38" s="252" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="265"/>
-      <c r="E38" s="222"/>
-      <c r="F38" s="104" t="s">
+      <c r="D38" s="253"/>
+      <c r="E38" s="254"/>
+      <c r="F38" s="218" t="s">
         <v>92</v>
       </c>
-      <c r="G38" s="106" t="s">
+      <c r="G38" s="219"/>
+      <c r="H38" s="103" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="154" t="s">
+    <row r="39" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="144" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="155"/>
-      <c r="C39" s="266" t="s">
+      <c r="B39" s="145"/>
+      <c r="C39" s="256" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="267"/>
-      <c r="E39" s="155"/>
-      <c r="F39" s="1" t="s">
+      <c r="D39" s="257"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="218" t="s">
         <v>92</v>
       </c>
-      <c r="G39" s="107" t="s">
+      <c r="G39" s="219"/>
+      <c r="H39" s="104" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="270" t="s">
+    <row r="40" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="235" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="271"/>
-      <c r="C40" s="272" t="s">
+      <c r="B40" s="236"/>
+      <c r="C40" s="237" t="s">
         <v>134</v>
       </c>
-      <c r="D40" s="273"/>
-      <c r="E40" s="274"/>
-      <c r="F40" s="272" t="s">
+      <c r="D40" s="238"/>
+      <c r="E40" s="239"/>
+      <c r="F40" s="237" t="s">
         <v>135</v>
       </c>
-      <c r="G40" s="274"/>
-    </row>
-    <row r="41" spans="1:7" s="84" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="275"/>
-      <c r="B41" s="276"/>
-      <c r="C41" s="279"/>
-      <c r="D41" s="280"/>
-      <c r="E41" s="281"/>
-      <c r="F41" s="279"/>
-      <c r="G41" s="281"/>
-    </row>
-    <row r="42" spans="1:7" s="84" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="277"/>
-      <c r="B42" s="278"/>
-      <c r="C42" s="282" t="s">
+      <c r="G40" s="238"/>
+      <c r="H40" s="239"/>
+    </row>
+    <row r="41" spans="1:8" s="83" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="240"/>
+      <c r="B41" s="241"/>
+      <c r="C41" s="244"/>
+      <c r="D41" s="245"/>
+      <c r="E41" s="246"/>
+      <c r="F41" s="244"/>
+      <c r="G41" s="303"/>
+      <c r="H41" s="246"/>
+    </row>
+    <row r="42" spans="1:8" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="240"/>
+      <c r="B42" s="241"/>
+      <c r="C42" s="195"/>
+      <c r="D42" s="196"/>
+      <c r="E42" s="203"/>
+      <c r="F42" s="195"/>
+      <c r="G42" s="196"/>
+      <c r="H42" s="203"/>
+    </row>
+    <row r="43" spans="1:8" s="83" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="242"/>
+      <c r="B43" s="243"/>
+      <c r="C43" s="247" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="283"/>
-      <c r="E42" s="284"/>
-      <c r="F42" s="282" t="s">
+      <c r="D43" s="248"/>
+      <c r="E43" s="249"/>
+      <c r="F43" s="247" t="s">
         <v>136</v>
       </c>
-      <c r="G42" s="284"/>
-    </row>
-    <row r="43" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="113"/>
-      <c r="B43" s="113"/>
-      <c r="C43" s="113"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="268"/>
-      <c r="F43" s="268"/>
-      <c r="G43" s="268"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="46" t="s">
+      <c r="G43" s="248"/>
+      <c r="H43" s="249"/>
+    </row>
+    <row r="44" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="108"/>
+      <c r="B44" s="108"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="233"/>
+      <c r="F44" s="233"/>
+      <c r="G44" s="233"/>
+      <c r="H44" s="233"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="B44" s="114"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="269"/>
-      <c r="F44" s="269"/>
-      <c r="G44" s="269"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="214" t="s">
+      <c r="B45" s="109"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="234"/>
+      <c r="F45" s="234"/>
+      <c r="G45" s="234"/>
+      <c r="H45" s="234"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="282" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="214"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="214" t="s">
+      <c r="B47" s="282"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="282" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="214"/>
+      <c r="B48" s="282"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+  <mergeCells count="82">
+    <mergeCell ref="F39:G39"/>
     <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="F8:G10"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="H15:H22"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:G29"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="A30:B30"/>
@@ -6979,33 +7080,26 @@
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="C34:E34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="G15:G22"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="E44:H44"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="A41:B43"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:H43"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>

--- a/backend/templates/UC-18gsm-250W-BFQR.xlsx
+++ b/backend/templates/UC-18gsm-250W-BFQR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C50027-5736-4CEA-9D7E-E57E8477ABFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EF1C3F-FA81-422F-86E0-DE8EBAACDC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1430,7 +1430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="313">
+  <cellXfs count="315">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2167,79 +2167,91 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2248,15 +2260,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2275,6 +2278,126 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2284,127 +2407,10 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2972,7 +2978,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6164,7 +6170,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6178,16 +6184,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="283" t="s">
+      <c r="A1" s="276" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="284"/>
-      <c r="C1" s="284"/>
-      <c r="D1" s="284"/>
-      <c r="E1" s="284"/>
-      <c r="F1" s="284"/>
-      <c r="G1" s="284"/>
-      <c r="H1" s="285"/>
+      <c r="B1" s="277"/>
+      <c r="C1" s="277"/>
+      <c r="D1" s="277"/>
+      <c r="E1" s="277"/>
+      <c r="F1" s="277"/>
+      <c r="G1" s="277"/>
+      <c r="H1" s="278"/>
     </row>
     <row r="2" spans="1:8" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="84"/>
@@ -6202,16 +6208,16 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="83" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="291" t="s">
+      <c r="A3" s="284" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="292"/>
-      <c r="C3" s="292"/>
-      <c r="D3" s="292"/>
-      <c r="E3" s="292"/>
-      <c r="F3" s="292"/>
-      <c r="G3" s="292"/>
-      <c r="H3" s="293"/>
+      <c r="B3" s="285"/>
+      <c r="C3" s="285"/>
+      <c r="D3" s="285"/>
+      <c r="E3" s="285"/>
+      <c r="F3" s="285"/>
+      <c r="G3" s="285"/>
+      <c r="H3" s="286"/>
     </row>
     <row r="4" spans="1:8" s="83" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="195" t="s">
@@ -6226,16 +6232,16 @@
       <c r="H4" s="203"/>
     </row>
     <row r="5" spans="1:8" s="83" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="286" t="s">
+      <c r="A5" s="279" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="287"/>
-      <c r="C5" s="287"/>
-      <c r="D5" s="287"/>
-      <c r="E5" s="287"/>
-      <c r="F5" s="287"/>
-      <c r="G5" s="287"/>
-      <c r="H5" s="288"/>
+      <c r="B5" s="280"/>
+      <c r="C5" s="280"/>
+      <c r="D5" s="280"/>
+      <c r="E5" s="280"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="280"/>
+      <c r="H5" s="281"/>
     </row>
     <row r="6" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="87" t="s">
@@ -6251,12 +6257,12 @@
         <f>Page1!H4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="254"/>
-      <c r="F6" s="277" t="s">
+      <c r="E6" s="251"/>
+      <c r="F6" s="270" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="278"/>
-      <c r="H6" s="274">
+      <c r="G6" s="271"/>
+      <c r="H6" s="282">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
@@ -6273,10 +6279,10 @@
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="254"/>
-      <c r="F7" s="304"/>
-      <c r="G7" s="251"/>
-      <c r="H7" s="290"/>
+      <c r="E7" s="251"/>
+      <c r="F7" s="301"/>
+      <c r="G7" s="258"/>
+      <c r="H7" s="283"/>
     </row>
     <row r="8" spans="1:8" s="83" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="87" t="s">
@@ -6289,16 +6295,16 @@
       <c r="C8" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="289">
+      <c r="D8" s="296">
         <f>Page1!H5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="289"/>
-      <c r="F8" s="277" t="s">
+      <c r="E8" s="296"/>
+      <c r="F8" s="270" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="278"/>
-      <c r="H8" s="274">
+      <c r="G8" s="271"/>
+      <c r="H8" s="282">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
@@ -6311,16 +6317,16 @@
         <f>Page1!G44</f>
         <v>461309100</v>
       </c>
-      <c r="C9" s="272" t="s">
+      <c r="C9" s="299" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="277" t="s">
+      <c r="D9" s="270" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="278"/>
-      <c r="F9" s="305"/>
-      <c r="G9" s="306"/>
-      <c r="H9" s="275"/>
+      <c r="E9" s="271"/>
+      <c r="F9" s="302"/>
+      <c r="G9" s="303"/>
+      <c r="H9" s="297"/>
     </row>
     <row r="10" spans="1:8" s="83" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="94" t="s">
@@ -6330,36 +6336,36 @@
         <f>Page1!C5</f>
         <v>0</v>
       </c>
-      <c r="C10" s="273"/>
-      <c r="D10" s="279"/>
-      <c r="E10" s="280"/>
-      <c r="F10" s="279"/>
-      <c r="G10" s="280"/>
-      <c r="H10" s="276"/>
+      <c r="C10" s="300"/>
+      <c r="D10" s="272"/>
+      <c r="E10" s="273"/>
+      <c r="F10" s="272"/>
+      <c r="G10" s="273"/>
+      <c r="H10" s="298"/>
     </row>
     <row r="11" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="294" t="s">
+      <c r="A11" s="287" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="296" t="s">
+      <c r="B11" s="289" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="298" t="s">
+      <c r="C11" s="291" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="299"/>
-      <c r="E11" s="300"/>
-      <c r="F11" s="307" t="s">
+      <c r="D11" s="292"/>
+      <c r="E11" s="293"/>
+      <c r="F11" s="304" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="308"/>
-      <c r="H11" s="301" t="s">
+      <c r="G11" s="305"/>
+      <c r="H11" s="294" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="295"/>
-      <c r="B12" s="297"/>
+      <c r="A12" s="288"/>
+      <c r="B12" s="290"/>
       <c r="C12" s="96" t="s">
         <v>60</v>
       </c>
@@ -6369,9 +6375,9 @@
       <c r="E12" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="309"/>
-      <c r="G12" s="310"/>
-      <c r="H12" s="302"/>
+      <c r="F12" s="306"/>
+      <c r="G12" s="307"/>
+      <c r="H12" s="295"/>
     </row>
     <row r="13" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="97" t="s">
@@ -6389,11 +6395,11 @@
       <c r="E13" s="99">
         <v>20</v>
       </c>
-      <c r="F13" s="311" t="e">
+      <c r="F13" s="308" t="e">
         <f>Page1!D39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="312"/>
+      <c r="G13" s="309"/>
       <c r="H13" s="18" t="s">
         <v>65</v>
       </c>
@@ -6469,7 +6475,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G16" s="219"/>
-      <c r="H16" s="281"/>
+      <c r="H16" s="274"/>
     </row>
     <row r="17" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="100" t="s">
@@ -6492,7 +6498,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G17" s="219"/>
-      <c r="H17" s="281"/>
+      <c r="H17" s="274"/>
     </row>
     <row r="18" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="100" t="s">
@@ -6515,7 +6521,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G18" s="219"/>
-      <c r="H18" s="281"/>
+      <c r="H18" s="274"/>
     </row>
     <row r="19" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="100" t="s">
@@ -6538,7 +6544,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G19" s="219"/>
-      <c r="H19" s="281"/>
+      <c r="H19" s="274"/>
     </row>
     <row r="20" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="100" t="s">
@@ -6561,7 +6567,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G20" s="219"/>
-      <c r="H20" s="281"/>
+      <c r="H20" s="274"/>
     </row>
     <row r="21" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="100" t="s">
@@ -6579,12 +6585,12 @@
       <c r="E21" s="38">
         <v>0.6</v>
       </c>
-      <c r="F21" s="218" t="e">
+      <c r="F21" s="313" t="e">
         <f>Page1!G39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="219"/>
-      <c r="H21" s="281"/>
+      <c r="G21" s="314"/>
+      <c r="H21" s="274"/>
     </row>
     <row r="22" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="100" t="s">
@@ -6602,11 +6608,11 @@
       <c r="E22" s="38">
         <v>1.4</v>
       </c>
-      <c r="F22" s="218" t="e">
+      <c r="F22" s="313" t="e">
         <f>Page1!H39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="219"/>
+      <c r="G22" s="314"/>
       <c r="H22" s="134"/>
     </row>
     <row r="23" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6711,27 +6717,27 @@
       </c>
     </row>
     <row r="27" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="266" t="s">
+      <c r="A27" s="267" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="267"/>
-      <c r="C27" s="267"/>
-      <c r="D27" s="267"/>
-      <c r="E27" s="267"/>
-      <c r="F27" s="267"/>
-      <c r="G27" s="267"/>
-      <c r="H27" s="268"/>
+      <c r="B27" s="268"/>
+      <c r="C27" s="268"/>
+      <c r="D27" s="268"/>
+      <c r="E27" s="268"/>
+      <c r="F27" s="268"/>
+      <c r="G27" s="268"/>
+      <c r="H27" s="269"/>
     </row>
     <row r="28" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="250" t="s">
+      <c r="A28" s="257" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="251"/>
-      <c r="C28" s="269" t="s">
+      <c r="B28" s="258"/>
+      <c r="C28" s="310" t="s">
         <v>127</v>
       </c>
-      <c r="D28" s="270"/>
-      <c r="E28" s="271"/>
+      <c r="D28" s="311"/>
+      <c r="E28" s="312"/>
       <c r="F28" s="218" t="s">
         <v>92</v>
       </c>
@@ -6741,15 +6747,15 @@
       </c>
     </row>
     <row r="29" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="255" t="s">
+      <c r="A29" s="250" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="254"/>
-      <c r="C29" s="260" t="s">
+      <c r="B29" s="251"/>
+      <c r="C29" s="259" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="261"/>
-      <c r="E29" s="262"/>
+      <c r="D29" s="260"/>
+      <c r="E29" s="261"/>
       <c r="F29" s="218" t="s">
         <v>92</v>
       </c>
@@ -6759,15 +6765,15 @@
       </c>
     </row>
     <row r="30" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="255" t="s">
+      <c r="A30" s="250" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="254"/>
-      <c r="C30" s="260" t="s">
+      <c r="B30" s="251"/>
+      <c r="C30" s="259" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="261"/>
-      <c r="E30" s="262"/>
+      <c r="D30" s="260"/>
+      <c r="E30" s="261"/>
       <c r="F30" s="218" t="s">
         <v>92</v>
       </c>
@@ -6777,15 +6783,15 @@
       </c>
     </row>
     <row r="31" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="255" t="s">
+      <c r="A31" s="250" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="254"/>
-      <c r="C31" s="260" t="s">
+      <c r="B31" s="251"/>
+      <c r="C31" s="259" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="261"/>
-      <c r="E31" s="262"/>
+      <c r="D31" s="260"/>
+      <c r="E31" s="261"/>
       <c r="F31" s="218" t="s">
         <v>92</v>
       </c>
@@ -6795,15 +6801,15 @@
       </c>
     </row>
     <row r="32" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="255" t="s">
+      <c r="A32" s="250" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="254"/>
-      <c r="C32" s="260" t="s">
+      <c r="B32" s="251"/>
+      <c r="C32" s="259" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="261"/>
-      <c r="E32" s="262"/>
+      <c r="D32" s="260"/>
+      <c r="E32" s="261"/>
       <c r="F32" s="218" t="s">
         <v>92</v>
       </c>
@@ -6813,15 +6819,15 @@
       </c>
     </row>
     <row r="33" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="255" t="s">
+      <c r="A33" s="250" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="254"/>
-      <c r="C33" s="260" t="s">
+      <c r="B33" s="251"/>
+      <c r="C33" s="259" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="261"/>
-      <c r="E33" s="262"/>
+      <c r="D33" s="260"/>
+      <c r="E33" s="261"/>
       <c r="F33" s="218" t="s">
         <v>92</v>
       </c>
@@ -6835,11 +6841,11 @@
         <v>105</v>
       </c>
       <c r="B34" s="145"/>
-      <c r="C34" s="263" t="s">
+      <c r="C34" s="264" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="264"/>
-      <c r="E34" s="265"/>
+      <c r="D34" s="265"/>
+      <c r="E34" s="266"/>
       <c r="F34" s="218" t="s">
         <v>92</v>
       </c>
@@ -6849,26 +6855,26 @@
       </c>
     </row>
     <row r="35" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="266" t="s">
+      <c r="A35" s="267" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="267"/>
-      <c r="C35" s="267"/>
-      <c r="D35" s="267"/>
-      <c r="E35" s="267"/>
-      <c r="F35" s="267"/>
-      <c r="G35" s="267"/>
-      <c r="H35" s="268"/>
+      <c r="B35" s="268"/>
+      <c r="C35" s="268"/>
+      <c r="D35" s="268"/>
+      <c r="E35" s="268"/>
+      <c r="F35" s="268"/>
+      <c r="G35" s="268"/>
+      <c r="H35" s="269"/>
     </row>
     <row r="36" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="140" t="s">
         <v>108</v>
       </c>
       <c r="B36" s="141"/>
-      <c r="C36" s="258" t="s">
+      <c r="C36" s="262" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="259"/>
+      <c r="D36" s="263"/>
       <c r="E36" s="141"/>
       <c r="F36" s="218" t="s">
         <v>92</v>
@@ -6879,15 +6885,15 @@
       </c>
     </row>
     <row r="37" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="250" t="s">
+      <c r="A37" s="257" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="251"/>
+      <c r="B37" s="258"/>
       <c r="C37" s="252" t="s">
         <v>110</v>
       </c>
       <c r="D37" s="253"/>
-      <c r="E37" s="254"/>
+      <c r="E37" s="251"/>
       <c r="F37" s="218" t="s">
         <v>92</v>
       </c>
@@ -6897,15 +6903,15 @@
       </c>
     </row>
     <row r="38" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="255" t="s">
+      <c r="A38" s="250" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="254"/>
+      <c r="B38" s="251"/>
       <c r="C38" s="252" t="s">
         <v>112</v>
       </c>
       <c r="D38" s="253"/>
-      <c r="E38" s="254"/>
+      <c r="E38" s="251"/>
       <c r="F38" s="218" t="s">
         <v>92</v>
       </c>
@@ -6919,10 +6925,10 @@
         <v>113</v>
       </c>
       <c r="B39" s="145"/>
-      <c r="C39" s="256" t="s">
+      <c r="C39" s="254" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="257"/>
+      <c r="D39" s="255"/>
       <c r="E39" s="145"/>
       <c r="F39" s="218" t="s">
         <v>92</v>
@@ -6933,34 +6939,34 @@
       </c>
     </row>
     <row r="40" spans="1:8" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="235" t="s">
+      <c r="A40" s="234" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="236"/>
-      <c r="C40" s="237" t="s">
+      <c r="B40" s="235"/>
+      <c r="C40" s="236" t="s">
         <v>134</v>
       </c>
-      <c r="D40" s="238"/>
-      <c r="E40" s="239"/>
-      <c r="F40" s="237" t="s">
+      <c r="D40" s="237"/>
+      <c r="E40" s="238"/>
+      <c r="F40" s="236" t="s">
         <v>135</v>
       </c>
-      <c r="G40" s="238"/>
-      <c r="H40" s="239"/>
+      <c r="G40" s="237"/>
+      <c r="H40" s="238"/>
     </row>
     <row r="41" spans="1:8" s="83" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="240"/>
-      <c r="B41" s="241"/>
-      <c r="C41" s="244"/>
-      <c r="D41" s="245"/>
-      <c r="E41" s="246"/>
-      <c r="F41" s="244"/>
-      <c r="G41" s="303"/>
-      <c r="H41" s="246"/>
-    </row>
-    <row r="42" spans="1:8" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="240"/>
-      <c r="B42" s="241"/>
+      <c r="A41" s="239"/>
+      <c r="B41" s="240"/>
+      <c r="C41" s="243"/>
+      <c r="D41" s="244"/>
+      <c r="E41" s="245"/>
+      <c r="F41" s="243"/>
+      <c r="G41" s="246"/>
+      <c r="H41" s="245"/>
+    </row>
+    <row r="42" spans="1:8" s="83" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="239"/>
+      <c r="B42" s="240"/>
       <c r="C42" s="195"/>
       <c r="D42" s="196"/>
       <c r="E42" s="203"/>
@@ -6969,8 +6975,8 @@
       <c r="H42" s="203"/>
     </row>
     <row r="43" spans="1:8" s="83" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="242"/>
-      <c r="B43" s="243"/>
+      <c r="A43" s="241"/>
+      <c r="B43" s="242"/>
       <c r="C43" s="247" t="s">
         <v>22</v>
       </c>
@@ -6987,10 +6993,10 @@
       <c r="B44" s="108"/>
       <c r="C44" s="108"/>
       <c r="D44" s="108"/>
-      <c r="E44" s="233"/>
-      <c r="F44" s="233"/>
-      <c r="G44" s="233"/>
-      <c r="H44" s="233"/>
+      <c r="E44" s="256"/>
+      <c r="F44" s="256"/>
+      <c r="G44" s="256"/>
+      <c r="H44" s="256"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="46" t="s">
@@ -6999,38 +7005,33 @@
       <c r="B45" s="109"/>
       <c r="C45" s="111"/>
       <c r="D45" s="108"/>
-      <c r="E45" s="234"/>
-      <c r="F45" s="234"/>
-      <c r="G45" s="234"/>
-      <c r="H45" s="234"/>
+      <c r="E45" s="233"/>
+      <c r="F45" s="233"/>
+      <c r="G45" s="233"/>
+      <c r="H45" s="233"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="282" t="s">
+      <c r="A47" s="275" t="s">
         <v>117</v>
       </c>
-      <c r="B47" s="282"/>
+      <c r="B47" s="275"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="282" t="s">
+      <c r="A48" s="275" t="s">
         <v>118</v>
       </c>
-      <c r="B48" s="282"/>
+      <c r="B48" s="275"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="F28:G28"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:E28"/>
     <mergeCell ref="F6:G7"/>
     <mergeCell ref="F8:G10"/>
     <mergeCell ref="F11:G12"/>
@@ -7062,9 +7063,6 @@
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:E28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="F29:G29"/>
@@ -7086,11 +7084,19 @@
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="E44:H44"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F38:G38"/>
     <mergeCell ref="E45:H45"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="C40:E40"/>
